--- a/DB files - Excel/tblStudy.xlsx
+++ b/DB files - Excel/tblStudy.xlsx
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE42"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -590,6 +590,10 @@
     <col customWidth="true" min="29" max="29" width="14.0625"/>
     <col customWidth="true" min="30" max="30" width="14.0625"/>
     <col customWidth="true" min="31" max="31" width="14.0625"/>
+    <col customWidth="true" min="32" max="32" width="14.0625"/>
+    <col customWidth="true" min="33" max="33" width="14.0625"/>
+    <col customWidth="true" min="34" max="34" width="14.0625"/>
+    <col customWidth="true" min="35" max="35" width="14.0625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -655,95 +659,115 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
+          <t>AlternativesExplicit</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
           <t>TradeOffsExplicit</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>DecisionExplicit</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>OptimalAltExplicit</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>RoleSpecification</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>OpenMeetings</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>ResultsAdopted</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>ProblemDefinition</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>ObjElicitationMethod</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>TradeOffMethod</t>
-        </is>
-      </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
+          <t>TradeOffMethod_Exp</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>TradeOffMethod_Sub</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
           <t>Decision</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Leader</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Participants</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>ObjElicitationSource</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>ProcedureElicitation</t>
-        </is>
-      </c>
       <c r="AA1" s="2" t="inlineStr">
         <is>
+          <t>ObjElicitationSource_Exp</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>ObjElicitationSource_Sub</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>ProcedureElicitation_Exp</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>ProcedureElicitation_Sub</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
           <t>ConsequencePrediction</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>FullCitation</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
       </c>
-      <c r="AD1" s="2" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>IncludeInPublication</t>
         </is>
@@ -816,67 +840,85 @@
       <c r="R2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S2" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="U2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W2" s="6" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>Fishery, Management, Scientists</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y2" s="6" t="inlineStr">
+      <c r="Z2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA2" s="6" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Managers</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
+      <c r="AB2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC2" s="6" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Management</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="inlineStr">
+      <c r="AD2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE2" s="6" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AB2" s="8" t="inlineStr">
+      <c r="AF2" s="8" t="inlineStr">
         <is>
           <t>Hicks, A. C., Cox, S. P., Taylor, N., Taylor, I. G., Grandin, C., &amp; Ianelli, J. N. (2016). Conservation and yield performance of harvest control rules for the transboundary Pacific hake fishery in US and Canadian waters. Management Science in Fisheries: An Introduction to Simulation-based Methods, 69.</t>
         </is>
       </c>
-      <c r="AC2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD2" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE2" s="7" t="b">
+      <c r="AG2" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI2" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -947,17 +989,15 @@
       <c r="R3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S3" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S3" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="U3" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -967,47 +1007,67 @@
           <t/>
         </is>
       </c>
-      <c r="W3" s="6" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y3" s="6" t="inlineStr">
+      <c r="Z3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA3" s="6" t="inlineStr">
         <is>
           <t>Fishery</t>
         </is>
       </c>
-      <c r="Z3" s="6" t="inlineStr">
+      <c r="AB3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC3" s="6" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="AA3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB3" s="8" t="inlineStr">
+      <c r="AD3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF3" s="8" t="inlineStr">
         <is>
           <t>Cox, S. P., &amp; Kronlund, A. R. (2016). Model-based management procedures for the sablefish fishery in British Columbia, Canada. Management Science in Fisheries: An Introduction to Simulation-based Methods, 86.</t>
         </is>
       </c>
-      <c r="AC3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD3" s="8" t="inlineStr">
+      <c r="AG3" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH3" s="8" t="inlineStr">
         <is>
           <t>While the request to evaluate management was started by the fishery and government, it seems that the MSE was lead by the researchers, and the researchers made most of the decisions about what direction to take the MSE.</t>
         </is>
       </c>
-      <c r="AE3" s="7" t="b">
+      <c r="AI3" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1078,17 +1138,15 @@
       <c r="R4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S4" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="U4" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1098,47 +1156,67 @@
           <t/>
         </is>
       </c>
-      <c r="W4" s="6" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="X4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y4" s="6" t="inlineStr">
+      <c r="Z4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA4" s="6" t="inlineStr">
         <is>
           <t>Analysts, Fishery</t>
         </is>
       </c>
-      <c r="Z4" s="6" t="inlineStr">
+      <c r="AB4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC4" s="6" t="inlineStr">
         <is>
           <t>Analysts, Fishery</t>
         </is>
       </c>
-      <c r="AA4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB4" s="8" t="inlineStr">
+      <c r="AD4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF4" s="8" t="inlineStr">
         <is>
           <t>Breen, P., Bentley, N., Haist, V., Starr, P., &amp; Sykes, D. (2016). Management procedures for New Zealand rock lobster stocks. Management Science in Fisheries: An Introduction to Simulation-based Methods, 105.</t>
         </is>
       </c>
-      <c r="AC4" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD4" s="8" t="inlineStr">
+      <c r="AG4" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH4" s="8" t="inlineStr">
         <is>
           <t>There was a good deal of iteration occuring in this project that makes clear identification of the process, objectives, and management tools difficult.  Stakeholder interaction occurred, but it is not documented how it occurred, and in particular what effect that interaction had on the set of objectives and management tools considered.  It seems as if a number of decisions were made by the researchers in terms of moving from vague objectives to performance measures, and what set of performance measures were considered.  Stakeholders did explicitly identify some management tools to evaluate.  A large set of objectives was developed, but only a limited set of those objectives are presented in the results.  It is unclear how the final set was selected, although there is some discussion of a pareto-optimal set of management procedures.</t>
         </is>
       </c>
-      <c r="AE4" s="7" t="b">
+      <c r="AI4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1209,17 +1287,15 @@
       <c r="R5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S5" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="U5" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1229,47 +1305,67 @@
           <t/>
         </is>
       </c>
-      <c r="W5" s="6" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="X5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y5" s="6" t="inlineStr">
+      <c r="Z5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA5" s="6" t="inlineStr">
         <is>
           <t>Analysts, Government</t>
         </is>
       </c>
-      <c r="Z5" s="6" t="inlineStr">
+      <c r="AB5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC5" s="6" t="inlineStr">
         <is>
           <t>Analysts</t>
         </is>
       </c>
-      <c r="AA5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB5" s="8" t="inlineStr">
+      <c r="AD5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF5" s="8" t="inlineStr">
         <is>
           <t>Szuwalski, C.S., Punt, A.E., (2016). Fisheries management for regime-based recruitment: lessons from a management strategy evaluation for the fishery for snow crab in the eastern Bering Sea. Management Science in Fisheries: An Introduction to Simulation-based Methods, 105.</t>
         </is>
       </c>
-      <c r="AC5" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD5" s="8" t="inlineStr">
+      <c r="AG5" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH5" s="8" t="inlineStr">
         <is>
           <t>Results are not provided for all of the objectives listed in the text.  The authors state that they followed best practices for MSE such as: "incorporating managers and stakeholders in the selection of objectives and performance metrics", but it is not clear how that occurred.  This article and Punt et al. 2014 will be useful to return to for our climate work.</t>
         </is>
       </c>
-      <c r="AE5" s="7" t="b">
+      <c r="AI5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1340,17 +1436,15 @@
       <c r="R6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S6" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="U6" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1360,47 +1454,67 @@
           <t/>
         </is>
       </c>
-      <c r="W6" s="6" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>Government, Scientists</t>
         </is>
       </c>
-      <c r="X6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y6" s="6" t="inlineStr">
+      <c r="Z6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA6" s="6" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="Z6" s="6" t="inlineStr">
+      <c r="AB6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC6" s="6" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AA6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB6" s="8" t="inlineStr">
+      <c r="AD6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF6" s="8" t="inlineStr">
         <is>
           <t>Hillary, R. M., Preece, A. L., Davies, C. R., Kurota, H., Sakai, O., Itoh, T., ... &amp; Branch, T. A. (2016). Managing international tuna stocks via the management procedure approach. Management Science in Fisheries: An Introduction to Simulation-based Methods, 147.</t>
         </is>
       </c>
-      <c r="AC6" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD6" s="8" t="inlineStr">
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH6" s="8" t="inlineStr">
         <is>
           <t>A management commision representing nations participating in the fishery was created.  This commision lead this MSE and was the source of the objs and procedures. The list of objectives does not match the set of performance criteria displayed in the results figure.</t>
         </is>
       </c>
-      <c r="AE6" s="7" t="b">
+      <c r="AI6" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1471,17 +1585,15 @@
       <c r="R7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S7" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="U7" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1491,47 +1603,67 @@
           <t/>
         </is>
       </c>
-      <c r="W7" s="6" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>Fishery, Management</t>
         </is>
       </c>
-      <c r="X7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y7" s="6" t="inlineStr">
+      <c r="Z7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="6" t="inlineStr">
         <is>
           <t>Fishery, Managers</t>
         </is>
       </c>
-      <c r="Z7" s="6" t="inlineStr">
+      <c r="AB7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC7" s="6" t="inlineStr">
         <is>
           <t>Fishery, Management</t>
         </is>
       </c>
-      <c r="AA7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="8" t="inlineStr">
+      <c r="AD7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="8" t="inlineStr">
         <is>
           <t>Jones, M. L., Catalano, M. J., Peterson, L. K., &amp; Berger, A. M. (2016). Stakeholder-centered development of a harvest control rule for Lake Erie walleye. Management Science in Fisheries: an Introduction to Simulation-based Methods, 163-183.</t>
         </is>
       </c>
-      <c r="AC7" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD7" s="8" t="inlineStr">
+      <c r="AG7" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH7" s="8" t="inlineStr">
         <is>
           <t>An explicit decision making process was followed for which a decision making body was established that included managers and stakeholders from the impacted regions and stakeholder groups.  Nice results section with a variety of figures and tables.</t>
         </is>
       </c>
-      <c r="AE7" s="7" t="b">
+      <c r="AI7" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1602,17 +1734,15 @@
       <c r="R8" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S8" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="U8" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1622,47 +1752,67 @@
           <t/>
         </is>
       </c>
-      <c r="W8" s="6" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y8" s="6" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="X8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y8" s="6" t="inlineStr">
+      <c r="Z8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="6" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="Z8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="8" t="inlineStr">
+      <c r="AB8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF8" s="8" t="inlineStr">
         <is>
           <t>Dichmont, C. M., Punt, A. E., Deng, R. A., Pascoe, S., &amp; Buckworth, R. C. (2016). Northern prawn fishery: beyond biologically centred harvest strategies. Management Science in Fisheries: An Introduction to Simulation-based Methods, 184.</t>
         </is>
       </c>
-      <c r="AC8" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD8" s="8" t="inlineStr">
+      <c r="AG8" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH8" s="8" t="inlineStr">
         <is>
           <t>This MSE report is a summary of multiple iterations of an MSE approach to prawn management in Australia.  It includes accounting for economic impacts, with and bioeconomics model, and impacts to other species.  Objiectives were not explicitly weighted, but based on iterative feedback some trade-offs between objectives were apparently evaluated.</t>
         </is>
       </c>
-      <c r="AE8" s="7" t="b">
+      <c r="AI8" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1716,84 +1866,102 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="7" t="b">
-        <v>0</v>
-      </c>
       <c r="O9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="7" t="b">
-        <v>0</v>
-      </c>
       <c r="Q9" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="S9" s="8" t="inlineStr">
+      <c r="T9" s="8" t="inlineStr">
         <is>
           <t>Furbearer management</t>
         </is>
       </c>
-      <c r="T9" s="8" t="inlineStr">
+      <c r="U9" s="8" t="inlineStr">
         <is>
           <t>One-on-one conversation with manager</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>MCDA</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W9" s="6" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y9" s="6" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="X9" s="6" t="inlineStr">
+      <c r="Z9" s="6" t="inlineStr">
         <is>
           <t>Analysts, Decision Makers, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="Y9" s="6" t="inlineStr">
+      <c r="AA9" s="6" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="Z9" s="6" t="inlineStr">
+      <c r="AB9" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC9" s="6" t="inlineStr">
         <is>
           <t>Analysts, Management</t>
         </is>
       </c>
-      <c r="AA9" s="6" t="inlineStr">
+      <c r="AD9" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" s="6" t="inlineStr">
         <is>
           <t>Expert Elicitation, Simulation modeling</t>
         </is>
       </c>
-      <c r="AB9" s="8" t="inlineStr">
+      <c r="AF9" s="8" t="inlineStr">
         <is>
           <t>Cummings1</t>
         </is>
       </c>
-      <c r="AC9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD9" s="8" t="inlineStr">
+      <c r="AG9" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH9" s="8" t="inlineStr">
         <is>
           <t>Not an MSE, just for prototyping the Shiny app</t>
         </is>
       </c>
-      <c r="AE9" s="7" t="b">
+      <c r="AI9" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1847,84 +2015,102 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="7" t="b">
-        <v>0</v>
-      </c>
       <c r="O10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="7" t="b">
-        <v>0</v>
-      </c>
       <c r="Q10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="S10" s="8" t="inlineStr">
+      <c r="T10" s="8" t="inlineStr">
         <is>
           <t>Which model to use for management adjustment</t>
         </is>
       </c>
-      <c r="T10" s="8" t="inlineStr">
+      <c r="U10" s="8" t="inlineStr">
         <is>
           <t>Sample of likely management objectives supplied by decision analyst</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>Visualization</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W10" s="6" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y10" s="6" t="inlineStr">
         <is>
           <t>Independent, Management, Scientists</t>
         </is>
       </c>
-      <c r="X10" s="6" t="inlineStr">
+      <c r="Z10" s="6" t="inlineStr">
         <is>
           <t>Analysts, Independent, Management, Scientists</t>
         </is>
       </c>
-      <c r="Y10" s="6" t="inlineStr">
+      <c r="AA10" s="6" t="inlineStr">
         <is>
           <t>Analysts</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="inlineStr">
+      <c r="AB10" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC10" s="6" t="inlineStr">
         <is>
           <t>Analysts, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA10" s="6" t="inlineStr">
+      <c r="AD10" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE10" s="6" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AB10" s="8" t="inlineStr">
+      <c r="AF10" s="8" t="inlineStr">
         <is>
           <t>Cummings2</t>
         </is>
       </c>
-      <c r="AC10" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD10" s="8" t="inlineStr">
+      <c r="AG10" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH10" s="8" t="inlineStr">
         <is>
           <t>Not an MSE, just included for prototyping Shiny App</t>
         </is>
       </c>
-      <c r="AE10" s="7" t="b">
+      <c r="AI10" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1987,75 +2173,93 @@
         <v>0</v>
       </c>
       <c r="P11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" s="7" t="b">
-        <v>0</v>
-      </c>
       <c r="R11" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="8" t="inlineStr">
+      <c r="S11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8" t="inlineStr">
         <is>
           <t>What is LPC status with regards to the ESA</t>
         </is>
       </c>
-      <c r="T11" s="8" t="inlineStr">
+      <c r="U11" s="8" t="inlineStr">
         <is>
           <t>Facilitated meeting</t>
         </is>
       </c>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W11" s="6" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y11" s="6" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="X11" s="6" t="inlineStr">
+      <c r="Z11" s="6" t="inlineStr">
         <is>
           <t>Analysts, Experts, Facilitators, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="Y11" s="6" t="inlineStr">
+      <c r="AA11" s="6" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="Z11" s="6" t="inlineStr">
+      <c r="AB11" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC11" s="6" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AA11" s="6" t="inlineStr">
+      <c r="AD11" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE11" s="6" t="inlineStr">
         <is>
           <t>Expert Elicitation, Simulation modeling</t>
         </is>
       </c>
-      <c r="AB11" s="8" t="inlineStr">
+      <c r="AF11" s="8" t="inlineStr">
         <is>
           <t>Cummings3</t>
         </is>
       </c>
-      <c r="AC11" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD11" s="8" t="inlineStr">
+      <c r="AG11" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH11" s="8" t="inlineStr">
         <is>
           <t>Not an MSE, included just for prototyping the Shiny App</t>
         </is>
       </c>
-      <c r="AE11" s="7" t="b">
+      <c r="AI11" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2109,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7" t="b">
         <v>0</v>
@@ -2126,68 +2330,86 @@
       <c r="R12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="8" t="inlineStr">
+      <c r="S12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8" t="inlineStr">
         <is>
           <t>What management strategy from a set of area closures, seasonal closures, and minimum size limits (an effort proxy) will best achieve the harvest, conservation, and economic objectives of the indigenous and non-indigenous finfish fisheries in Torres Strait Australia?</t>
         </is>
       </c>
-      <c r="T12" s="8" t="inlineStr">
-        <is>
-          <t>Objectives were elicited in consultation with stakeholders.  The methodology used to conduct the elicitation, and while stakeholders are described an explicit listing of the stakeholders involved in the objective stage was not provided.</t>
-        </is>
-      </c>
-      <c r="U12" s="5" t="inlineStr">
+      <c r="U12" s="8" t="inlineStr">
+        <is>
+          <t>Objectives were elicited in consultation with stakeholders.  While stakeholders are mentioned an explicit listing of the stakeholders involved in the objective stage and the methodology used to conduct the elicitation are not provided.</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="V12" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W12" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X12" s="6" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y12" s="6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z12" s="6" t="inlineStr">
         <is>
           <t>Facilitators, Fishery, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="Y12" s="6" t="inlineStr">
+      <c r="AA12" s="6" t="inlineStr">
         <is>
           <t>Fishery, Government, Management</t>
         </is>
       </c>
-      <c r="Z12" s="6" t="inlineStr">
+      <c r="AB12" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC12" s="6" t="inlineStr">
         <is>
           <t>Fishery, Government, Management</t>
         </is>
       </c>
-      <c r="AA12" s="6" t="inlineStr">
+      <c r="AD12" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE12" s="6" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AB12" s="8" t="inlineStr">
+      <c r="AF12" s="8" t="inlineStr">
         <is>
           <t>Williams, A. J., Little, L. R., and Begg, G. A. 2011. Balancing indigenous and non-indigenous commercial objectives in a coral reef finfish fishery. –
 ICES Journal of Marine Science, 68: 834–847.</t>
         </is>
       </c>
-      <c r="AC12" s="5" t="inlineStr">
+      <c r="AG12" s="5" t="inlineStr">
         <is>
           <t>10.1093/icesjms/fsr034</t>
         </is>
       </c>
-      <c r="AD12" s="8" t="inlineStr">
+      <c r="AH12" s="8" t="inlineStr">
         <is>
           <t>This MSE has an example of the downfall of setting target levels for objectives rather than using a max vs. min. approach because no strategies achieve the target.  The description of this MSE indicates that stakeholders were involved in the process, but the roles of the stakeholders, and a description of the process are not provided.  It is unclear who lead this MSE.  While the objectives are defined as target probabilities, the results are not presented this way.  They are presented in terms of the probability inputs.  No trade-off analysis occurred, so no optimal alternative is provided.  No decision or reporting of subsequent use of the analysis is documented.</t>
         </is>
       </c>
-      <c r="AE12" s="7" t="b">
+      <c r="AI12" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2258,67 +2480,85 @@
       <c r="R13" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S13" s="8" t="inlineStr">
+      <c r="S13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8" t="inlineStr">
         <is>
           <t>How large a buffer should be set on harvest levels for Red King crab in Bristol Bay, Alaska to account for uncertainty in the assessment of the available harvest?</t>
         </is>
       </c>
-      <c r="T13" s="8" t="inlineStr">
+      <c r="U13" s="8" t="inlineStr">
         <is>
           <t>They weren't.  The set of performance metrics were seemingly selected by the scientists conducting the evaluation.</t>
         </is>
       </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W13" s="6" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y13" s="6" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="X13" s="6" t="inlineStr">
+      <c r="Z13" s="6" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Y13" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z13" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AA13" s="6" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC13" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD13" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE13" s="6" t="inlineStr">
+        <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AB13" s="8" t="inlineStr">
+      <c r="AF13" s="8" t="inlineStr">
         <is>
           <t>Punt, A. E., Siddeek, M. S. M., Garber-Yonts, B., Dalton, M., Rugolo, L., Stram, D., Turnock, B. J., and Zheng, J. 2012. Evaluating the impact of buffers to account for scientific uncertainty when setting TACs: application to red king crab in Bristol Bay, Alaska. – ICES Journal of Marine Science, 69: 624–634</t>
         </is>
       </c>
-      <c r="AC13" s="5" t="inlineStr">
+      <c r="AG13" s="5" t="inlineStr">
         <is>
           <t>10.1093/icesjms/fss047</t>
         </is>
       </c>
-      <c r="AD13" s="8" t="inlineStr">
+      <c r="AH13" s="8" t="inlineStr">
         <is>
           <t>This article is not presented explicitly as a management strategy evaluation, but is discussed as being a management strategy evaluation minus a full operating model.  Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
-      <c r="AE13" s="7" t="b">
+      <c r="AI13" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2338,28 +2578,28 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>common coral trout (Plectropomus leopardus) and red throat emperor (Lethrinus miniatus)</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Great Barrier Reef, Australia</t>
         </is>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Great Barrier Reef Coral Reef Finfish Fishery</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Migration</t>
         </is>
       </c>
       <c r="J14" s="7" t="b">
@@ -2389,19 +2629,17 @@
       <c r="R14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S14" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S14" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t>What is the effect of effort controls and area closures on the finfish fihery of the great barrier reef?</t>
+        </is>
+      </c>
+      <c r="U14" s="8" t="inlineStr">
+        <is>
+          <t>It is unclear if there was any elicitation as there is not process documentation.</t>
         </is>
       </c>
       <c r="V14" s="5" t="inlineStr">
@@ -2409,24 +2647,24 @@
           <t/>
         </is>
       </c>
-      <c r="W14" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X14" s="6" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="Y14" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z14" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA14" s="6" t="inlineStr">
@@ -2434,22 +2672,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB14" s="8" t="inlineStr">
+      <c r="AB14" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC14" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD14" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE14" s="6" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF14" s="8" t="inlineStr">
         <is>
           <t>Little, L. R., Punt, A. E., Mapstone, B. D., Begg, G. A., Goldman, B., and Ellis, N. 2009. Different responses to area closures and effort controls for sedentary and migratory harvested species in a multispecies coral reef linefishery. – ICES Journal of Marine Science, 66: 1931–1941.</t>
         </is>
       </c>
-      <c r="AC14" s="5" t="inlineStr">
+      <c r="AG14" s="5" t="inlineStr">
         <is>
           <t>10.1093/icesjms/fsp164</t>
         </is>
       </c>
-      <c r="AD14" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE14" s="7" t="b">
+      <c r="AH14" s="8" t="inlineStr">
+        <is>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+        </is>
+      </c>
+      <c r="AI14" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2469,7 +2727,9 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>tiger flathead (Neoplatycephalus richardsoni),
+jackass morwong (Nemadactylus macropterus), and
+school whiting (Sillago flindersi).</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -2478,19 +2738,19 @@
         </is>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Southern and Eastern Scalefish and Shark Fishery</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Stock Status</t>
         </is>
       </c>
       <c r="J15" s="7" t="b">
@@ -2520,19 +2780,17 @@
       <c r="R15" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S15" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S15" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t>Can harvest control rules updated based on changes to catch length achieve the management objectives of the Southern and Eastern Scalefish and Shark Fishery?</t>
+        </is>
+      </c>
+      <c r="U15" s="8" t="inlineStr">
+        <is>
+          <t>While it is noted that management objectives for the fishery are defined by a government agency, it is unclear if the objectives used here are those objectives, or how those objectives were elicted.</t>
         </is>
       </c>
       <c r="V15" s="5" t="inlineStr">
@@ -2540,24 +2798,24 @@
           <t/>
         </is>
       </c>
-      <c r="W15" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X15" s="6" t="inlineStr">
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="Y15" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z15" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA15" s="6" t="inlineStr">
@@ -2565,23 +2823,43 @@
           <t/>
         </is>
       </c>
-      <c r="AB15" s="8" t="inlineStr">
+      <c r="AB15" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC15" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD15" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE15" s="6" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF15" s="8" t="inlineStr">
         <is>
           <t>Neil L. Klaer, Sally E. Wayte, Gavin Fay,
 An evaluation of the performance of a harvest strategy that uses an average-length-based assessment method. 2012. Fisheries Research, Volumes 134–136, Pages 42-51.</t>
         </is>
       </c>
-      <c r="AC15" s="5" t="inlineStr">
+      <c r="AG15" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2012.08.010</t>
         </is>
       </c>
-      <c r="AD15" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE15" s="7" t="b">
+      <c r="AH15" s="8" t="inlineStr">
+        <is>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+        </is>
+      </c>
+      <c r="AI15" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2601,28 +2879,28 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Western Pacific Leatherback Turtles (Dermochelys coriacea)</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>U.S. West Coast EEZ</t>
         </is>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>-126</v>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>California drift gillnet fishery</t>
         </is>
       </c>
       <c r="I16" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Monitoring Methodology</t>
         </is>
       </c>
       <c r="J16" s="7" t="b">
@@ -2652,19 +2930,17 @@
       <c r="R16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S16" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S16" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t>What limit reference points in the California drift gillnet fishery will best achieve threshold management objectives for Western Pacific Leatherback Turtles?</t>
+        </is>
+      </c>
+      <c r="U16" s="8" t="inlineStr">
+        <is>
+          <t>Objectives weren't elicted.  They were selected by the scientists based on IUCN and ESA criteria.</t>
         </is>
       </c>
       <c r="V16" s="5" t="inlineStr">
@@ -2672,24 +2948,24 @@
           <t/>
         </is>
       </c>
-      <c r="W16" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X16" s="6" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="Y16" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z16" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA16" s="6" t="inlineStr">
@@ -2697,22 +2973,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB16" s="8" t="inlineStr">
+      <c r="AB16" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC16" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD16" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE16" s="6" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF16" s="8" t="inlineStr">
         <is>
           <t>Curtis KA, Moore JE, Benson SR (2015) Estimating Limit Reference Points for Western Pacific Leatherback Turtles (Dermochelys coriacea) in the U.S. West Coast EEZ. PLoS ONE 10(9): e0136452. https://doi.org/10.1371/journal.pone.0136452</t>
         </is>
       </c>
-      <c r="AC16" s="5" t="inlineStr">
+      <c r="AG16" s="5" t="inlineStr">
         <is>
           <t>10.1371/journal.pone.0136452</t>
         </is>
       </c>
-      <c r="AD16" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE16" s="7" t="b">
+      <c r="AH16" s="8" t="inlineStr">
+        <is>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.  In addition, the analysis is disconnected from the system in which the decision is actually being made.  That is, rather than conduct a trade-off analysis on the harvest rate in the fishery that results in the optimal result there and for leatherbacks, acceptable leatherback status is feed into a decision making process for the fishery.  This treatment of these linked problems has built in objective weighting of the leatherback objectives by treating them as constraints.</t>
+        </is>
+      </c>
+      <c r="AI16" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2732,41 +3028,41 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>sablefish (Anoplopoma fimbria)</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>British Columbia (Canada)</t>
         </is>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>multi-fleet multi-gear sablefish (Anoplopoma fimbria) fishery in British Columbia (Canada)</t>
         </is>
       </c>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J17" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M17" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7" t="b">
         <v>0</v>
@@ -2783,19 +3079,17 @@
       <c r="R17" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S17" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S17" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t>Our specific objectives are to: (1) show how uncertainty in a complex stock assessment model leads to alternative BRPs and conservation objectives for the sablefish population, (2) use a closed-loop simulation model to compare how alternative operational control point choices affect management ability to meet conservation objectives defined by biological reference points, as well as short-term fishery economic objectives defined by stakeholders, and (3) test robustness of MPs under an unlikely, yet risky, population dynamics scenario.</t>
+        </is>
+      </c>
+      <c r="U17" s="8" t="inlineStr">
+        <is>
+          <t>It is unclear if there was any elicitation as there is not documentation of the objective development process.</t>
         </is>
       </c>
       <c r="V17" s="5" t="inlineStr">
@@ -2803,24 +3097,24 @@
           <t/>
         </is>
       </c>
-      <c r="W17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X17" s="6" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="Y17" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z17" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AA17" s="6" t="inlineStr">
@@ -2828,22 +3122,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB17" s="8" t="inlineStr">
+      <c r="AB17" s="6" t="inlineStr">
+        <is>
+          <t>Fishery, Scientists</t>
+        </is>
+      </c>
+      <c r="AC17" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AD17" s="6" t="inlineStr">
+        <is>
+          <t>Fishery, Scientists</t>
+        </is>
+      </c>
+      <c r="AE17" s="6" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF17" s="8" t="inlineStr">
         <is>
           <t>Cox, S.P., Kronlund, A.R. and Benson, A.J., 2013. The roles of biological reference points and operational control points in management procedures for the sablefish (Anoplopoma fimbria) fishery in British Columbia, Canada. Environmental Conservation, 40(4), pp.318-328.</t>
         </is>
       </c>
-      <c r="AC17" s="5" t="inlineStr">
+      <c r="AG17" s="5" t="inlineStr">
         <is>
           <t>10.1017/S0376892913000271</t>
         </is>
       </c>
-      <c r="AD17" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE17" s="7" t="b">
+      <c r="AH17" s="8" t="inlineStr">
+        <is>
+          <t>This was one of many articles to come out of MSEs published by the same authors related to their work on BS sablefish.  The process was not fully documented here, apart from the alternatives selected in this study.  It is possible the process is more fully documented in earlier articles related to this fishery.</t>
+        </is>
+      </c>
+      <c r="AI17" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2863,28 +3177,28 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>rock lobster (Jasus edwardsii)</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Victoria, Australia</t>
         </is>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Victoria, Australia rock lobster fishery</t>
         </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Allowable Catch Adjustment, Spatial Structure, Uncertainty</t>
         </is>
       </c>
       <c r="J18" s="7" t="b">
@@ -2914,19 +3228,17 @@
       <c r="R18" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S18" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S18" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t/>
+          <t>What spatial structure of stock assessments and management strategies will best achieve the management objectives for Rock lobster off of Victoria Australia?</t>
+        </is>
+      </c>
+      <c r="U18" s="8" t="inlineStr">
+        <is>
+          <t>Unknown, no documentation of the process for objective determination</t>
         </is>
       </c>
       <c r="V18" s="5" t="inlineStr">
@@ -2934,24 +3246,24 @@
           <t/>
         </is>
       </c>
-      <c r="W18" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X18" s="6" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="Y18" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z18" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA18" s="6" t="inlineStr">
@@ -2959,24 +3271,44 @@
           <t/>
         </is>
       </c>
-      <c r="AB18" s="8" t="inlineStr">
+      <c r="AB18" s="6" t="inlineStr">
+        <is>
+          <t>Fishery, Scientists</t>
+        </is>
+      </c>
+      <c r="AC18" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD18" s="6" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE18" s="6" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF18" s="8" t="inlineStr">
         <is>
           <t>André E. Punt &amp; David Hobday (2009) Management strategy evaluation
 for rock lobster, Jasus_x0001_edwardsii, off Victoria, Australia: Accounting for uncertainty in stock
 structure, New Zealand Journal of Marine and Freshwater Research, 43:1, 485-509</t>
         </is>
       </c>
-      <c r="AC18" s="5" t="inlineStr">
+      <c r="AG18" s="5" t="inlineStr">
         <is>
           <t>10.1080/00288330909510017</t>
         </is>
       </c>
-      <c r="AD18" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE18" s="7" t="b">
+      <c r="AH18" s="8" t="inlineStr">
+        <is>
+          <t>MSE focused on the spatial scale of stock assessments and management.  The results indicate that for the objectives considered a smaller spatial scale is best.  However, they note this approach is not feasible, so management cost objectives were clearly lacking.  No process documentation is included in the article.</t>
+        </is>
+      </c>
+      <c r="AI18" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3047,17 +3379,15 @@
       <c r="R19" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S19" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="U19" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3067,12 +3397,12 @@
           <t/>
         </is>
       </c>
-      <c r="W19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X19" s="6" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3092,22 +3422,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB19" s="8" t="inlineStr">
+      <c r="AB19" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC19" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD19" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE19" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF19" s="8" t="inlineStr">
         <is>
           <t>Dichmont, C.M., Ellis, N., Bustamante, R.H., Deng, R., Tickell, S., Pascual, R., Lozano‐Montes, H. and Griffiths, S., 2013. EDITOR'S CHOICE: Evaluating marine spatial closures with conflicting fisheries and conservation objectives. Journal of Applied Ecology, 50(4), pp.1060-1070.</t>
         </is>
       </c>
-      <c r="AC19" s="5" t="inlineStr">
+      <c r="AG19" s="5" t="inlineStr">
         <is>
           <t>10.1111/1365-2664.12110</t>
         </is>
       </c>
-      <c r="AD19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE19" s="7" t="b">
+      <c r="AH19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI19" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3178,17 +3528,15 @@
       <c r="R20" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S20" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S20" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U20" s="5" t="inlineStr">
+      <c r="U20" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3198,12 +3546,12 @@
           <t/>
         </is>
       </c>
-      <c r="W20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X20" s="6" t="inlineStr">
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3223,22 +3571,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB20" s="8" t="inlineStr">
+      <c r="AB20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF20" s="8" t="inlineStr">
         <is>
           <t>Prellezo, R., Carmona, I. and García, D., 2016. The bad, the good and the very good of the landing obligation implementation in the Bay of Biscay: A case study of Basque trawlers. Fisheries Research, 181, pp.172-185.</t>
         </is>
       </c>
-      <c r="AC20" s="5" t="inlineStr">
+      <c r="AG20" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2016.04.016</t>
         </is>
       </c>
-      <c r="AD20" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE20" s="7" t="b">
+      <c r="AH20" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI20" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3309,17 +3677,15 @@
       <c r="R21" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S21" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S21" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U21" s="5" t="inlineStr">
+      <c r="U21" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3329,12 +3695,12 @@
           <t/>
         </is>
       </c>
-      <c r="W21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X21" s="6" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3354,22 +3720,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB21" s="8" t="inlineStr">
+      <c r="AB21" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC21" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD21" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE21" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF21" s="8" t="inlineStr">
         <is>
           <t>Dichmont, C.M., Deng, A.R., Punt, A.E., Venables, W. and Haddon, M., 2006. Management strategies for short lived species: The case of Australia's Northern Prawn Fishery: 3. Factors affecting management and estimation performance. Fisheries Research, 82(1-3), pp.235-245.</t>
         </is>
       </c>
-      <c r="AC21" s="5" t="inlineStr">
+      <c r="AG21" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2006.06.008</t>
         </is>
       </c>
-      <c r="AD21" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE21" s="7" t="b">
+      <c r="AH21" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI21" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3440,17 +3826,15 @@
       <c r="R22" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S22" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S22" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U22" s="5" t="inlineStr">
+      <c r="U22" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3460,12 +3844,12 @@
           <t/>
         </is>
       </c>
-      <c r="W22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X22" s="6" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3485,22 +3869,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB22" s="8" t="inlineStr">
+      <c r="AB22" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC22" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD22" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE22" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF22" s="8" t="inlineStr">
         <is>
           <t>Plagányi, É.E., Skewes, T.D., Dowling, N.A. and Haddon, M., 2013. Risk management tools for sustainable fisheries management under changing climate: a sea cucumber example. Climatic Change, 119(1), pp.181-197.</t>
         </is>
       </c>
-      <c r="AC22" s="5" t="inlineStr">
+      <c r="AG22" s="5" t="inlineStr">
         <is>
           <t>10.1007/s10584-012-0596-0</t>
         </is>
       </c>
-      <c r="AD22" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE22" s="7" t="b">
+      <c r="AH22" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI22" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3571,17 +3975,15 @@
       <c r="R23" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S23" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S23" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U23" s="5" t="inlineStr">
+      <c r="U23" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3591,12 +3993,12 @@
           <t/>
         </is>
       </c>
-      <c r="W23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X23" s="6" t="inlineStr">
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3616,22 +4018,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB23" s="8" t="inlineStr">
+      <c r="AB23" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC23" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD23" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE23" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF23" s="8" t="inlineStr">
         <is>
           <t>Wiedenmann, J., Wilberg, M., Sylvia, A. and Miller, T., 2016. An evaluation of acceptable biological catch (ABC) harvest control rules designed to limit overfishing. Canadian Journal of Fisheries and Aquatic Sciences, 74(7), pp.1028-1040.</t>
         </is>
       </c>
-      <c r="AC23" s="5" t="inlineStr">
+      <c r="AG23" s="5" t="inlineStr">
         <is>
           <t>10.1139/cjfas-2016-0381</t>
         </is>
       </c>
-      <c r="AD23" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE23" s="7" t="b">
+      <c r="AH23" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI23" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3702,17 +4124,15 @@
       <c r="R24" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S24" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S24" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U24" s="5" t="inlineStr">
+      <c r="U24" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3722,12 +4142,12 @@
           <t/>
         </is>
       </c>
-      <c r="W24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X24" s="6" t="inlineStr">
+      <c r="W24" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3747,22 +4167,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB24" s="8" t="inlineStr">
+      <c r="AB24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF24" s="8" t="inlineStr">
         <is>
           <t>Smith, D.R., McGowan, C.P., Daily, J.P., Nichols, J.D., Sweka, J.A. and Lyons, J.E., 2013. Evaluating a multispecies adaptive management framework: must uncertainty impede effective decision‐making?. Journal of Applied Ecology, 50(6), pp.1431-1440.</t>
         </is>
       </c>
-      <c r="AC24" s="5" t="inlineStr">
+      <c r="AG24" s="5" t="inlineStr">
         <is>
           <t>10.1111/1365-2664.12145</t>
         </is>
       </c>
-      <c r="AD24" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE24" s="7" t="b">
+      <c r="AH24" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI24" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3833,17 +4273,15 @@
       <c r="R25" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S25" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S25" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U25" s="5" t="inlineStr">
+      <c r="U25" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3853,12 +4291,12 @@
           <t/>
         </is>
       </c>
-      <c r="W25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X25" s="6" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3878,22 +4316,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB25" s="8" t="inlineStr">
+      <c r="AB25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF25" s="8" t="inlineStr">
         <is>
           <t>Wetzel, C.R. and Punt, A.E., 2015. Evaluating the performance of data-moderate and catch-only assessment methods for US west coast groundfish. Fisheries research, 171, pp.170-187.</t>
         </is>
       </c>
-      <c r="AC25" s="5" t="inlineStr">
+      <c r="AG25" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2015.06.005</t>
         </is>
       </c>
-      <c r="AD25" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE25" s="7" t="b">
+      <c r="AH25" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI25" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3964,17 +4422,15 @@
       <c r="R26" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S26" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S26" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U26" s="5" t="inlineStr">
+      <c r="U26" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3984,12 +4440,12 @@
           <t/>
         </is>
       </c>
-      <c r="W26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X26" s="6" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4009,22 +4465,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB26" s="8" t="inlineStr">
+      <c r="AB26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF26" s="8" t="inlineStr">
         <is>
           <t>Francois Bastardie, J. Rasmus Nielsen, Gerd Kraus; The eastern Baltic cod fishery: a fleet-based management strategy evaluation framework to assess the cod recovery plan of 2008, ICES Journal of Marine Science, Volume 67, Issue 1, 1 January 2010, Pages 71–86</t>
         </is>
       </c>
-      <c r="AC26" s="5" t="inlineStr">
+      <c r="AG26" s="5" t="inlineStr">
         <is>
           <t>10.1093/icesjms/fsp228</t>
         </is>
       </c>
-      <c r="AD26" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE26" s="7" t="b">
+      <c r="AH26" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI26" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4095,17 +4571,15 @@
       <c r="R27" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S27" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S27" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U27" s="5" t="inlineStr">
+      <c r="U27" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4115,12 +4589,12 @@
           <t/>
         </is>
       </c>
-      <c r="W27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X27" s="6" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4140,22 +4614,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB27" s="8" t="inlineStr">
+      <c r="AB27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF27" s="8" t="inlineStr">
         <is>
           <t>Kolody, D., Polacheck, T., Basson, M. and Davies, C., 2008. Salvaged pearls: lessons learned from a floundering attempt to develop a management procedure for Southern Bluefin Tuna. Fisheries Research, 94(3), pp.339-350.</t>
         </is>
       </c>
-      <c r="AC27" s="5" t="inlineStr">
+      <c r="AG27" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2008.08.016</t>
         </is>
       </c>
-      <c r="AD27" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE27" s="7" t="b">
+      <c r="AH27" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI27" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4226,17 +4720,15 @@
       <c r="R28" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S28" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S28" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U28" s="5" t="inlineStr">
+      <c r="U28" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4246,12 +4738,12 @@
           <t/>
         </is>
       </c>
-      <c r="W28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X28" s="6" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4271,22 +4763,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB28" s="8" t="inlineStr">
+      <c r="AB28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF28" s="8" t="inlineStr">
         <is>
           <t>Dawson, H.A., Jones, M.L., Irwin, B.J., Johnson, N.S., Wagner, M.C. and Szymanski, M.D., 2016. Management Strategy Evaluation Of Pheromone‐Baited Trapping Techniques To Improve Management Of Invasive Sea Lamprey. Natural Resource Modeling, 29(3), pp.448-469.</t>
         </is>
       </c>
-      <c r="AC28" s="5" t="inlineStr">
+      <c r="AG28" s="5" t="inlineStr">
         <is>
           <t>10.1111/nrm.12096</t>
         </is>
       </c>
-      <c r="AD28" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE28" s="7" t="b">
+      <c r="AH28" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI28" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4357,17 +4869,15 @@
       <c r="R29" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S29" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S29" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U29" s="5" t="inlineStr">
+      <c r="U29" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4377,12 +4887,12 @@
           <t/>
         </is>
       </c>
-      <c r="W29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X29" s="6" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4402,22 +4912,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB29" s="8" t="inlineStr">
+      <c r="AB29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF29" s="8" t="inlineStr">
         <is>
           <t>Froehlich, H.E., Essington, T.E. and McDonald, P.S., 2017. When does hypoxia affect management performance of a fishery? A management strategy evaluation of Dungeness crab (Metacarcinus magister) fisheries in Hood Canal, Washington, USA. Canadian journal of fisheries and aquatic sciences, 74(6), pp.922-932.</t>
         </is>
       </c>
-      <c r="AC29" s="5" t="inlineStr">
+      <c r="AG29" s="5" t="inlineStr">
         <is>
           <t>10.1139/cjfas-2016-0269</t>
         </is>
       </c>
-      <c r="AD29" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE29" s="7" t="b">
+      <c r="AH29" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI29" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4488,17 +5018,15 @@
       <c r="R30" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S30" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U30" s="5" t="inlineStr">
+      <c r="U30" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4508,12 +5036,12 @@
           <t/>
         </is>
       </c>
-      <c r="W30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X30" s="6" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4533,22 +5061,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB30" s="8" t="inlineStr">
+      <c r="AB30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF30" s="8" t="inlineStr">
         <is>
           <t>Punt, A.E., McGarvey, R., Linnane, A., Phillips, J., Triantafillos, L. and Feenstra, J., 2012. Evaluating empirical decision rules for southern rock lobster fisheries: a South Australian example. Fisheries Research, 115, pp.60-71.</t>
         </is>
       </c>
-      <c r="AC30" s="5" t="inlineStr">
+      <c r="AG30" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2011.11.010</t>
         </is>
       </c>
-      <c r="AD30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE30" s="7" t="b">
+      <c r="AH30" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI30" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4619,17 +5167,15 @@
       <c r="R31" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S31" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T31" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U31" s="5" t="inlineStr">
+      <c r="U31" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4639,12 +5185,12 @@
           <t/>
         </is>
       </c>
-      <c r="W31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X31" s="6" t="inlineStr">
+      <c r="W31" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4664,22 +5210,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB31" s="8" t="inlineStr">
+      <c r="AB31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF31" s="8" t="inlineStr">
         <is>
           <t>Irwin, B.J., Wilberg, M.J., Bence, J.R. and Jones, M.L., 2008. Evaluating alternative harvest policies for yellow perch in southern Lake Michigan. Fisheries Research, 94(3), pp.267-281.</t>
         </is>
       </c>
-      <c r="AC31" s="5" t="inlineStr">
+      <c r="AG31" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2008.05.009</t>
         </is>
       </c>
-      <c r="AD31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE31" s="7" t="b">
+      <c r="AH31" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI31" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4750,17 +5316,15 @@
       <c r="R32" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S32" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U32" s="5" t="inlineStr">
+      <c r="U32" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4770,12 +5334,12 @@
           <t/>
         </is>
       </c>
-      <c r="W32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X32" s="6" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4795,22 +5359,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB32" s="8" t="inlineStr">
+      <c r="AB32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF32" s="8" t="inlineStr">
         <is>
           <t>Kuykendall, K.M., Powell, E.N., Klink, J.M., Moreno, P.T. and Leaf, R.T., 2017. Management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Fishery Bulletin, 115(3).</t>
         </is>
       </c>
-      <c r="AC32" s="5" t="inlineStr">
+      <c r="AG32" s="5" t="inlineStr">
         <is>
           <t>10.7755/FB.115.3.3</t>
         </is>
       </c>
-      <c r="AD32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE32" s="7" t="b">
+      <c r="AH32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI32" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4881,17 +5465,15 @@
       <c r="R33" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S33" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U33" s="5" t="inlineStr">
+      <c r="U33" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4901,12 +5483,12 @@
           <t/>
         </is>
       </c>
-      <c r="W33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X33" s="6" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4926,22 +5508,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB33" s="8" t="inlineStr">
+      <c r="AB33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF33" s="8" t="inlineStr">
         <is>
           <t>Fulton, E.A., Smith, A.D., Smith, D.C. and Johnson, P., 2014. An integrated approach is needed for ecosystem based fisheries management: insights from ecosystem-level management strategy evaluation. PLoS One, 9(1), p.e84242.</t>
         </is>
       </c>
-      <c r="AC33" s="5" t="inlineStr">
+      <c r="AG33" s="5" t="inlineStr">
         <is>
           <t>10.1371/journal.pone.0084242</t>
         </is>
       </c>
-      <c r="AD33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE33" s="7" t="b">
+      <c r="AH33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI33" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5012,17 +5614,15 @@
       <c r="R34" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S34" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S34" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U34" s="5" t="inlineStr">
+      <c r="U34" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5032,12 +5632,12 @@
           <t/>
         </is>
       </c>
-      <c r="W34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X34" s="6" t="inlineStr">
+      <c r="W34" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5057,22 +5657,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB34" s="8" t="inlineStr">
+      <c r="AB34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF34" s="8" t="inlineStr">
         <is>
           <t>Haddon, M. and Helidoniotis, F., 2013. Legal minimum lengths and the management of abalone fisheries. Journal of Shellfish Research, 32(1), pp.197-208.</t>
         </is>
       </c>
-      <c r="AC34" s="5" t="inlineStr">
+      <c r="AG34" s="5" t="inlineStr">
         <is>
           <t>10.2983/035.032.0126</t>
         </is>
       </c>
-      <c r="AD34" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE34" s="7" t="b">
+      <c r="AH34" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI34" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5143,17 +5763,15 @@
       <c r="R35" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S35" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S35" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U35" s="5" t="inlineStr">
+      <c r="U35" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5163,12 +5781,12 @@
           <t/>
         </is>
       </c>
-      <c r="W35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X35" s="6" t="inlineStr">
+      <c r="W35" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5188,22 +5806,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB35" s="8" t="inlineStr">
+      <c r="AB35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF35" s="8" t="inlineStr">
         <is>
           <t>Chen, N., Zhang, C., Sun, M., Xu, B., Xue, Y., Ren, Y. and Chen, Y., 2018. The impact of natural mortality variations on the performance of management procedures for Spanish mackerel (Scomberomorus niphonius) in the Yellow Sea, China. Acta Oceanologica Sinica, 37(8), pp.21-30.</t>
         </is>
       </c>
-      <c r="AC35" s="5" t="inlineStr">
+      <c r="AG35" s="5" t="inlineStr">
         <is>
           <t>10.1007/s13131-018-1234-0</t>
         </is>
       </c>
-      <c r="AD35" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE35" s="7" t="b">
+      <c r="AH35" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI35" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5274,17 +5912,15 @@
       <c r="R36" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S36" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S36" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U36" s="5" t="inlineStr">
+      <c r="U36" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5294,12 +5930,12 @@
           <t/>
         </is>
       </c>
-      <c r="W36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X36" s="6" t="inlineStr">
+      <c r="W36" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5319,22 +5955,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB36" s="8" t="inlineStr">
+      <c r="AB36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF36" s="8" t="inlineStr">
         <is>
           <t>Kell, L.T., Pilling, G.M., Kirkwood, G.P., Pastoors, M., Mesnil, B., Korsbrekke, K., Abaunza, P., Aps, R., Biseau, A., Kunzlik, P. and Needle, C., 2005. An evaluation of the implicit management procedure used for some ICES roundfish stocks. ICES Journal of Marine Science, 62(4), pp.750-759.</t>
         </is>
       </c>
-      <c r="AC36" s="5" t="inlineStr">
+      <c r="AG36" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.icesjms.2005.01.001</t>
         </is>
       </c>
-      <c r="AD36" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE36" s="7" t="b">
+      <c r="AH36" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI36" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5405,17 +6061,15 @@
       <c r="R37" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S37" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S37" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T37" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U37" s="5" t="inlineStr">
+      <c r="U37" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5425,12 +6079,12 @@
           <t/>
         </is>
       </c>
-      <c r="W37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X37" s="6" t="inlineStr">
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5450,22 +6104,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB37" s="8" t="inlineStr">
+      <c r="AB37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF37" s="8" t="inlineStr">
         <is>
           <t>Horbowy, J., 2011. Comparison of stock management with production, difference, and age-structured models using operating models. Fisheries Research, 108(1), pp.153-162.</t>
         </is>
       </c>
-      <c r="AC37" s="5" t="inlineStr">
+      <c r="AG37" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.fishres.2010.12.015</t>
         </is>
       </c>
-      <c r="AD37" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE37" s="7" t="b">
+      <c r="AH37" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI37" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5536,17 +6210,15 @@
       <c r="R38" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S38" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S38" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T38" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U38" s="5" t="inlineStr">
+      <c r="U38" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5556,12 +6228,12 @@
           <t/>
         </is>
       </c>
-      <c r="W38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X38" s="6" t="inlineStr">
+      <c r="W38" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X38" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5581,22 +6253,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB38" s="8" t="inlineStr">
+      <c r="AB38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF38" s="8" t="inlineStr">
         <is>
           <t>Ellis, N., Pantus, F., Welna, A. and Butler, A., 2008. Evaluating ecosystem-based management options: effects of trawling in Torres Strait, Australia. Continental Shelf Research, 28(16), pp.2324-2338.</t>
         </is>
       </c>
-      <c r="AC38" s="5" t="inlineStr">
+      <c r="AG38" s="5" t="inlineStr">
         <is>
           <t>10.1016/j.csr.2008.03.031</t>
         </is>
       </c>
-      <c r="AD38" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE38" s="7" t="b">
+      <c r="AH38" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI38" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5667,17 +6359,15 @@
       <c r="R39" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S39" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S39" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U39" s="5" t="inlineStr">
+      <c r="U39" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5687,12 +6377,12 @@
           <t/>
         </is>
       </c>
-      <c r="W39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X39" s="6" t="inlineStr">
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X39" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5712,22 +6402,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB39" s="8" t="inlineStr">
+      <c r="AB39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF39" s="8" t="inlineStr">
         <is>
           <t>Bischof, R., Nilsen, E.B., Brøseth, H., Männil, P., Ozoliņš, J. and Linnell, J.D., 2012. Implementation uncertainty when using recreational hunting to manage carnivores. Journal of Applied Ecology, 49(4), pp.824-832.</t>
         </is>
       </c>
-      <c r="AC39" s="5" t="inlineStr">
+      <c r="AG39" s="5" t="inlineStr">
         <is>
           <t>10.1111/j.1365-2664.2012.02167.x</t>
         </is>
       </c>
-      <c r="AD39" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE39" s="7" t="b">
+      <c r="AH39" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI39" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5798,17 +6508,15 @@
       <c r="R40" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S40" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S40" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U40" s="5" t="inlineStr">
+      <c r="U40" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5818,12 +6526,12 @@
           <t/>
         </is>
       </c>
-      <c r="W40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X40" s="6" t="inlineStr">
+      <c r="W40" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X40" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5843,22 +6551,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB40" s="8" t="inlineStr">
+      <c r="AB40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF40" s="8" t="inlineStr">
         <is>
           <t>Little, L.R., Grafton, R.Q., Kompas, T., Smith, A.D.M., Punt, A.E. and Mapstone, B.D., 2011. Complementarity of no‐take marine reserves and individual transferable catch quotas for managing the line fishery of the Great Barrier Reef. Conservation Biology, 25(2), pp.333-340.</t>
         </is>
       </c>
-      <c r="AC40" s="5" t="inlineStr">
+      <c r="AG40" s="5" t="inlineStr">
         <is>
           <t>10.1111/j.1523-1739.2010.01590.x</t>
         </is>
       </c>
-      <c r="AD40" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE40" s="7" t="b">
+      <c r="AH40" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI40" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5929,17 +6657,15 @@
       <c r="R41" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S41" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S41" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U41" s="5" t="inlineStr">
+      <c r="U41" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5949,12 +6675,12 @@
           <t/>
         </is>
       </c>
-      <c r="W41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X41" s="6" t="inlineStr">
+      <c r="W41" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X41" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5974,22 +6700,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB41" s="8" t="inlineStr">
+      <c r="AB41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF41" s="8" t="inlineStr">
         <is>
           <t>Harford, W.J., Grüss, A., Schirripa, M.J., Sagarese, S.R., Bryan, M. and Karnauskas, M., 2018. Handle with care: establishing catch limits for fish stocks experiencing episodic natural mortality events. Fisheries, 43(10), pp.463-471.</t>
         </is>
       </c>
-      <c r="AC41" s="5" t="inlineStr">
+      <c r="AG41" s="5" t="inlineStr">
         <is>
           <t>10.1002/fsh.10131</t>
         </is>
       </c>
-      <c r="AD41" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE41" s="7" t="b">
+      <c r="AH41" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI41" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6060,17 +6806,15 @@
       <c r="R42" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S42" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="S42" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="U42" s="5" t="inlineStr">
+      <c r="U42" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6080,12 +6824,12 @@
           <t/>
         </is>
       </c>
-      <c r="W42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X42" s="6" t="inlineStr">
+      <c r="W42" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X42" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6105,22 +6849,42 @@
           <t/>
         </is>
       </c>
-      <c r="AB42" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC42" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD42" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE42" s="7" t="b">
+      <c r="AB42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF42" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG42" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH42" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI42" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DB files - Excel/tblStudy.xlsx
+++ b/DB files - Excel/tblStudy.xlsx
@@ -250,11 +250,11 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -787,7 +787,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Merluccius productus</t>
         </is>
@@ -808,47 +808,47 @@
           <t>Pacific Hake Fishery</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U2" s="8" t="inlineStr">
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -868,42 +868,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y2" s="6" t="inlineStr">
+      <c r="Y2" s="7" t="inlineStr">
         <is>
           <t>Fishery, Management, Scientists</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA2" s="6" t="inlineStr">
+      <c r="Z2" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA2" s="7" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Managers</t>
         </is>
       </c>
-      <c r="AB2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC2" s="6" t="inlineStr">
+      <c r="AB2" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC2" s="7" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Management</t>
         </is>
       </c>
-      <c r="AD2" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE2" s="6" t="inlineStr">
+      <c r="AD2" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE2" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF2" s="8" t="inlineStr">
+      <c r="AF2" s="6" t="inlineStr">
         <is>
           <t>Hicks, A. C., Cox, S. P., Taylor, N., Taylor, I. G., Grandin, C., &amp; Ianelli, J. N. (2016). Conservation and yield performance of harvest control rules for the transboundary Pacific hake fishery in US and Canadian waters. Management Science in Fisheries: An Introduction to Simulation-based Methods, 69.</t>
         </is>
@@ -913,12 +913,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH2" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI2" s="7" t="b">
+      <c r="AH2" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI2" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -957,47 +957,47 @@
           <t>British Columbia Sablefish</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U3" s="8" t="inlineStr">
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1017,42 +1017,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y3" s="6" t="inlineStr">
+      <c r="Y3" s="7" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="Z3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA3" s="6" t="inlineStr">
+      <c r="Z3" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA3" s="7" t="inlineStr">
         <is>
           <t>Fishery</t>
         </is>
       </c>
-      <c r="AB3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC3" s="6" t="inlineStr">
+      <c r="AB3" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC3" s="7" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="AD3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE3" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF3" s="8" t="inlineStr">
+      <c r="AD3" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE3" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF3" s="6" t="inlineStr">
         <is>
           <t>Cox, S. P., &amp; Kronlund, A. R. (2016). Model-based management procedures for the sablefish fishery in British Columbia, Canada. Management Science in Fisheries: An Introduction to Simulation-based Methods, 86.</t>
         </is>
@@ -1062,12 +1062,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH3" s="8" t="inlineStr">
+      <c r="AH3" s="6" t="inlineStr">
         <is>
           <t>While the request to evaluate management was started by the fishery and government, it seems that the MSE was lead by the researchers, and the researchers made most of the decisions about what direction to take the MSE.</t>
         </is>
       </c>
-      <c r="AI3" s="7" t="b">
+      <c r="AI3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1106,47 +1106,47 @@
           <t>New Zealand rock lobster</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U4" s="8" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1166,42 +1166,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y4" s="6" t="inlineStr">
+      <c r="Y4" s="7" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="Z4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA4" s="6" t="inlineStr">
+      <c r="Z4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA4" s="7" t="inlineStr">
         <is>
           <t>Analysts, Fishery</t>
         </is>
       </c>
-      <c r="AB4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC4" s="6" t="inlineStr">
+      <c r="AB4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC4" s="7" t="inlineStr">
         <is>
           <t>Analysts, Fishery</t>
         </is>
       </c>
-      <c r="AD4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE4" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF4" s="8" t="inlineStr">
+      <c r="AD4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF4" s="6" t="inlineStr">
         <is>
           <t>Breen, P., Bentley, N., Haist, V., Starr, P., &amp; Sykes, D. (2016). Management procedures for New Zealand rock lobster stocks. Management Science in Fisheries: An Introduction to Simulation-based Methods, 105.</t>
         </is>
@@ -1211,12 +1211,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH4" s="8" t="inlineStr">
+      <c r="AH4" s="6" t="inlineStr">
         <is>
           <t>There was a good deal of iteration occuring in this project that makes clear identification of the process, objectives, and management tools difficult.  Stakeholder interaction occurred, but it is not documented how it occurred, and in particular what effect that interaction had on the set of objectives and management tools considered.  It seems as if a number of decisions were made by the researchers in terms of moving from vague objectives to performance measures, and what set of performance measures were considered.  Stakeholders did explicitly identify some management tools to evaluate.  A large set of objectives was developed, but only a limited set of those objectives are presented in the results.  It is unclear how the final set was selected, although there is some discussion of a pareto-optimal set of management procedures.</t>
         </is>
       </c>
-      <c r="AI4" s="7" t="b">
+      <c r="AI4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1255,47 +1255,47 @@
           <t>Eastern Bering Sea snow crab</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U5" s="8" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1315,42 +1315,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y5" s="6" t="inlineStr">
+      <c r="Y5" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA5" s="6" t="inlineStr">
+      <c r="Z5" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA5" s="7" t="inlineStr">
         <is>
           <t>Analysts, Government</t>
         </is>
       </c>
-      <c r="AB5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC5" s="6" t="inlineStr">
+      <c r="AB5" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC5" s="7" t="inlineStr">
         <is>
           <t>Analysts</t>
         </is>
       </c>
-      <c r="AD5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE5" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF5" s="8" t="inlineStr">
+      <c r="AD5" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE5" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF5" s="6" t="inlineStr">
         <is>
           <t>Szuwalski, C.S., Punt, A.E., (2016). Fisheries management for regime-based recruitment: lessons from a management strategy evaluation for the fishery for snow crab in the eastern Bering Sea. Management Science in Fisheries: An Introduction to Simulation-based Methods, 105.</t>
         </is>
@@ -1360,12 +1360,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH5" s="8" t="inlineStr">
+      <c r="AH5" s="6" t="inlineStr">
         <is>
           <t>Results are not provided for all of the objectives listed in the text.  The authors state that they followed best practices for MSE such as: "incorporating managers and stakeholders in the selection of objectives and performance metrics", but it is not clear how that occurred.  This article and Punt et al. 2014 will be useful to return to for our climate work.</t>
         </is>
       </c>
-      <c r="AI5" s="7" t="b">
+      <c r="AI5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1404,47 +1404,47 @@
           <t>Southern bluefin tuna</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U6" s="8" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1464,42 +1464,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y6" s="6" t="inlineStr">
+      <c r="Y6" s="7" t="inlineStr">
         <is>
           <t>Government, Scientists</t>
         </is>
       </c>
-      <c r="Z6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA6" s="6" t="inlineStr">
+      <c r="Z6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA6" s="7" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC6" s="6" t="inlineStr">
+      <c r="AB6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC6" s="7" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE6" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF6" s="8" t="inlineStr">
+      <c r="AD6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF6" s="6" t="inlineStr">
         <is>
           <t>Hillary, R. M., Preece, A. L., Davies, C. R., Kurota, H., Sakai, O., Itoh, T., ... &amp; Branch, T. A. (2016). Managing international tuna stocks via the management procedure approach. Management Science in Fisheries: An Introduction to Simulation-based Methods, 147.</t>
         </is>
@@ -1509,12 +1509,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH6" s="8" t="inlineStr">
+      <c r="AH6" s="6" t="inlineStr">
         <is>
           <t>A management commision representing nations participating in the fishery was created.  This commision lead this MSE and was the source of the objs and procedures. The list of objectives does not match the set of performance criteria displayed in the results figure.</t>
         </is>
       </c>
-      <c r="AI6" s="7" t="b">
+      <c r="AI6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1553,47 +1553,47 @@
           <t>Lake Erie Walleye</t>
         </is>
       </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J7" s="7" t="b">
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U7" s="8" t="inlineStr">
+      <c r="K7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1613,42 +1613,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y7" s="6" t="inlineStr">
+      <c r="Y7" s="7" t="inlineStr">
         <is>
           <t>Fishery, Management</t>
         </is>
       </c>
-      <c r="Z7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="6" t="inlineStr">
+      <c r="Z7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="7" t="inlineStr">
         <is>
           <t>Fishery, Managers</t>
         </is>
       </c>
-      <c r="AB7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="6" t="inlineStr">
+      <c r="AB7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC7" s="7" t="inlineStr">
         <is>
           <t>Fishery, Management</t>
         </is>
       </c>
-      <c r="AD7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF7" s="8" t="inlineStr">
+      <c r="AD7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="6" t="inlineStr">
         <is>
           <t>Jones, M. L., Catalano, M. J., Peterson, L. K., &amp; Berger, A. M. (2016). Stakeholder-centered development of a harvest control rule for Lake Erie walleye. Management Science in Fisheries: an Introduction to Simulation-based Methods, 163-183.</t>
         </is>
@@ -1658,12 +1658,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH7" s="8" t="inlineStr">
+      <c r="AH7" s="6" t="inlineStr">
         <is>
           <t>An explicit decision making process was followed for which a decision making body was established that included managers and stakeholders from the impacted regions and stakeholder groups.  Nice results section with a variety of figures and tables.</t>
         </is>
       </c>
-      <c r="AI7" s="7" t="b">
+      <c r="AI7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1702,47 +1702,47 @@
           <t>Australian Northern Prawn Fishery</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U8" s="8" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U8" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1762,42 +1762,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y8" s="6" t="inlineStr">
+      <c r="Y8" s="7" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="Z8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="6" t="inlineStr">
+      <c r="Z8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="7" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="AB8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE8" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF8" s="8" t="inlineStr">
+      <c r="AB8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF8" s="6" t="inlineStr">
         <is>
           <t>Dichmont, C. M., Punt, A. E., Deng, R. A., Pascoe, S., &amp; Buckworth, R. C. (2016). Northern prawn fishery: beyond biologically centred harvest strategies. Management Science in Fisheries: An Introduction to Simulation-based Methods, 184.</t>
         </is>
@@ -1807,12 +1807,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH8" s="8" t="inlineStr">
+      <c r="AH8" s="6" t="inlineStr">
         <is>
           <t>This MSE report is a summary of multiple iterations of an MSE approach to prawn management in Australia.  It includes accounting for economic impacts, with and bioeconomics model, and impacts to other species.  Objiectives were not explicitly weighted, but based on iterative feedback some trade-offs between objectives were apparently evaluated.</t>
         </is>
       </c>
-      <c r="AI8" s="7" t="b">
+      <c r="AI8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>Fisher</t>
         </is>
@@ -1851,47 +1851,47 @@
           <t>Vermont Furbearers</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J9" s="7" t="b">
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="7" t="b">
+      <c r="K9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="7" t="b">
+      <c r="L9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="b">
+      <c r="M9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="b">
+      <c r="O9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="b">
+      <c r="Q9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T9" s="8" t="inlineStr">
+      <c r="T9" s="6" t="inlineStr">
         <is>
           <t>Furbearer management</t>
         </is>
       </c>
-      <c r="U9" s="8" t="inlineStr">
+      <c r="U9" s="6" t="inlineStr">
         <is>
           <t>One-on-one conversation with manager</t>
         </is>
@@ -1911,42 +1911,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y9" s="6" t="inlineStr">
+      <c r="Y9" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z9" s="6" t="inlineStr">
+      <c r="Z9" s="7" t="inlineStr">
         <is>
           <t>Analysts, Decision Makers, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA9" s="6" t="inlineStr">
+      <c r="AA9" s="7" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="AB9" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC9" s="6" t="inlineStr">
+      <c r="AB9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC9" s="7" t="inlineStr">
         <is>
           <t>Analysts, Management</t>
         </is>
       </c>
-      <c r="AD9" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE9" s="6" t="inlineStr">
+      <c r="AD9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" s="7" t="inlineStr">
         <is>
           <t>Expert Elicitation, Simulation modeling</t>
         </is>
       </c>
-      <c r="AF9" s="8" t="inlineStr">
+      <c r="AF9" s="6" t="inlineStr">
         <is>
           <t>Cummings1</t>
         </is>
@@ -1956,12 +1956,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH9" s="8" t="inlineStr">
+      <c r="AH9" s="6" t="inlineStr">
         <is>
           <t>Not an MSE, just for prototyping the Shiny app</t>
         </is>
       </c>
-      <c r="AI9" s="7" t="b">
+      <c r="AI9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>Sockeye</t>
         </is>
@@ -2000,47 +2000,47 @@
           <t>Fraser River sockeye</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="b">
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="7" t="b">
+      <c r="L10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="b">
+      <c r="M10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="b">
+      <c r="O10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7" t="b">
+      <c r="Q10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T10" s="8" t="inlineStr">
+      <c r="T10" s="6" t="inlineStr">
         <is>
           <t>Which model to use for management adjustment</t>
         </is>
       </c>
-      <c r="U10" s="8" t="inlineStr">
+      <c r="U10" s="6" t="inlineStr">
         <is>
           <t>Sample of likely management objectives supplied by decision analyst</t>
         </is>
@@ -2060,42 +2060,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y10" s="6" t="inlineStr">
+      <c r="Y10" s="7" t="inlineStr">
         <is>
           <t>Independent, Management, Scientists</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="inlineStr">
+      <c r="Z10" s="7" t="inlineStr">
         <is>
           <t>Analysts, Independent, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA10" s="6" t="inlineStr">
+      <c r="AA10" s="7" t="inlineStr">
         <is>
           <t>Analysts</t>
         </is>
       </c>
-      <c r="AB10" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC10" s="6" t="inlineStr">
+      <c r="AB10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC10" s="7" t="inlineStr">
         <is>
           <t>Analysts, Management, Scientists</t>
         </is>
       </c>
-      <c r="AD10" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE10" s="6" t="inlineStr">
+      <c r="AD10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE10" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF10" s="8" t="inlineStr">
+      <c r="AF10" s="6" t="inlineStr">
         <is>
           <t>Cummings2</t>
         </is>
@@ -2105,12 +2105,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH10" s="8" t="inlineStr">
+      <c r="AH10" s="6" t="inlineStr">
         <is>
           <t>Not an MSE, just included for prototyping Shiny App</t>
         </is>
       </c>
-      <c r="AI10" s="7" t="b">
+      <c r="AI10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>lesser prairie chicken</t>
         </is>
@@ -2149,47 +2149,47 @@
           <t>Lesser prairie chicken</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I11" s="7" t="inlineStr">
         <is>
           <t>Climate Change, Habitat Change</t>
         </is>
       </c>
-      <c r="J11" s="7" t="b">
+      <c r="J11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="7" t="b">
+      <c r="K11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="7" t="b">
+      <c r="L11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7" t="b">
+      <c r="M11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8" t="inlineStr">
+      <c r="R11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
         <is>
           <t>What is LPC status with regards to the ESA</t>
         </is>
       </c>
-      <c r="U11" s="8" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
         <is>
           <t>Facilitated meeting</t>
         </is>
@@ -2209,42 +2209,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y11" s="6" t="inlineStr">
+      <c r="Y11" s="7" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="Z11" s="6" t="inlineStr">
+      <c r="Z11" s="7" t="inlineStr">
         <is>
           <t>Analysts, Experts, Facilitators, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA11" s="6" t="inlineStr">
+      <c r="AA11" s="7" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="AB11" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC11" s="6" t="inlineStr">
+      <c r="AB11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC11" s="7" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD11" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE11" s="6" t="inlineStr">
+      <c r="AD11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE11" s="7" t="inlineStr">
         <is>
           <t>Expert Elicitation, Simulation modeling</t>
         </is>
       </c>
-      <c r="AF11" s="8" t="inlineStr">
+      <c r="AF11" s="6" t="inlineStr">
         <is>
           <t>Cummings3</t>
         </is>
@@ -2254,12 +2254,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH11" s="8" t="inlineStr">
+      <c r="AH11" s="6" t="inlineStr">
         <is>
           <t>Not an MSE, included just for prototyping the Shiny App</t>
         </is>
       </c>
-      <c r="AI11" s="7" t="b">
+      <c r="AI11" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
           <t>2011</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>coral trout (Plectropomus spp.)</t>
         </is>
@@ -2298,47 +2298,47 @@
           <t>Torres Strait Finfish Fishery</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="7" t="inlineStr">
         <is>
           <t>Multiple Sectors in Fishery</t>
         </is>
       </c>
-      <c r="J12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="b">
+      <c r="J12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="7" t="b">
+      <c r="M12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8" t="inlineStr">
+      <c r="N12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
         <is>
           <t>What management strategy from a set of area closures, seasonal closures, and minimum size limits (an effort proxy) will best achieve the harvest, conservation, and economic objectives of the indigenous and non-indigenous finfish fisheries in Torres Strait Australia?</t>
         </is>
       </c>
-      <c r="U12" s="8" t="inlineStr">
+      <c r="U12" s="6" t="inlineStr">
         <is>
           <t>Objectives were elicited in consultation with stakeholders.  While stakeholders are mentioned an explicit listing of the stakeholders involved in the objective stage and the methodology used to conduct the elicitation are not provided.</t>
         </is>
@@ -2358,42 +2358,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y12" s="6" t="inlineStr">
+      <c r="Y12" s="7" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="Z12" s="6" t="inlineStr">
+      <c r="Z12" s="7" t="inlineStr">
         <is>
           <t>Facilitators, Fishery, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA12" s="6" t="inlineStr">
+      <c r="AA12" s="7" t="inlineStr">
         <is>
           <t>Fishery, Government, Management</t>
         </is>
       </c>
-      <c r="AB12" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC12" s="6" t="inlineStr">
+      <c r="AB12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC12" s="7" t="inlineStr">
         <is>
           <t>Fishery, Government, Management</t>
         </is>
       </c>
-      <c r="AD12" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE12" s="6" t="inlineStr">
+      <c r="AD12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE12" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF12" s="8" t="inlineStr">
+      <c r="AF12" s="6" t="inlineStr">
         <is>
           <t>Williams, A. J., Little, L. R., and Begg, G. A. 2011. Balancing indigenous and non-indigenous commercial objectives in a coral reef finfish fishery. –
 ICES Journal of Marine Science, 68: 834–847.</t>
@@ -2404,12 +2404,12 @@
           <t>10.1093/icesjms/fsr034</t>
         </is>
       </c>
-      <c r="AH12" s="8" t="inlineStr">
+      <c r="AH12" s="6" t="inlineStr">
         <is>
           <t>This MSE has an example of the downfall of setting target levels for objectives rather than using a max vs. min. approach because no strategies achieve the target.  The description of this MSE indicates that stakeholders were involved in the process, but the roles of the stakeholders, and a description of the process are not provided.  It is unclear who lead this MSE.  While the objectives are defined as target probabilities, the results are not presented this way.  They are presented in terms of the probability inputs.  No trade-off analysis occurred, so no optimal alternative is provided.  No decision or reporting of subsequent use of the analysis is documented.</t>
         </is>
       </c>
-      <c r="AI12" s="7" t="b">
+      <c r="AI12" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
           <t>2012</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>red king crab, Paralithodes camtschaticus</t>
         </is>
@@ -2448,47 +2448,47 @@
           <t>Bristol Bay, Alaska Red King Crab</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8" t="inlineStr">
+      <c r="J13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="inlineStr">
         <is>
           <t>How large a buffer should be set on harvest levels for Red King crab in Bristol Bay, Alaska to account for uncertainty in the assessment of the available harvest?</t>
         </is>
       </c>
-      <c r="U13" s="8" t="inlineStr">
+      <c r="U13" s="6" t="inlineStr">
         <is>
           <t>They weren't.  The set of performance metrics were seemingly selected by the scientists conducting the evaluation.</t>
         </is>
@@ -2508,42 +2508,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y13" s="6" t="inlineStr">
+      <c r="Y13" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z13" s="6" t="inlineStr">
+      <c r="Z13" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AA13" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="6" t="inlineStr">
+      <c r="AA13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AC13" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD13" s="6" t="inlineStr">
+      <c r="AC13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD13" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AE13" s="6" t="inlineStr">
+      <c r="AE13" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF13" s="8" t="inlineStr">
+      <c r="AF13" s="6" t="inlineStr">
         <is>
           <t>Punt, A. E., Siddeek, M. S. M., Garber-Yonts, B., Dalton, M., Rugolo, L., Stram, D., Turnock, B. J., and Zheng, J. 2012. Evaluating the impact of buffers to account for scientific uncertainty when setting TACs: application to red king crab in Bristol Bay, Alaska. – ICES Journal of Marine Science, 69: 624–634</t>
         </is>
@@ -2553,12 +2553,12 @@
           <t>10.1093/icesjms/fss047</t>
         </is>
       </c>
-      <c r="AH13" s="8" t="inlineStr">
+      <c r="AH13" s="6" t="inlineStr">
         <is>
           <t>This article is not presented explicitly as a management strategy evaluation, but is discussed as being a management strategy evaluation minus a full operating model.  Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
-      <c r="AI13" s="7" t="b">
+      <c r="AI13" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
           <t>2009</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>common coral trout (Plectropomus leopardus) and red throat emperor (Lethrinus miniatus)</t>
         </is>
@@ -2597,47 +2597,47 @@
           <t>Great Barrier Reef Coral Reef Finfish Fishery</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>Migration</t>
         </is>
       </c>
-      <c r="J14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="8" t="inlineStr">
+      <c r="J14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6" t="inlineStr">
         <is>
           <t>What is the effect of effort controls and area closures on the finfish fihery of the great barrier reef?</t>
         </is>
       </c>
-      <c r="U14" s="8" t="inlineStr">
+      <c r="U14" s="6" t="inlineStr">
         <is>
           <t>It is unclear if there was any elicitation as there is not process documentation.</t>
         </is>
@@ -2657,42 +2657,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y14" s="6" t="inlineStr">
+      <c r="Y14" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z14" s="6" t="inlineStr">
+      <c r="Z14" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AA14" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="6" t="inlineStr">
+      <c r="AA14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AC14" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD14" s="6" t="inlineStr">
+      <c r="AC14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD14" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AE14" s="6" t="inlineStr">
+      <c r="AE14" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF14" s="8" t="inlineStr">
+      <c r="AF14" s="6" t="inlineStr">
         <is>
           <t>Little, L. R., Punt, A. E., Mapstone, B. D., Begg, G. A., Goldman, B., and Ellis, N. 2009. Different responses to area closures and effort controls for sedentary and migratory harvested species in a multispecies coral reef linefishery. – ICES Journal of Marine Science, 66: 1931–1941.</t>
         </is>
@@ -2702,12 +2702,12 @@
           <t>10.1093/icesjms/fsp164</t>
         </is>
       </c>
-      <c r="AH14" s="8" t="inlineStr">
+      <c r="AH14" s="6" t="inlineStr">
         <is>
           <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
-      <c r="AI14" s="7" t="b">
+      <c r="AI14" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
           <t>2012</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>tiger flathead (Neoplatycephalus richardsoni),
 jackass morwong (Nemadactylus macropterus), and
@@ -2748,47 +2748,47 @@
           <t>Southern and Eastern Scalefish and Shark Fishery</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I15" s="7" t="inlineStr">
         <is>
           <t>Stock Status</t>
         </is>
       </c>
-      <c r="J15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="8" t="inlineStr">
+      <c r="J15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="inlineStr">
         <is>
           <t>Can harvest control rules updated based on changes to catch length achieve the management objectives of the Southern and Eastern Scalefish and Shark Fishery?</t>
         </is>
       </c>
-      <c r="U15" s="8" t="inlineStr">
+      <c r="U15" s="6" t="inlineStr">
         <is>
           <t>While it is noted that management objectives for the fishery are defined by a government agency, it is unclear if the objectives used here are those objectives, or how those objectives were elicted.</t>
         </is>
@@ -2808,42 +2808,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y15" s="6" t="inlineStr">
+      <c r="Y15" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z15" s="6" t="inlineStr">
+      <c r="Z15" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AA15" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="6" t="inlineStr">
+      <c r="AA15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AC15" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD15" s="6" t="inlineStr">
+      <c r="AC15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD15" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AE15" s="6" t="inlineStr">
+      <c r="AE15" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF15" s="8" t="inlineStr">
+      <c r="AF15" s="6" t="inlineStr">
         <is>
           <t>Neil L. Klaer, Sally E. Wayte, Gavin Fay,
 An evaluation of the performance of a harvest strategy that uses an average-length-based assessment method. 2012. Fisheries Research, Volumes 134–136, Pages 42-51.</t>
@@ -2854,12 +2854,12 @@
           <t>10.1016/j.fishres.2012.08.010</t>
         </is>
       </c>
-      <c r="AH15" s="8" t="inlineStr">
+      <c r="AH15" s="6" t="inlineStr">
         <is>
           <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
-      <c r="AI15" s="7" t="b">
+      <c r="AI15" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>Western Pacific Leatherback Turtles (Dermochelys coriacea)</t>
         </is>
@@ -2898,47 +2898,47 @@
           <t>California drift gillnet fishery</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="I16" s="7" t="inlineStr">
         <is>
           <t>Monitoring Methodology</t>
         </is>
       </c>
-      <c r="J16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8" t="inlineStr">
+      <c r="J16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
         <is>
           <t>What limit reference points in the California drift gillnet fishery will best achieve threshold management objectives for Western Pacific Leatherback Turtles?</t>
         </is>
       </c>
-      <c r="U16" s="8" t="inlineStr">
+      <c r="U16" s="6" t="inlineStr">
         <is>
           <t>Objectives weren't elicted.  They were selected by the scientists based on IUCN and ESA criteria.</t>
         </is>
@@ -2958,42 +2958,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y16" s="6" t="inlineStr">
+      <c r="Y16" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z16" s="6" t="inlineStr">
+      <c r="Z16" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AA16" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="6" t="inlineStr">
+      <c r="AA16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AC16" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD16" s="6" t="inlineStr">
+      <c r="AC16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD16" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AE16" s="6" t="inlineStr">
+      <c r="AE16" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF16" s="8" t="inlineStr">
+      <c r="AF16" s="6" t="inlineStr">
         <is>
           <t>Curtis KA, Moore JE, Benson SR (2015) Estimating Limit Reference Points for Western Pacific Leatherback Turtles (Dermochelys coriacea) in the U.S. West Coast EEZ. PLoS ONE 10(9): e0136452. https://doi.org/10.1371/journal.pone.0136452</t>
         </is>
@@ -3003,12 +3003,12 @@
           <t>10.1371/journal.pone.0136452</t>
         </is>
       </c>
-      <c r="AH16" s="8" t="inlineStr">
+      <c r="AH16" s="6" t="inlineStr">
         <is>
           <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.  In addition, the analysis is disconnected from the system in which the decision is actually being made.  That is, rather than conduct a trade-off analysis on the harvest rate in the fishery that results in the optimal result there and for leatherbacks, acceptable leatherback status is feed into a decision making process for the fishery.  This treatment of these linked problems has built in objective weighting of the leatherback objectives by treating them as constraints.</t>
         </is>
       </c>
-      <c r="AI16" s="7" t="b">
+      <c r="AI16" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
           <t>2013</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>sablefish (Anoplopoma fimbria)</t>
         </is>
@@ -3047,47 +3047,47 @@
           <t>multi-fleet multi-gear sablefish (Anoplopoma fimbria) fishery in British Columbia (Canada)</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="7" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="b">
+      <c r="J17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="b">
+      <c r="L17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8" t="inlineStr">
+      <c r="N17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6" t="inlineStr">
         <is>
           <t>Our specific objectives are to: (1) show how uncertainty in a complex stock assessment model leads to alternative BRPs and conservation objectives for the sablefish population, (2) use a closed-loop simulation model to compare how alternative operational control point choices affect management ability to meet conservation objectives defined by biological reference points, as well as short-term fishery economic objectives defined by stakeholders, and (3) test robustness of MPs under an unlikely, yet risky, population dynamics scenario.</t>
         </is>
       </c>
-      <c r="U17" s="8" t="inlineStr">
+      <c r="U17" s="6" t="inlineStr">
         <is>
           <t>It is unclear if there was any elicitation as there is not documentation of the objective development process.</t>
         </is>
@@ -3107,42 +3107,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y17" s="6" t="inlineStr">
+      <c r="Y17" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z17" s="6" t="inlineStr">
+      <c r="Z17" s="7" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AA17" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="6" t="inlineStr">
+      <c r="AA17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="7" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AC17" s="6" t="inlineStr">
+      <c r="AC17" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AD17" s="6" t="inlineStr">
+      <c r="AD17" s="7" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AE17" s="6" t="inlineStr">
+      <c r="AE17" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF17" s="8" t="inlineStr">
+      <c r="AF17" s="6" t="inlineStr">
         <is>
           <t>Cox, S.P., Kronlund, A.R. and Benson, A.J., 2013. The roles of biological reference points and operational control points in management procedures for the sablefish (Anoplopoma fimbria) fishery in British Columbia, Canada. Environmental Conservation, 40(4), pp.318-328.</t>
         </is>
@@ -3152,12 +3152,12 @@
           <t>10.1017/S0376892913000271</t>
         </is>
       </c>
-      <c r="AH17" s="8" t="inlineStr">
+      <c r="AH17" s="6" t="inlineStr">
         <is>
           <t>This was one of many articles to come out of MSEs published by the same authors related to their work on BS sablefish.  The process was not fully documented here, apart from the alternatives selected in this study.  It is possible the process is more fully documented in earlier articles related to this fishery.</t>
         </is>
       </c>
-      <c r="AI17" s="7" t="b">
+      <c r="AI17" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
           <t>2009</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>rock lobster (Jasus edwardsii)</t>
         </is>
@@ -3196,47 +3196,47 @@
           <t>Victoria, Australia rock lobster fishery</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="7" t="inlineStr">
         <is>
           <t>Allowable Catch Adjustment, Spatial Structure, Uncertainty</t>
         </is>
       </c>
-      <c r="J18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="8" t="inlineStr">
+      <c r="J18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
         <is>
           <t>What spatial structure of stock assessments and management strategies will best achieve the management objectives for Rock lobster off of Victoria Australia?</t>
         </is>
       </c>
-      <c r="U18" s="8" t="inlineStr">
+      <c r="U18" s="6" t="inlineStr">
         <is>
           <t>Unknown, no documentation of the process for objective determination</t>
         </is>
@@ -3256,42 +3256,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y18" s="6" t="inlineStr">
+      <c r="Y18" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="Z18" s="6" t="inlineStr">
+      <c r="Z18" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AA18" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB18" s="6" t="inlineStr">
+      <c r="AA18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="7" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AC18" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD18" s="6" t="inlineStr">
+      <c r="AC18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD18" s="7" t="inlineStr">
         <is>
           <t>Scientists</t>
         </is>
       </c>
-      <c r="AE18" s="6" t="inlineStr">
+      <c r="AE18" s="7" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
       </c>
-      <c r="AF18" s="8" t="inlineStr">
+      <c r="AF18" s="6" t="inlineStr">
         <is>
           <t>André E. Punt &amp; David Hobday (2009) Management strategy evaluation
 for rock lobster, Jasus_x0001_edwardsii, off Victoria, Australia: Accounting for uncertainty in stock
@@ -3303,12 +3303,12 @@
           <t>10.1080/00288330909510017</t>
         </is>
       </c>
-      <c r="AH18" s="8" t="inlineStr">
+      <c r="AH18" s="6" t="inlineStr">
         <is>
           <t>MSE focused on the spatial scale of stock assessments and management.  The results indicate that for the objectives considered a smaller spatial scale is best.  However, they note this approach is not feasible, so management cost objectives were clearly lacking.  No process documentation is included in the article.</t>
         </is>
       </c>
-      <c r="AI18" s="7" t="b">
+      <c r="AI18" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3326,70 +3326,70 @@
           <t>2013</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus), endeavour prawn (Metapenaeus endeavouri and M. ensis) and their ecosystem</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Northern Australia</t>
         </is>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U19" s="8" t="inlineStr">
-        <is>
-          <t/>
+          <t>Northern Australia prawn fishery</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t>Ecosystem Based Management, Spatial Structure</t>
+        </is>
+      </c>
+      <c r="J19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>What spatial closure plan will best achieve the objectives for management of the ecosystem and prawn fishery occuring in northern Australia?</t>
+        </is>
+      </c>
+      <c r="U19" s="6" t="inlineStr">
+        <is>
+          <t>Undocumented.  Also, many of the performance measure are not associated with a desired status, and result in double (or more) counting.</t>
         </is>
       </c>
       <c r="V19" s="5" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="W19" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X19" s="5" t="inlineStr">
@@ -3407,42 +3407,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE19" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF19" s="8" t="inlineStr">
+      <c r="Y19" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z19" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD19" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE19" s="7" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF19" s="6" t="inlineStr">
         <is>
           <t>Dichmont, C.M., Ellis, N., Bustamante, R.H., Deng, R., Tickell, S., Pascual, R., Lozano‐Montes, H. and Griffiths, S., 2013. EDITOR'S CHOICE: Evaluating marine spatial closures with conflicting fisheries and conservation objectives. Journal of Applied Ecology, 50(4), pp.1060-1070.</t>
         </is>
@@ -3452,12 +3452,12 @@
           <t>10.1111/1365-2664.12110</t>
         </is>
       </c>
-      <c r="AH19" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI19" s="7" t="b">
+      <c r="AH19" s="6" t="inlineStr">
+        <is>
+          <t>The objectives for this study are a mess.  There is a substantial degree of overlap between performance measures, and in many cases it is unclear what the motivation for a performance measure is.  There is no documentation of interation with stakeholders and this appears to be primarily a simulation study.</t>
+        </is>
+      </c>
+      <c r="AI19" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3475,70 +3475,70 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>Megrim (Lepidorhombus whiffiagonis), Hake (Merluccius merluccius), Black anglerfish (Lophius budegassa), White anglerfish (Lophius piscatorius), Western Horse mackeral (Trachurus trachurus), Mackeral (Scomber scombrus), Blue whiting (Micromesistius poutassou), Rays (Leucoraja naevus), Inshore squids (Loliginidae, Seabass (Dicentrarchus labrax), Cuttlefishes and bobtail squids (Sepiidae, Sepiolidae), Red mullet (Mullus surmuletus)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Bay of Biscay</t>
         </is>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U20" s="8" t="inlineStr">
-        <is>
-          <t/>
+          <t>Bay of Biscay trawl fishery</t>
+        </is>
+      </c>
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t>Landing Regulations</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6" t="inlineStr">
+        <is>
+          <t>What effect with a landing obligation, and some limited exceptions, have on the Bay of Biscay trawl fishery?</t>
+        </is>
+      </c>
+      <c r="U20" s="6" t="inlineStr">
+        <is>
+          <t>Objectives and performance measures are not documented and can only be extrapolated from the results.</t>
         </is>
       </c>
       <c r="V20" s="5" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="W20" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X20" s="5" t="inlineStr">
@@ -3556,42 +3556,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE20" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF20" s="8" t="inlineStr">
+      <c r="Y20" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z20" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" s="7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD20" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE20" s="7" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF20" s="6" t="inlineStr">
         <is>
           <t>Prellezo, R., Carmona, I. and García, D., 2016. The bad, the good and the very good of the landing obligation implementation in the Bay of Biscay: A case study of Basque trawlers. Fisheries Research, 181, pp.172-185.</t>
         </is>
@@ -3601,12 +3601,12 @@
           <t>10.1016/j.fishres.2016.04.016</t>
         </is>
       </c>
-      <c r="AH20" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI20" s="7" t="b">
+      <c r="AH20" s="6" t="inlineStr">
+        <is>
+          <t>This study was difficult to follow because it was seemingly written by an english as a second language writer, and the performance metrics weren't specified separately from the results.  Presented as a simulation study without connection to a decision process.</t>
+        </is>
+      </c>
+      <c r="AI20" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3624,70 +3624,70 @@
           <t>2006</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus)</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Northern Australia</t>
         </is>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U21" s="8" t="inlineStr">
-        <is>
-          <t/>
+          <t>Northern Australia prawn fishery</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t>Monitoring Methodology, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6" t="inlineStr">
+        <is>
+          <t>What uncertainties are most influential to the achievement of fishery objectives in the Autralian northern prawn fishery?</t>
+        </is>
+      </c>
+      <c r="U21" s="6" t="inlineStr">
+        <is>
+          <t>Seemingly governmentally established reference points were translated into performance measures by the scientists.</t>
         </is>
       </c>
       <c r="V21" s="5" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="W21" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X21" s="5" t="inlineStr">
@@ -3705,42 +3705,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE21" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF21" s="8" t="inlineStr">
+      <c r="Y21" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z21" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD21" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE21" s="7" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF21" s="6" t="inlineStr">
         <is>
           <t>Dichmont, C.M., Deng, A.R., Punt, A.E., Venables, W. and Haddon, M., 2006. Management strategies for short lived species: The case of Australia's Northern Prawn Fishery: 3. Factors affecting management and estimation performance. Fisheries Research, 82(1-3), pp.235-245.</t>
         </is>
@@ -3750,12 +3750,12 @@
           <t>10.1016/j.fishres.2006.06.008</t>
         </is>
       </c>
-      <c r="AH21" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI21" s="7" t="b">
+      <c r="AH21" s="6" t="inlineStr">
+        <is>
+          <t>This is more of a value of information analysis than a management strategy evaluation, except without presenting the results in a VoI framework.  Put another way, this was a sensitivity analysis.</t>
+        </is>
+      </c>
+      <c r="AI21" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3773,70 +3773,70 @@
           <t>2013</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>sandfish, black teatfish, surf redfish, white teatfish, deepwater redfish, hairy blackfish (Actinopyga miliaris), prickly redfish (Thelenota ananas), leopardfish (Bohadschia argus)</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Torres Strait</t>
         </is>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="G22" s="4">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U22" s="8" t="inlineStr">
-        <is>
-          <t/>
+          <t>Torres Strait Sea cucumber fishery</t>
+        </is>
+      </c>
+      <c r="I22" s="7" t="inlineStr">
+        <is>
+          <t>Climate Change, Monitoring Methodology, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="inlineStr">
+        <is>
+          <t>How will climate change, management strategy, and monitoring influence the status of the Torres Strait Sea cucumber fishery?</t>
+        </is>
+      </c>
+      <c r="U22" s="6" t="inlineStr">
+        <is>
+          <t>They were not, the scientists selected objectives, and a separate set of performance measures.</t>
         </is>
       </c>
       <c r="V22" s="5" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="W22" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X22" s="5" t="inlineStr">
@@ -3854,42 +3854,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE22" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF22" s="8" t="inlineStr">
+      <c r="Y22" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z22" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA22" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC22" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD22" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE22" s="7" t="inlineStr">
+        <is>
+          <t>Expert Elicitation, Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF22" s="6" t="inlineStr">
         <is>
           <t>Plagányi, É.E., Skewes, T.D., Dowling, N.A. and Haddon, M., 2013. Risk management tools for sustainable fisheries management under changing climate: a sea cucumber example. Climatic Change, 119(1), pp.181-197.</t>
         </is>
@@ -3899,12 +3899,12 @@
           <t>10.1007/s10584-012-0596-0</t>
         </is>
       </c>
-      <c r="AH22" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI22" s="7" t="b">
+      <c r="AH22" s="6" t="inlineStr">
+        <is>
+          <t>Odd that the performance measures selected do not correspond with the objective set developed.  Simulation study only</t>
+        </is>
+      </c>
+      <c r="AI22" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3922,14 +3922,14 @@
           <t>2017</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>NA</t>
         </is>
       </c>
       <c r="F23" s="4">
@@ -3940,52 +3940,52 @@
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U23" s="8" t="inlineStr">
-        <is>
-          <t/>
+          <t>Simulated fishery in U.S.</t>
+        </is>
+      </c>
+      <c r="I23" s="7" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6" t="inlineStr">
+        <is>
+          <t>How effective are various approaches to setting acceptable biological catch at avoiding overfishing resulting from assessment uncertainty?</t>
+        </is>
+      </c>
+      <c r="U23" s="6" t="inlineStr">
+        <is>
+          <t>Simulation study without stakeholder input</t>
         </is>
       </c>
       <c r="V23" s="5" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="W23" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X23" s="5" t="inlineStr">
@@ -4003,42 +4003,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE23" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF23" s="8" t="inlineStr">
+      <c r="Y23" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z23" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA23" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC23" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD23" s="7" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE23" s="7" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF23" s="6" t="inlineStr">
         <is>
           <t>Wiedenmann, J., Wilberg, M., Sylvia, A. and Miller, T., 2016. An evaluation of acceptable biological catch (ABC) harvest control rules designed to limit overfishing. Canadian Journal of Fisheries and Aquatic Sciences, 74(7), pp.1028-1040.</t>
         </is>
@@ -4048,12 +4048,12 @@
           <t>10.1139/cjfas-2016-0381</t>
         </is>
       </c>
-      <c r="AH23" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI23" s="7" t="b">
+      <c r="AH23" s="6" t="inlineStr">
+        <is>
+          <t>A simlulation study, not tied to any particular fishery.</t>
+        </is>
+      </c>
+      <c r="AI23" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
           <t>2013</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4092,47 +4092,47 @@
           <t/>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T24" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U24" s="8" t="inlineStr">
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U24" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4152,42 +4152,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE24" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF24" s="8" t="inlineStr">
+      <c r="Y24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE24" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF24" s="6" t="inlineStr">
         <is>
           <t>Smith, D.R., McGowan, C.P., Daily, J.P., Nichols, J.D., Sweka, J.A. and Lyons, J.E., 2013. Evaluating a multispecies adaptive management framework: must uncertainty impede effective decision‐making?. Journal of Applied Ecology, 50(6), pp.1431-1440.</t>
         </is>
@@ -4197,12 +4197,12 @@
           <t>10.1111/1365-2664.12145</t>
         </is>
       </c>
-      <c r="AH24" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI24" s="7" t="b">
+      <c r="AH24" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI24" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
           <t>2015</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4241,47 +4241,47 @@
           <t/>
         </is>
       </c>
-      <c r="I25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T25" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U25" s="8" t="inlineStr">
+      <c r="I25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U25" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4301,42 +4301,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE25" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF25" s="8" t="inlineStr">
+      <c r="Y25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE25" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF25" s="6" t="inlineStr">
         <is>
           <t>Wetzel, C.R. and Punt, A.E., 2015. Evaluating the performance of data-moderate and catch-only assessment methods for US west coast groundfish. Fisheries research, 171, pp.170-187.</t>
         </is>
@@ -4346,12 +4346,12 @@
           <t>10.1016/j.fishres.2015.06.005</t>
         </is>
       </c>
-      <c r="AH25" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI25" s="7" t="b">
+      <c r="AH25" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI25" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
           <t>2010</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4390,47 +4390,47 @@
           <t/>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U26" s="8" t="inlineStr">
+      <c r="I26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U26" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4450,42 +4450,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE26" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF26" s="8" t="inlineStr">
+      <c r="Y26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE26" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF26" s="6" t="inlineStr">
         <is>
           <t>Francois Bastardie, J. Rasmus Nielsen, Gerd Kraus; The eastern Baltic cod fishery: a fleet-based management strategy evaluation framework to assess the cod recovery plan of 2008, ICES Journal of Marine Science, Volume 67, Issue 1, 1 January 2010, Pages 71–86</t>
         </is>
@@ -4495,12 +4495,12 @@
           <t>10.1093/icesjms/fsp228</t>
         </is>
       </c>
-      <c r="AH26" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI26" s="7" t="b">
+      <c r="AH26" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI26" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4518,7 +4518,7 @@
           <t>2008</t>
         </is>
       </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4539,47 +4539,47 @@
           <t/>
         </is>
       </c>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U27" s="8" t="inlineStr">
+      <c r="I27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U27" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4599,42 +4599,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE27" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF27" s="8" t="inlineStr">
+      <c r="Y27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE27" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF27" s="6" t="inlineStr">
         <is>
           <t>Kolody, D., Polacheck, T., Basson, M. and Davies, C., 2008. Salvaged pearls: lessons learned from a floundering attempt to develop a management procedure for Southern Bluefin Tuna. Fisheries Research, 94(3), pp.339-350.</t>
         </is>
@@ -4644,12 +4644,12 @@
           <t>10.1016/j.fishres.2008.08.016</t>
         </is>
       </c>
-      <c r="AH27" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI27" s="7" t="b">
+      <c r="AH27" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI27" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
           <t>2016</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4688,47 +4688,47 @@
           <t/>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U28" s="8" t="inlineStr">
+      <c r="I28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U28" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4748,42 +4748,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE28" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF28" s="8" t="inlineStr">
+      <c r="Y28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE28" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF28" s="6" t="inlineStr">
         <is>
           <t>Dawson, H.A., Jones, M.L., Irwin, B.J., Johnson, N.S., Wagner, M.C. and Szymanski, M.D., 2016. Management Strategy Evaluation Of Pheromone‐Baited Trapping Techniques To Improve Management Of Invasive Sea Lamprey. Natural Resource Modeling, 29(3), pp.448-469.</t>
         </is>
@@ -4793,12 +4793,12 @@
           <t>10.1111/nrm.12096</t>
         </is>
       </c>
-      <c r="AH28" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI28" s="7" t="b">
+      <c r="AH28" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI28" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
           <t>2017</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4837,47 +4837,47 @@
           <t/>
         </is>
       </c>
-      <c r="I29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U29" s="8" t="inlineStr">
+      <c r="I29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U29" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4897,42 +4897,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE29" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF29" s="8" t="inlineStr">
+      <c r="Y29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE29" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF29" s="6" t="inlineStr">
         <is>
           <t>Froehlich, H.E., Essington, T.E. and McDonald, P.S., 2017. When does hypoxia affect management performance of a fishery? A management strategy evaluation of Dungeness crab (Metacarcinus magister) fisheries in Hood Canal, Washington, USA. Canadian journal of fisheries and aquatic sciences, 74(6), pp.922-932.</t>
         </is>
@@ -4942,12 +4942,12 @@
           <t>10.1139/cjfas-2016-0269</t>
         </is>
       </c>
-      <c r="AH29" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI29" s="7" t="b">
+      <c r="AH29" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI29" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
           <t>2012</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4986,47 +4986,47 @@
           <t/>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U30" s="8" t="inlineStr">
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U30" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5046,42 +5046,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE30" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF30" s="8" t="inlineStr">
+      <c r="Y30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE30" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF30" s="6" t="inlineStr">
         <is>
           <t>Punt, A.E., McGarvey, R., Linnane, A., Phillips, J., Triantafillos, L. and Feenstra, J., 2012. Evaluating empirical decision rules for southern rock lobster fisheries: a South Australian example. Fisheries Research, 115, pp.60-71.</t>
         </is>
@@ -5091,12 +5091,12 @@
           <t>10.1016/j.fishres.2011.11.010</t>
         </is>
       </c>
-      <c r="AH30" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI30" s="7" t="b">
+      <c r="AH30" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI30" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
           <t>2008</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5135,47 +5135,47 @@
           <t/>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U31" s="8" t="inlineStr">
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U31" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5195,42 +5195,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE31" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF31" s="8" t="inlineStr">
+      <c r="Y31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE31" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF31" s="6" t="inlineStr">
         <is>
           <t>Irwin, B.J., Wilberg, M.J., Bence, J.R. and Jones, M.L., 2008. Evaluating alternative harvest policies for yellow perch in southern Lake Michigan. Fisheries Research, 94(3), pp.267-281.</t>
         </is>
@@ -5240,12 +5240,12 @@
           <t>10.1016/j.fishres.2008.05.009</t>
         </is>
       </c>
-      <c r="AH31" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI31" s="7" t="b">
+      <c r="AH31" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI31" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
           <t>2017</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5284,47 +5284,47 @@
           <t/>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U32" s="8" t="inlineStr">
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U32" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5344,42 +5344,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE32" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF32" s="8" t="inlineStr">
+      <c r="Y32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE32" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF32" s="6" t="inlineStr">
         <is>
           <t>Kuykendall, K.M., Powell, E.N., Klink, J.M., Moreno, P.T. and Leaf, R.T., 2017. Management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Fishery Bulletin, 115(3).</t>
         </is>
@@ -5389,12 +5389,12 @@
           <t>10.7755/FB.115.3.3</t>
         </is>
       </c>
-      <c r="AH32" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI32" s="7" t="b">
+      <c r="AH32" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI32" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
           <t>2014</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5433,47 +5433,47 @@
           <t/>
         </is>
       </c>
-      <c r="I33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U33" s="8" t="inlineStr">
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U33" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5493,42 +5493,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE33" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF33" s="8" t="inlineStr">
+      <c r="Y33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE33" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF33" s="6" t="inlineStr">
         <is>
           <t>Fulton, E.A., Smith, A.D., Smith, D.C. and Johnson, P., 2014. An integrated approach is needed for ecosystem based fisheries management: insights from ecosystem-level management strategy evaluation. PLoS One, 9(1), p.e84242.</t>
         </is>
@@ -5538,12 +5538,12 @@
           <t>10.1371/journal.pone.0084242</t>
         </is>
       </c>
-      <c r="AH33" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI33" s="7" t="b">
+      <c r="AH33" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI33" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
           <t>2013</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5582,47 +5582,47 @@
           <t/>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U34" s="8" t="inlineStr">
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U34" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5642,42 +5642,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE34" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF34" s="8" t="inlineStr">
+      <c r="Y34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE34" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF34" s="6" t="inlineStr">
         <is>
           <t>Haddon, M. and Helidoniotis, F., 2013. Legal minimum lengths and the management of abalone fisheries. Journal of Shellfish Research, 32(1), pp.197-208.</t>
         </is>
@@ -5687,12 +5687,12 @@
           <t>10.2983/035.032.0126</t>
         </is>
       </c>
-      <c r="AH34" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI34" s="7" t="b">
+      <c r="AH34" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI34" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5731,47 +5731,47 @@
           <t/>
         </is>
       </c>
-      <c r="I35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T35" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U35" s="8" t="inlineStr">
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U35" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5791,42 +5791,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE35" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF35" s="8" t="inlineStr">
+      <c r="Y35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE35" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF35" s="6" t="inlineStr">
         <is>
           <t>Chen, N., Zhang, C., Sun, M., Xu, B., Xue, Y., Ren, Y. and Chen, Y., 2018. The impact of natural mortality variations on the performance of management procedures for Spanish mackerel (Scomberomorus niphonius) in the Yellow Sea, China. Acta Oceanologica Sinica, 37(8), pp.21-30.</t>
         </is>
@@ -5836,12 +5836,12 @@
           <t>10.1007/s13131-018-1234-0</t>
         </is>
       </c>
-      <c r="AH35" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI35" s="7" t="b">
+      <c r="AH35" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI35" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
           <t>2005</t>
         </is>
       </c>
-      <c r="D36" s="5" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5880,47 +5880,47 @@
           <t/>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U36" s="8" t="inlineStr">
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U36" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5940,42 +5940,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE36" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF36" s="8" t="inlineStr">
+      <c r="Y36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE36" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF36" s="6" t="inlineStr">
         <is>
           <t>Kell, L.T., Pilling, G.M., Kirkwood, G.P., Pastoors, M., Mesnil, B., Korsbrekke, K., Abaunza, P., Aps, R., Biseau, A., Kunzlik, P. and Needle, C., 2005. An evaluation of the implicit management procedure used for some ICES roundfish stocks. ICES Journal of Marine Science, 62(4), pp.750-759.</t>
         </is>
@@ -5985,12 +5985,12 @@
           <t>10.1016/j.icesjms.2005.01.001</t>
         </is>
       </c>
-      <c r="AH36" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI36" s="7" t="b">
+      <c r="AH36" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI36" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
           <t>2011</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6029,47 +6029,47 @@
           <t/>
         </is>
       </c>
-      <c r="I37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T37" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U37" s="8" t="inlineStr">
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U37" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6089,42 +6089,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE37" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF37" s="8" t="inlineStr">
+      <c r="Y37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE37" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF37" s="6" t="inlineStr">
         <is>
           <t>Horbowy, J., 2011. Comparison of stock management with production, difference, and age-structured models using operating models. Fisheries Research, 108(1), pp.153-162.</t>
         </is>
@@ -6134,12 +6134,12 @@
           <t>10.1016/j.fishres.2010.12.015</t>
         </is>
       </c>
-      <c r="AH37" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI37" s="7" t="b">
+      <c r="AH37" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI37" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
           <t>2008</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6178,47 +6178,47 @@
           <t/>
         </is>
       </c>
-      <c r="I38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T38" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U38" s="8" t="inlineStr">
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U38" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6238,42 +6238,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE38" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF38" s="8" t="inlineStr">
+      <c r="Y38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE38" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF38" s="6" t="inlineStr">
         <is>
           <t>Ellis, N., Pantus, F., Welna, A. and Butler, A., 2008. Evaluating ecosystem-based management options: effects of trawling in Torres Strait, Australia. Continental Shelf Research, 28(16), pp.2324-2338.</t>
         </is>
@@ -6283,12 +6283,12 @@
           <t>10.1016/j.csr.2008.03.031</t>
         </is>
       </c>
-      <c r="AH38" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI38" s="7" t="b">
+      <c r="AH38" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI38" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
           <t>2012</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6327,47 +6327,47 @@
           <t/>
         </is>
       </c>
-      <c r="I39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T39" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U39" s="8" t="inlineStr">
+      <c r="I39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U39" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6387,42 +6387,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE39" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF39" s="8" t="inlineStr">
+      <c r="Y39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE39" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF39" s="6" t="inlineStr">
         <is>
           <t>Bischof, R., Nilsen, E.B., Brøseth, H., Männil, P., Ozoliņš, J. and Linnell, J.D., 2012. Implementation uncertainty when using recreational hunting to manage carnivores. Journal of Applied Ecology, 49(4), pp.824-832.</t>
         </is>
@@ -6432,12 +6432,12 @@
           <t>10.1111/j.1365-2664.2012.02167.x</t>
         </is>
       </c>
-      <c r="AH39" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI39" s="7" t="b">
+      <c r="AH39" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI39" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
           <t>2011</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6476,47 +6476,47 @@
           <t/>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T40" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U40" s="8" t="inlineStr">
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U40" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6536,42 +6536,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE40" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF40" s="8" t="inlineStr">
+      <c r="Y40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE40" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF40" s="6" t="inlineStr">
         <is>
           <t>Little, L.R., Grafton, R.Q., Kompas, T., Smith, A.D.M., Punt, A.E. and Mapstone, B.D., 2011. Complementarity of no‐take marine reserves and individual transferable catch quotas for managing the line fishery of the Great Barrier Reef. Conservation Biology, 25(2), pp.333-340.</t>
         </is>
@@ -6581,12 +6581,12 @@
           <t>10.1111/j.1523-1739.2010.01590.x</t>
         </is>
       </c>
-      <c r="AH40" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI40" s="7" t="b">
+      <c r="AH40" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI40" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6625,47 +6625,47 @@
           <t/>
         </is>
       </c>
-      <c r="I41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T41" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U41" s="8" t="inlineStr">
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U41" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6685,42 +6685,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE41" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF41" s="8" t="inlineStr">
+      <c r="Y41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE41" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF41" s="6" t="inlineStr">
         <is>
           <t>Harford, W.J., Grüss, A., Schirripa, M.J., Sagarese, S.R., Bryan, M. and Karnauskas, M., 2018. Handle with care: establishing catch limits for fish stocks experiencing episodic natural mortality events. Fisheries, 43(10), pp.463-471.</t>
         </is>
@@ -6730,12 +6730,12 @@
           <t>10.1002/fsh.10131</t>
         </is>
       </c>
-      <c r="AH41" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI41" s="7" t="b">
+      <c r="AH41" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI41" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
           <t>2000</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6774,47 +6774,47 @@
           <t/>
         </is>
       </c>
-      <c r="I42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T42" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U42" s="8" t="inlineStr">
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U42" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6834,42 +6834,42 @@
           <t/>
         </is>
       </c>
-      <c r="Y42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE42" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF42" s="8" t="inlineStr">
+      <c r="Y42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE42" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF42" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6879,12 +6879,12 @@
           <t/>
         </is>
       </c>
-      <c r="AH42" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI42" s="7" t="b">
+      <c r="AH42" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI42" s="8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DB files - Excel/tblStudy.xlsx
+++ b/DB files - Excel/tblStudy.xlsx
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="AI39" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">

--- a/DB files - Excel/tblStudy.xlsx
+++ b/DB files - Excel/tblStudy.xlsx
@@ -4073,50 +4073,50 @@
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>horseshoe crabs (Limulus polyphemus), red knots (Calidris canutus rufa)</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Delaware Bay</t>
         </is>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G24" s="4">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Delaware Bay Horsewhoe crab fishery</t>
         </is>
       </c>
       <c r="I24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Allowable Catch Adjustment, Monitoring Methodology, Species Interactions, Uncertainty</t>
         </is>
       </c>
       <c r="J24" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="8" t="b">
         <v>0</v>
       </c>
       <c r="P24" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="8" t="b">
         <v>0</v>
@@ -4129,17 +4129,17 @@
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>How to sustainably harvest [horseshoe crabs in Delaware Bay], including moratoria, given multispecies objectives?</t>
         </is>
       </c>
       <c r="U24" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Through consultations and public meetings with managers and stakeholders with additional input from scientific experts on sex ratio and carrying capacity.  While the objective function is reported, the full steps taken to produce it aren't explicit.</t>
         </is>
       </c>
       <c r="V24" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>MCDA</t>
         </is>
       </c>
       <c r="W24" s="5" t="inlineStr">
@@ -4154,17 +4154,17 @@
       </c>
       <c r="Y24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Analysts, Decision Makers, Experts, Facilitators, Fishery, Government, Management, Scientists</t>
         </is>
       </c>
       <c r="AA24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Analysts, Fishery, Management, Scientists</t>
         </is>
       </c>
       <c r="AB24" s="7" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="AC24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Analysts, Fishery, Management</t>
         </is>
       </c>
       <c r="AD24" s="7" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="AE24" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Dynamic programming, Simulation modeling</t>
         </is>
       </c>
       <c r="AF24" s="6" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="AH24" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Study combines active adaptive management with management strategy evaluation.  Documentation of the process is not particularly detailed as presented here, but that stakeholder elicitiation occurred is documented. A value of information analysis was conducted in addition to the MSE.</t>
         </is>
       </c>
       <c r="AI24" s="8" t="b">
@@ -4222,28 +4222,28 @@
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>NA, two generic simulated species (flathish and rockfish)</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>United States West Coast</t>
         </is>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>-125</v>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>US west coast groundfish</t>
         </is>
       </c>
       <c r="I25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
       <c r="J25" s="8" t="b">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>What are the impacts of monitoring method and stock assessment approachs associated with those methods to assessment performance?</t>
         </is>
       </c>
       <c r="U25" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V25" s="5" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X25" s="5" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="Y25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA25" s="7" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="AB25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC25" s="7" t="inlineStr">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="AD25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE25" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF25" s="6" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="AH25" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulation analysis seemingly unassociated with fishery problem development.  Monitoring methodology problem that did not take a VoI approach, or incorporate objectives beyond those related to estimation error.</t>
         </is>
       </c>
       <c r="AI25" s="8" t="b">
@@ -4371,28 +4371,28 @@
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>eastern Baltic cod (Gadus morhua)</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Baltic Sea</t>
         </is>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Baltic Cod fishery</t>
         </is>
       </c>
       <c r="I26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Environmental Conditions, Fishing Behavior</t>
         </is>
       </c>
       <c r="J26" s="8" t="b">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="T26" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>How will the recovery of Baltic cod be influenced by catch limit versus effort limit regulations, environmental conditions, and fleet behavior?</t>
         </is>
       </c>
       <c r="U26" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Unspecified.  Figures display more performance measures than described in the text.  Only those mentioned in the text are listed.</t>
         </is>
       </c>
       <c r="V26" s="5" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="W26" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X26" s="5" t="inlineStr">
@@ -4452,12 +4452,12 @@
       </c>
       <c r="Y26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA26" s="7" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="AB26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC26" s="7" t="inlineStr">
@@ -4477,12 +4477,12 @@
       </c>
       <c r="AD26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Management</t>
         </is>
       </c>
       <c r="AE26" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF26" s="6" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="AH26" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>This is a simulation analysis, but it may have been initiated due to management questioning the impact of recently implemented management changes.  The performance measures are not well documented, and the measures described do not correspond to the measures displayed in the results.</t>
         </is>
       </c>
       <c r="AI26" s="8" t="b">
@@ -4520,47 +4520,47 @@
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Southern Bluefin Tuna (Thunnus maccoyi)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Southern Ocean</t>
         </is>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="G27" s="4">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Southern Bluefin Tuna Fishery</t>
         </is>
       </c>
       <c r="I27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J27" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="L27" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="8" t="b">
         <v>0</v>
@@ -4576,17 +4576,17 @@
       </c>
       <c r="T27" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>What management proceedure will best meet the management objectives for southern bluefin tuna?</t>
         </is>
       </c>
       <c r="U27" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Through a series of workshops in which the management body provided objectives.  Only the SSB objective was explicitly established.  It seems that objective weights, or contraints for other objectives were attempted during the objective elicitation stage, which proved ineffective.</t>
         </is>
       </c>
       <c r="V27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="W27" s="5" t="inlineStr">
@@ -4601,17 +4601,17 @@
       </c>
       <c r="Y27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Management</t>
         </is>
       </c>
       <c r="Z27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Decision Makers, Facilitators, Fishery, Government, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AA27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Management</t>
         </is>
       </c>
       <c r="AB27" s="7" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="AC27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AD27" s="7" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="AE27" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF27" s="6" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="AH27" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>This is a restrospective look back at an MSE process to derive lessons for fisheries management, and not exactly a documentation of a MSE itself.</t>
         </is>
       </c>
       <c r="AI27" s="8" t="b">
@@ -4669,28 +4669,28 @@
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>sea lamprey (Petromyzon marinus)</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Great Lakes, USA</t>
         </is>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>-83</v>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>integrated pest management (IPM) program implemented by the Great Lakes Fishery Commission (GLFC) to control invasive sea lamprey (Petromyzon marinus) in the Laurentian Great Lakes</t>
         </is>
       </c>
       <c r="I28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J28" s="8" t="b">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>"Managers implementing IPM must decide how to allocate resources among implementation of status quo control strategies, research, development, implementation of novel pest management strategies, and refinement of existing management strategies."</t>
         </is>
       </c>
       <c r="U28" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V28" s="5" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X28" s="5" t="inlineStr">
@@ -4750,12 +4750,12 @@
       </c>
       <c r="Y28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Management, Scientists</t>
         </is>
       </c>
       <c r="AA28" s="7" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="AB28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC28" s="7" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="AD28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE28" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF28" s="6" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="AH28" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulaiton study without documentation of the decision making process.  Not the usual MSE focused on harvest management, but a case of aiming to cause mortality in a cost effective way.</t>
         </is>
       </c>
       <c r="AI28" s="8" t="b">
@@ -4818,28 +4818,28 @@
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Dungeness crab (Metacarcinus magister)</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Hood Canal, Washington, USA</t>
         </is>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G29" s="4">
-        <v>0</v>
+        <v>-123</v>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Hood Canal Dungeness crab fishery</t>
         </is>
       </c>
       <c r="I29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Environmental Conditions, Implementation Uncertainty, Uncertainty</t>
         </is>
       </c>
       <c r="J29" s="8" t="b">
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="8" t="b">
         <v>0</v>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>What Hood Canal Dungeness crab management strategies are robust to environmental and management uncertainty?</t>
         </is>
       </c>
       <c r="U29" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Co-managers’ objectives and interests. Several in-person and remote meetings with Washington State and tribal co-managers were organized to reveal key interests and considerations regarding harvest strategy for testing. The input from the co-managers gave a clearer conceptual understanding of the model content and assumptions.</t>
         </is>
       </c>
       <c r="V29" s="5" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="W29" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X29" s="5" t="inlineStr">
@@ -4899,17 +4899,17 @@
       </c>
       <c r="Y29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government, Scientists</t>
         </is>
       </c>
       <c r="AA29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government</t>
         </is>
       </c>
       <c r="AB29" s="7" t="inlineStr">
@@ -4924,12 +4924,12 @@
       </c>
       <c r="AD29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AE29" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Expert elicitation, Simulation modeling</t>
         </is>
       </c>
       <c r="AF29" s="6" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="AH29" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Not a management strategy identification effort, but a consequence of environmental conditions study.</t>
         </is>
       </c>
       <c r="AI29" s="8" t="b">
@@ -4967,47 +4967,47 @@
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Southern rock lobster (Jasus edwardsii)</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Great Australian Bight</t>
         </is>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="G30" s="4">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Australian Southern Zone Southern rock lobster fishery</t>
         </is>
       </c>
       <c r="I30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="K30" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="O30" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="8" t="b">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>0</v>
       </c>
       <c r="S30" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Which of two proposed decision rules will best meet the objectives of the Australian Southern Zone Southern rock lobster fishery?</t>
         </is>
       </c>
       <c r="U30" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V30" s="5" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="W30" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Mental Analysis</t>
         </is>
       </c>
       <c r="X30" s="5" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="Y30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government</t>
         </is>
       </c>
       <c r="AA30" s="7" t="inlineStr">
@@ -5063,12 +5063,12 @@
       </c>
       <c r="AB30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government</t>
         </is>
       </c>
       <c r="AC30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government</t>
         </is>
       </c>
       <c r="AD30" s="7" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="AE30" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF30" s="6" t="inlineStr">
@@ -5093,7 +5093,8 @@
       </c>
       <c r="AH30" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Although the number of scenarios considered was not sufficient to conclude that all possible factors were considered, and the various scenarios were not weighted by the prior probabilities, the results of the analyses presented above assisted the selection of a DR for SZ rock lobster. The selected DR was the discrete rule. This selection was based on a number of factors, some based on results of the MSE and some based on other considerations. Specifically,
+the performances of the two DRs were fairly similar with neither “dominating” the other. However, the discrete DR was seen to be more balanced (equally likely to increase as decrease the TACC) whereas it is more difficult to increase the TACC in the linear DR. Also, the discrete DR was proposed by the fishing industry and its acceptance increased stakeholder buy-in, a factor which cannot be over-emphasized during times when catch-rate [is in decline]</t>
         </is>
       </c>
       <c r="AI30" s="8" t="b">
@@ -5116,41 +5117,41 @@
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Yellow perch (Perca flavescens)</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Lake Michigan, USA</t>
         </is>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>-87</v>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Lake Michigan Yellow perch fishery</t>
         </is>
       </c>
       <c r="I31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J31" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="8" t="b">
         <v>0</v>
@@ -5162,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="8" t="b">
         <v>0</v>
@@ -5172,17 +5173,17 @@
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>What harvest strategy should the Lake Michigan Committee and its constituent agencies adopt among different harvest policies to better meet their objectives for the fishery?</t>
         </is>
       </c>
       <c r="U31" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>During the first workshop, participants developed a list of potential general management objectives and associated specific measures of performance during a facilitated brainstorming exercise.  Performance measures were refined through the series of workshops.</t>
         </is>
       </c>
       <c r="V31" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W31" s="5" t="inlineStr">
@@ -5197,17 +5198,17 @@
       </c>
       <c r="Y31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Government, Management, Scientists</t>
         </is>
       </c>
       <c r="Z31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Decision Makers, Government, Management, Scientists</t>
         </is>
       </c>
       <c r="AA31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Government, Management</t>
         </is>
       </c>
       <c r="AB31" s="7" t="inlineStr">
@@ -5217,7 +5218,7 @@
       </c>
       <c r="AC31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Government, Management</t>
         </is>
       </c>
       <c r="AD31" s="7" t="inlineStr">
@@ -5227,7 +5228,7 @@
       </c>
       <c r="AE31" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF31" s="6" t="inlineStr">
@@ -5395,7 +5396,7 @@
         </is>
       </c>
       <c r="AI32" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
@@ -5544,7 +5545,7 @@
         </is>
       </c>
       <c r="AI33" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
@@ -5693,7 +5694,7 @@
         </is>
       </c>
       <c r="AI34" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
@@ -5842,7 +5843,7 @@
         </is>
       </c>
       <c r="AI35" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
@@ -5991,7 +5992,7 @@
         </is>
       </c>
       <c r="AI36" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
@@ -6140,7 +6141,7 @@
         </is>
       </c>
       <c r="AI37" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
@@ -6289,7 +6290,7 @@
         </is>
       </c>
       <c r="AI38" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
@@ -6438,7 +6439,7 @@
         </is>
       </c>
       <c r="AI39" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
@@ -6587,7 +6588,7 @@
         </is>
       </c>
       <c r="AI40" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
@@ -6736,7 +6737,7 @@
         </is>
       </c>
       <c r="AI41" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">

--- a/DB files - Excel/tblStudy.xlsx
+++ b/DB files - Excel/tblStudy.xlsx
@@ -64,6 +64,11 @@
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,6 +87,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -219,6 +230,20 @@
         <color rgb="FFD0D7E5"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -250,10 +275,14 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -551,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -797,10 +826,10 @@
           <t>NE Pacific Ocean</t>
         </is>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>48</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>-129</v>
       </c>
       <c r="H2" s="5" t="inlineStr">
@@ -808,39 +837,39 @@
           <t>Pacific Hake Fishery</t>
         </is>
       </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8" t="b">
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T2" s="6" t="inlineStr">
@@ -868,37 +897,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y2" s="7" t="inlineStr">
+      <c r="Y2" s="8" t="inlineStr">
         <is>
           <t>Fishery, Management, Scientists</t>
         </is>
       </c>
-      <c r="Z2" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA2" s="7" t="inlineStr">
+      <c r="Z2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA2" s="8" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Managers</t>
         </is>
       </c>
-      <c r="AB2" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC2" s="7" t="inlineStr">
+      <c r="AB2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC2" s="8" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Management</t>
         </is>
       </c>
-      <c r="AD2" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE2" s="7" t="inlineStr">
+      <c r="AD2" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE2" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -918,7 +947,7 @@
           <t/>
         </is>
       </c>
-      <c r="AI2" s="8" t="b">
+      <c r="AI2" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -946,10 +975,10 @@
           <t/>
         </is>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>51</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <v>-130</v>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -957,39 +986,39 @@
           <t>British Columbia Sablefish</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8" t="b">
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T3" s="6" t="inlineStr">
@@ -1017,37 +1046,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y3" s="7" t="inlineStr">
+      <c r="Y3" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="Z3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA3" s="7" t="inlineStr">
+      <c r="Z3" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA3" s="8" t="inlineStr">
         <is>
           <t>Fishery</t>
         </is>
       </c>
-      <c r="AB3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC3" s="7" t="inlineStr">
+      <c r="AB3" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC3" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="AD3" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE3" s="7" t="inlineStr">
+      <c r="AD3" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE3" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1067,7 +1096,7 @@
           <t>While the request to evaluate management was started by the fishery and government, it seems that the MSE was lead by the researchers, and the researchers made most of the decisions about what direction to take the MSE.</t>
         </is>
       </c>
-      <c r="AI3" s="8" t="b">
+      <c r="AI3" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1095,10 +1124,10 @@
           <t/>
         </is>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>-40</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>173</v>
       </c>
       <c r="H4" s="5" t="inlineStr">
@@ -1106,39 +1135,39 @@
           <t>New Zealand rock lobster</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8" t="b">
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
@@ -1166,37 +1195,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y4" s="7" t="inlineStr">
+      <c r="Y4" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="Z4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA4" s="7" t="inlineStr">
+      <c r="Z4" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA4" s="8" t="inlineStr">
         <is>
           <t>Analysts, Fishery</t>
         </is>
       </c>
-      <c r="AB4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC4" s="7" t="inlineStr">
+      <c r="AB4" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC4" s="8" t="inlineStr">
         <is>
           <t>Analysts, Fishery</t>
         </is>
       </c>
-      <c r="AD4" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE4" s="7" t="inlineStr">
+      <c r="AD4" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE4" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1216,7 +1245,7 @@
           <t>There was a good deal of iteration occuring in this project that makes clear identification of the process, objectives, and management tools difficult.  Stakeholder interaction occurred, but it is not documented how it occurred, and in particular what effect that interaction had on the set of objectives and management tools considered.  It seems as if a number of decisions were made by the researchers in terms of moving from vague objectives to performance measures, and what set of performance measures were considered.  Stakeholders did explicitly identify some management tools to evaluate.  A large set of objectives was developed, but only a limited set of those objectives are presented in the results.  It is unclear how the final set was selected, although there is some discussion of a pareto-optimal set of management procedures.</t>
         </is>
       </c>
-      <c r="AI4" s="8" t="b">
+      <c r="AI4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1244,10 +1273,10 @@
           <t/>
         </is>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>57</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>-161</v>
       </c>
       <c r="H5" s="5" t="inlineStr">
@@ -1255,39 +1284,39 @@
           <t>Eastern Bering Sea snow crab</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8" t="b">
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T5" s="6" t="inlineStr">
@@ -1315,37 +1344,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y5" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z5" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA5" s="7" t="inlineStr">
+      <c r="Y5" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z5" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA5" s="8" t="inlineStr">
         <is>
           <t>Analysts, Government</t>
         </is>
       </c>
-      <c r="AB5" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC5" s="7" t="inlineStr">
+      <c r="AB5" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC5" s="8" t="inlineStr">
         <is>
           <t>Analysts</t>
         </is>
       </c>
-      <c r="AD5" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE5" s="7" t="inlineStr">
+      <c r="AD5" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE5" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1365,7 +1394,7 @@
           <t>Results are not provided for all of the objectives listed in the text.  The authors state that they followed best practices for MSE such as: "incorporating managers and stakeholders in the selection of objectives and performance metrics", but it is not clear how that occurred.  This article and Punt et al. 2014 will be useful to return to for our climate work.</t>
         </is>
       </c>
-      <c r="AI5" s="8" t="b">
+      <c r="AI5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1393,10 +1422,10 @@
           <t/>
         </is>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>-50</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <v>77</v>
       </c>
       <c r="H6" s="5" t="inlineStr">
@@ -1404,39 +1433,39 @@
           <t>Southern bluefin tuna</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8" t="b">
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T6" s="6" t="inlineStr">
@@ -1464,37 +1493,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y6" s="7" t="inlineStr">
+      <c r="Y6" s="8" t="inlineStr">
         <is>
           <t>Government, Scientists</t>
         </is>
       </c>
-      <c r="Z6" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA6" s="7" t="inlineStr">
+      <c r="Z6" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA6" s="8" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AB6" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC6" s="7" t="inlineStr">
+      <c r="AB6" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC6" s="8" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD6" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE6" s="7" t="inlineStr">
+      <c r="AD6" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE6" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1514,7 +1543,7 @@
           <t>A management commision representing nations participating in the fishery was created.  This commision lead this MSE and was the source of the objs and procedures. The list of objectives does not match the set of performance criteria displayed in the results figure.</t>
         </is>
       </c>
-      <c r="AI6" s="8" t="b">
+      <c r="AI6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1542,10 +1571,10 @@
           <t/>
         </is>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>42</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>-81</v>
       </c>
       <c r="H7" s="5" t="inlineStr">
@@ -1553,39 +1582,39 @@
           <t>Lake Erie Walleye</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8" t="b">
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T7" s="6" t="inlineStr">
@@ -1613,37 +1642,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y7" s="7" t="inlineStr">
+      <c r="Y7" s="8" t="inlineStr">
         <is>
           <t>Fishery, Management</t>
         </is>
       </c>
-      <c r="Z7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="7" t="inlineStr">
+      <c r="Z7" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="8" t="inlineStr">
         <is>
           <t>Fishery, Managers</t>
         </is>
       </c>
-      <c r="AB7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="7" t="inlineStr">
+      <c r="AB7" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC7" s="8" t="inlineStr">
         <is>
           <t>Fishery, Management</t>
         </is>
       </c>
-      <c r="AD7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE7" s="7" t="inlineStr">
+      <c r="AD7" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE7" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1663,7 +1692,7 @@
           <t>An explicit decision making process was followed for which a decision making body was established that included managers and stakeholders from the impacted regions and stakeholder groups.  Nice results section with a variety of figures and tables.</t>
         </is>
       </c>
-      <c r="AI7" s="8" t="b">
+      <c r="AI7" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1691,10 +1720,10 @@
           <t/>
         </is>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>-11</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <v>135</v>
       </c>
       <c r="H8" s="5" t="inlineStr">
@@ -1702,39 +1731,39 @@
           <t>Australian Northern Prawn Fishery</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8" t="b">
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
@@ -1762,37 +1791,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y8" s="7" t="inlineStr">
+      <c r="Y8" s="8" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="Z8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="7" t="inlineStr">
+      <c r="Z8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="8" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="AB8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE8" s="7" t="inlineStr">
+      <c r="AB8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD8" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1812,7 +1841,7 @@
           <t>This MSE report is a summary of multiple iterations of an MSE approach to prawn management in Australia.  It includes accounting for economic impacts, with and bioeconomics model, and impacts to other species.  Objiectives were not explicitly weighted, but based on iterative feedback some trade-offs between objectives were apparently evaluated.</t>
         </is>
       </c>
-      <c r="AI8" s="8" t="b">
+      <c r="AI8" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1840,10 +1869,10 @@
           <t>Vermont</t>
         </is>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>43</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <v>-73</v>
       </c>
       <c r="H9" s="5" t="inlineStr">
@@ -1851,39 +1880,39 @@
           <t>Vermont Furbearers</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8" t="b">
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9" t="b">
         <v>1</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
@@ -1911,37 +1940,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y9" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z9" s="7" t="inlineStr">
+      <c r="Y9" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z9" s="8" t="inlineStr">
         <is>
           <t>Analysts, Decision Makers, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA9" s="7" t="inlineStr">
+      <c r="AA9" s="8" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="AB9" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC9" s="7" t="inlineStr">
+      <c r="AB9" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC9" s="8" t="inlineStr">
         <is>
           <t>Analysts, Management</t>
         </is>
       </c>
-      <c r="AD9" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE9" s="7" t="inlineStr">
+      <c r="AD9" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" s="8" t="inlineStr">
         <is>
           <t>Expert Elicitation, Simulation modeling</t>
         </is>
@@ -1961,7 +1990,7 @@
           <t>Not an MSE, just for prototyping the Shiny app</t>
         </is>
       </c>
-      <c r="AI9" s="8" t="b">
+      <c r="AI9" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1989,10 +2018,10 @@
           <t>Fraser River British Columbia</t>
         </is>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>49</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <v>-123</v>
       </c>
       <c r="H10" s="5" t="inlineStr">
@@ -2000,39 +2029,39 @@
           <t>Fraser River sockeye</t>
         </is>
       </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" s="8" t="b">
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9" t="b">
         <v>1</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
@@ -2060,37 +2089,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y10" s="7" t="inlineStr">
+      <c r="Y10" s="8" t="inlineStr">
         <is>
           <t>Independent, Management, Scientists</t>
         </is>
       </c>
-      <c r="Z10" s="7" t="inlineStr">
+      <c r="Z10" s="8" t="inlineStr">
         <is>
           <t>Analysts, Independent, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA10" s="7" t="inlineStr">
+      <c r="AA10" s="8" t="inlineStr">
         <is>
           <t>Analysts</t>
         </is>
       </c>
-      <c r="AB10" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC10" s="7" t="inlineStr">
+      <c r="AB10" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC10" s="8" t="inlineStr">
         <is>
           <t>Analysts, Management, Scientists</t>
         </is>
       </c>
-      <c r="AD10" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE10" s="7" t="inlineStr">
+      <c r="AD10" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE10" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -2110,7 +2139,7 @@
           <t>Not an MSE, just included for prototyping Shiny App</t>
         </is>
       </c>
-      <c r="AI10" s="8" t="b">
+      <c r="AI10" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2138,10 +2167,10 @@
           <t>Southwestern USA</t>
         </is>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>37</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <v>-101</v>
       </c>
       <c r="H11" s="5" t="inlineStr">
@@ -2149,39 +2178,39 @@
           <t>Lesser prairie chicken</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <t>Climate Change, Habitat Change</t>
         </is>
       </c>
-      <c r="J11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8" t="b">
+      <c r="J11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T11" s="6" t="inlineStr">
@@ -2209,37 +2238,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y11" s="7" t="inlineStr">
+      <c r="Y11" s="8" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="Z11" s="7" t="inlineStr">
+      <c r="Z11" s="8" t="inlineStr">
         <is>
           <t>Analysts, Experts, Facilitators, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA11" s="7" t="inlineStr">
+      <c r="AA11" s="8" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="AB11" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC11" s="7" t="inlineStr">
+      <c r="AB11" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC11" s="8" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD11" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE11" s="7" t="inlineStr">
+      <c r="AD11" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE11" s="8" t="inlineStr">
         <is>
           <t>Expert Elicitation, Simulation modeling</t>
         </is>
@@ -2259,7 +2288,7 @@
           <t>Not an MSE, included just for prototyping the Shiny App</t>
         </is>
       </c>
-      <c r="AI11" s="8" t="b">
+      <c r="AI11" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2287,10 +2316,10 @@
           <t>Torres Strait, Australia</t>
         </is>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>-10</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="7">
         <v>142</v>
       </c>
       <c r="H12" s="5" t="inlineStr">
@@ -2298,39 +2327,39 @@
           <t>Torres Strait Finfish Fishery</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>Multiple Sectors in Fishery</t>
         </is>
       </c>
-      <c r="J12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8" t="b">
+      <c r="J12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
@@ -2358,37 +2387,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y12" s="7" t="inlineStr">
+      <c r="Y12" s="8" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="Z12" s="7" t="inlineStr">
+      <c r="Z12" s="8" t="inlineStr">
         <is>
           <t>Facilitators, Fishery, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA12" s="7" t="inlineStr">
+      <c r="AA12" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government, Management</t>
         </is>
       </c>
-      <c r="AB12" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC12" s="7" t="inlineStr">
+      <c r="AB12" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC12" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government, Management</t>
         </is>
       </c>
-      <c r="AD12" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE12" s="7" t="inlineStr">
+      <c r="AD12" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE12" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -2409,7 +2438,7 @@
           <t>This MSE has an example of the downfall of setting target levels for objectives rather than using a max vs. min. approach because no strategies achieve the target.  The description of this MSE indicates that stakeholders were involved in the process, but the roles of the stakeholders, and a description of the process are not provided.  It is unclear who lead this MSE.  While the objectives are defined as target probabilities, the results are not presented this way.  They are presented in terms of the probability inputs.  No trade-off analysis occurred, so no optimal alternative is provided.  No decision or reporting of subsequent use of the analysis is documented.</t>
         </is>
       </c>
-      <c r="AI12" s="8" t="b">
+      <c r="AI12" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2437,10 +2466,10 @@
           <t>Bristol Bay, Alaska</t>
         </is>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>58</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <v>-161</v>
       </c>
       <c r="H13" s="5" t="inlineStr">
@@ -2448,39 +2477,39 @@
           <t>Bristol Bay, Alaska Red King Crab</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" s="8" t="b">
+      <c r="J13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T13" s="6" t="inlineStr">
@@ -2508,37 +2537,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y13" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z13" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA13" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC13" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD13" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE13" s="7" t="inlineStr">
+      <c r="Y13" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z13" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA13" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC13" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD13" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE13" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -2558,7 +2587,7 @@
           <t>This article is not presented explicitly as a management strategy evaluation, but is discussed as being a management strategy evaluation minus a full operating model.  Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
-      <c r="AI13" s="8" t="b">
+      <c r="AI13" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2586,10 +2615,10 @@
           <t>Great Barrier Reef, Australia</t>
         </is>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>-18</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <v>148</v>
       </c>
       <c r="H14" s="5" t="inlineStr">
@@ -2597,39 +2626,39 @@
           <t>Great Barrier Reef Coral Reef Finfish Fishery</t>
         </is>
       </c>
-      <c r="I14" s="7" t="inlineStr">
+      <c r="I14" s="8" t="inlineStr">
         <is>
           <t>Migration</t>
         </is>
       </c>
-      <c r="J14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8" t="b">
+      <c r="J14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T14" s="6" t="inlineStr">
@@ -2657,37 +2686,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y14" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z14" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA14" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC14" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD14" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE14" s="7" t="inlineStr">
+      <c r="Y14" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z14" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA14" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC14" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD14" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE14" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -2707,7 +2736,7 @@
           <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
-      <c r="AI14" s="8" t="b">
+      <c r="AI14" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2734,13 +2763,13 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="4">
+          <t>South eastern Australia</t>
+        </is>
+      </c>
+      <c r="F15" s="7">
         <v>-40</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>147</v>
       </c>
       <c r="H15" s="5" t="inlineStr">
@@ -2748,39 +2777,39 @@
           <t>Southern and Eastern Scalefish and Shark Fishery</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>Stock Status</t>
         </is>
       </c>
-      <c r="J15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="8" t="b">
+      <c r="J15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T15" s="6" t="inlineStr">
@@ -2808,37 +2837,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y15" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z15" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA15" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC15" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD15" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE15" s="7" t="inlineStr">
+      <c r="Y15" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z15" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA15" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC15" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD15" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE15" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -2859,7 +2888,7 @@
           <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
-      <c r="AI15" s="8" t="b">
+      <c r="AI15" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2887,10 +2916,10 @@
           <t>U.S. West Coast EEZ</t>
         </is>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>40</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>-126</v>
       </c>
       <c r="H16" s="5" t="inlineStr">
@@ -2898,39 +2927,39 @@
           <t>California drift gillnet fishery</t>
         </is>
       </c>
-      <c r="I16" s="7" t="inlineStr">
+      <c r="I16" s="8" t="inlineStr">
         <is>
           <t>Monitoring Methodology</t>
         </is>
       </c>
-      <c r="J16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" s="8" t="b">
+      <c r="J16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T16" s="6" t="inlineStr">
@@ -2958,37 +2987,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y16" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z16" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA16" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC16" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD16" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE16" s="7" t="inlineStr">
+      <c r="Y16" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z16" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA16" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC16" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD16" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE16" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -3008,7 +3037,7 @@
           <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.  In addition, the analysis is disconnected from the system in which the decision is actually being made.  That is, rather than conduct a trade-off analysis on the harvest rate in the fishery that results in the optimal result there and for leatherbacks, acceptable leatherback status is feed into a decision making process for the fishery.  This treatment of these linked problems has built in objective weighting of the leatherback objectives by treating them as constraints.</t>
         </is>
       </c>
-      <c r="AI16" s="8" t="b">
+      <c r="AI16" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3036,10 +3065,10 @@
           <t>British Columbia (Canada)</t>
         </is>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>51</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <v>-129</v>
       </c>
       <c r="H17" s="5" t="inlineStr">
@@ -3047,39 +3076,39 @@
           <t>multi-fleet multi-gear sablefish (Anoplopoma fimbria) fishery in British Columbia (Canada)</t>
         </is>
       </c>
-      <c r="I17" s="7" t="inlineStr">
+      <c r="I17" s="8" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" s="8" t="b">
+      <c r="J17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T17" s="6" t="inlineStr">
@@ -3107,37 +3136,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y17" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z17" s="7" t="inlineStr">
+      <c r="Y17" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z17" s="8" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AA17" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="7" t="inlineStr">
+      <c r="AA17" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="8" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AC17" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AD17" s="7" t="inlineStr">
+      <c r="AC17" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AD17" s="8" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AE17" s="7" t="inlineStr">
+      <c r="AE17" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -3157,7 +3186,7 @@
           <t>This was one of many articles to come out of MSEs published by the same authors related to their work on BS sablefish.  The process was not fully documented here, apart from the alternatives selected in this study.  It is possible the process is more fully documented in earlier articles related to this fishery.</t>
         </is>
       </c>
-      <c r="AI17" s="8" t="b">
+      <c r="AI17" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3185,10 +3214,10 @@
           <t>Victoria, Australia</t>
         </is>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>-39</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <v>145</v>
       </c>
       <c r="H18" s="5" t="inlineStr">
@@ -3196,39 +3225,39 @@
           <t>Victoria, Australia rock lobster fishery</t>
         </is>
       </c>
-      <c r="I18" s="7" t="inlineStr">
+      <c r="I18" s="8" t="inlineStr">
         <is>
           <t>Allowable Catch Adjustment, Spatial Structure, Uncertainty</t>
         </is>
       </c>
-      <c r="J18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8" t="b">
+      <c r="J18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
@@ -3256,37 +3285,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y18" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z18" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA18" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB18" s="7" t="inlineStr">
+      <c r="Y18" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z18" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA18" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="8" t="inlineStr">
         <is>
           <t>Fishery, Scientists</t>
         </is>
       </c>
-      <c r="AC18" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD18" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE18" s="7" t="inlineStr">
+      <c r="AC18" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD18" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE18" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -3308,7 +3337,7 @@
           <t>MSE focused on the spatial scale of stock assessments and management.  The results indicate that for the objectives considered a smaller spatial scale is best.  However, they note this approach is not feasible, so management cost objectives were clearly lacking.  No process documentation is included in the article.</t>
         </is>
       </c>
-      <c r="AI18" s="8" t="b">
+      <c r="AI18" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3336,10 +3365,10 @@
           <t>Northern Australia</t>
         </is>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>-13</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="7">
         <v>139</v>
       </c>
       <c r="H19" s="5" t="inlineStr">
@@ -3347,39 +3376,39 @@
           <t>Northern Australia prawn fishery</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="8" t="inlineStr">
         <is>
           <t>Ecosystem Based Management, Spatial Structure</t>
         </is>
       </c>
-      <c r="J19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" s="8" t="b">
+      <c r="J19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T19" s="6" t="inlineStr">
@@ -3407,37 +3436,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y19" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z19" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA19" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC19" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD19" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE19" s="7" t="inlineStr">
+      <c r="Y19" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z19" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC19" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD19" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE19" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -3457,7 +3486,7 @@
           <t>The objectives for this study are a mess.  There is a substantial degree of overlap between performance measures, and in many cases it is unclear what the motivation for a performance measure is.  There is no documentation of interation with stakeholders and this appears to be primarily a simulation study.</t>
         </is>
       </c>
-      <c r="AI19" s="8" t="b">
+      <c r="AI19" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3485,10 +3514,10 @@
           <t>Bay of Biscay</t>
         </is>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>46</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="7">
         <v>-3</v>
       </c>
       <c r="H20" s="5" t="inlineStr">
@@ -3496,39 +3525,39 @@
           <t>Bay of Biscay trawl fishery</t>
         </is>
       </c>
-      <c r="I20" s="7" t="inlineStr">
+      <c r="I20" s="8" t="inlineStr">
         <is>
           <t>Landing Regulations</t>
         </is>
       </c>
-      <c r="J20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" s="8" t="b">
+      <c r="J20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T20" s="6" t="inlineStr">
@@ -3556,37 +3585,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y20" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z20" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA20" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB20" s="7" t="inlineStr">
+      <c r="Y20" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z20" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA20" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" s="8" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="AC20" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD20" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE20" s="7" t="inlineStr">
+      <c r="AC20" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD20" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE20" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -3606,7 +3635,7 @@
           <t>This study was difficult to follow because it was seemingly written by an english as a second language writer, and the performance metrics weren't specified separately from the results.  Presented as a simulation study without connection to a decision process.</t>
         </is>
       </c>
-      <c r="AI20" s="8" t="b">
+      <c r="AI20" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3634,10 +3663,10 @@
           <t>Northern Australia</t>
         </is>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="7">
         <v>-13</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="7">
         <v>139</v>
       </c>
       <c r="H21" s="5" t="inlineStr">
@@ -3645,39 +3674,39 @@
           <t>Northern Australia prawn fishery</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
-      <c r="J21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S21" s="8" t="b">
+      <c r="J21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T21" s="6" t="inlineStr">
@@ -3705,37 +3734,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y21" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z21" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA21" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB21" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC21" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD21" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE21" s="7" t="inlineStr">
+      <c r="Y21" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z21" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA21" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC21" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD21" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE21" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -3755,7 +3784,7 @@
           <t>This is more of a value of information analysis than a management strategy evaluation, except without presenting the results in a VoI framework.  Put another way, this was a sensitivity analysis.</t>
         </is>
       </c>
-      <c r="AI21" s="8" t="b">
+      <c r="AI21" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3783,10 +3812,10 @@
           <t>Torres Strait</t>
         </is>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="7">
         <v>-10</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="7">
         <v>144</v>
       </c>
       <c r="H22" s="5" t="inlineStr">
@@ -3794,39 +3823,39 @@
           <t>Torres Strait Sea cucumber fishery</t>
         </is>
       </c>
-      <c r="I22" s="7" t="inlineStr">
+      <c r="I22" s="8" t="inlineStr">
         <is>
           <t>Climate Change, Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
-      <c r="J22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22" s="8" t="b">
+      <c r="J22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T22" s="6" t="inlineStr">
@@ -3854,37 +3883,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y22" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z22" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA22" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB22" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC22" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD22" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE22" s="7" t="inlineStr">
+      <c r="Y22" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z22" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA22" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC22" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD22" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE22" s="8" t="inlineStr">
         <is>
           <t>Expert Elicitation, Simulation modeling</t>
         </is>
@@ -3904,7 +3933,7 @@
           <t>Odd that the performance measures selected do not correspond with the objective set developed.  Simulation study only</t>
         </is>
       </c>
-      <c r="AI22" s="8" t="b">
+      <c r="AI22" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3932,10 +3961,10 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="inlineStr">
@@ -3943,39 +3972,39 @@
           <t>Simulated fishery in U.S.</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="8" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S23" s="8" t="b">
+      <c r="J23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T23" s="6" t="inlineStr">
@@ -4003,37 +4032,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y23" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z23" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA23" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB23" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC23" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD23" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE23" s="7" t="inlineStr">
+      <c r="Y23" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z23" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA23" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC23" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD23" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE23" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -4053,7 +4082,7 @@
           <t>A simlulation study, not tied to any particular fishery.</t>
         </is>
       </c>
-      <c r="AI23" s="8" t="b">
+      <c r="AI23" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4081,10 +4110,10 @@
           <t>Delaware Bay</t>
         </is>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="7">
         <v>39</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="7">
         <v>-75</v>
       </c>
       <c r="H24" s="5" t="inlineStr">
@@ -4092,39 +4121,39 @@
           <t>Delaware Bay Horsewhoe crab fishery</t>
         </is>
       </c>
-      <c r="I24" s="7" t="inlineStr">
+      <c r="I24" s="8" t="inlineStr">
         <is>
           <t>Allowable Catch Adjustment, Monitoring Methodology, Species Interactions, Uncertainty</t>
         </is>
       </c>
-      <c r="J24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24" s="8" t="b">
+      <c r="J24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T24" s="6" t="inlineStr">
@@ -4152,37 +4181,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y24" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z24" s="7" t="inlineStr">
+      <c r="Y24" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z24" s="8" t="inlineStr">
         <is>
           <t>Analysts, Decision Makers, Experts, Facilitators, Fishery, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA24" s="7" t="inlineStr">
+      <c r="AA24" s="8" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Management, Scientists</t>
         </is>
       </c>
-      <c r="AB24" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC24" s="7" t="inlineStr">
+      <c r="AB24" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC24" s="8" t="inlineStr">
         <is>
           <t>Analysts, Fishery, Management</t>
         </is>
       </c>
-      <c r="AD24" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE24" s="7" t="inlineStr">
+      <c r="AD24" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE24" s="8" t="inlineStr">
         <is>
           <t>Dynamic programming, Simulation modeling</t>
         </is>
@@ -4202,7 +4231,7 @@
           <t>Study combines active adaptive management with management strategy evaluation.  Documentation of the process is not particularly detailed as presented here, but that stakeholder elicitiation occurred is documented. A value of information analysis was conducted in addition to the MSE.</t>
         </is>
       </c>
-      <c r="AI24" s="8" t="b">
+      <c r="AI24" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4230,10 +4259,10 @@
           <t>United States West Coast</t>
         </is>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="7">
         <v>39</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="7">
         <v>-125</v>
       </c>
       <c r="H25" s="5" t="inlineStr">
@@ -4241,39 +4270,39 @@
           <t>US west coast groundfish</t>
         </is>
       </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="I25" s="8" t="inlineStr">
         <is>
           <t>Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
-      <c r="J25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S25" s="8" t="b">
+      <c r="J25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T25" s="6" t="inlineStr">
@@ -4301,37 +4330,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y25" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z25" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA25" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB25" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC25" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD25" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE25" s="7" t="inlineStr">
+      <c r="Y25" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z25" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA25" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC25" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD25" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE25" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -4351,7 +4380,7 @@
           <t>Simulation analysis seemingly unassociated with fishery problem development.  Monitoring methodology problem that did not take a VoI approach, or incorporate objectives beyond those related to estimation error.</t>
         </is>
       </c>
-      <c r="AI25" s="8" t="b">
+      <c r="AI25" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4379,10 +4408,10 @@
           <t>Baltic Sea</t>
         </is>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="7">
         <v>59</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="7">
         <v>20</v>
       </c>
       <c r="H26" s="5" t="inlineStr">
@@ -4390,39 +4419,39 @@
           <t>Baltic Cod fishery</t>
         </is>
       </c>
-      <c r="I26" s="7" t="inlineStr">
+      <c r="I26" s="8" t="inlineStr">
         <is>
           <t>Environmental Conditions, Fishing Behavior</t>
         </is>
       </c>
-      <c r="J26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26" s="8" t="b">
+      <c r="J26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T26" s="6" t="inlineStr">
@@ -4450,37 +4479,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y26" s="7" t="inlineStr">
+      <c r="Y26" s="8" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="Z26" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA26" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB26" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC26" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD26" s="7" t="inlineStr">
+      <c r="Z26" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA26" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC26" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD26" s="8" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="AE26" s="7" t="inlineStr">
+      <c r="AE26" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -4500,7 +4529,7 @@
           <t>This is a simulation analysis, but it may have been initiated due to management questioning the impact of recently implemented management changes.  The performance measures are not well documented, and the measures described do not correspond to the measures displayed in the results.</t>
         </is>
       </c>
-      <c r="AI26" s="8" t="b">
+      <c r="AI26" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4528,10 +4557,10 @@
           <t>Southern Ocean</t>
         </is>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="7">
         <v>-44</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="7">
         <v>77</v>
       </c>
       <c r="H27" s="5" t="inlineStr">
@@ -4539,39 +4568,39 @@
           <t>Southern Bluefin Tuna Fishery</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="8" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27" s="8" t="b">
+      <c r="J27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T27" s="6" t="inlineStr">
@@ -4599,37 +4628,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y27" s="7" t="inlineStr">
+      <c r="Y27" s="8" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="Z27" s="7" t="inlineStr">
+      <c r="Z27" s="8" t="inlineStr">
         <is>
           <t>Decision Makers, Facilitators, Fishery, Government, Independent, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA27" s="7" t="inlineStr">
+      <c r="AA27" s="8" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="AB27" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC27" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AD27" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE27" s="7" t="inlineStr">
+      <c r="AB27" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC27" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AD27" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE27" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -4649,7 +4678,7 @@
           <t>This is a restrospective look back at an MSE process to derive lessons for fisheries management, and not exactly a documentation of a MSE itself.</t>
         </is>
       </c>
-      <c r="AI27" s="8" t="b">
+      <c r="AI27" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4677,10 +4706,10 @@
           <t>Great Lakes, USA</t>
         </is>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="7">
         <v>45</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="7">
         <v>-83</v>
       </c>
       <c r="H28" s="5" t="inlineStr">
@@ -4688,39 +4717,39 @@
           <t>integrated pest management (IPM) program implemented by the Great Lakes Fishery Commission (GLFC) to control invasive sea lamprey (Petromyzon marinus) in the Laurentian Great Lakes</t>
         </is>
       </c>
-      <c r="I28" s="7" t="inlineStr">
+      <c r="I28" s="8" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S28" s="8" t="b">
+      <c r="J28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
@@ -4748,37 +4777,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y28" s="7" t="inlineStr">
+      <c r="Y28" s="8" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="Z28" s="7" t="inlineStr">
+      <c r="Z28" s="8" t="inlineStr">
         <is>
           <t>Management, Scientists</t>
         </is>
       </c>
-      <c r="AA28" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB28" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC28" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD28" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AE28" s="7" t="inlineStr">
+      <c r="AA28" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC28" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD28" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE28" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -4798,7 +4827,7 @@
           <t>Simulaiton study without documentation of the decision making process.  Not the usual MSE focused on harvest management, but a case of aiming to cause mortality in a cost effective way.</t>
         </is>
       </c>
-      <c r="AI28" s="8" t="b">
+      <c r="AI28" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4826,10 +4855,10 @@
           <t>Hood Canal, Washington, USA</t>
         </is>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="7">
         <v>48</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="7">
         <v>-123</v>
       </c>
       <c r="H29" s="5" t="inlineStr">
@@ -4837,39 +4866,39 @@
           <t>Hood Canal Dungeness crab fishery</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="I29" s="8" t="inlineStr">
         <is>
           <t>Environmental Conditions, Implementation Uncertainty, Uncertainty</t>
         </is>
       </c>
-      <c r="J29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S29" s="8" t="b">
+      <c r="J29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T29" s="6" t="inlineStr">
@@ -4897,37 +4926,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y29" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z29" s="7" t="inlineStr">
+      <c r="Y29" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z29" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government, Scientists</t>
         </is>
       </c>
-      <c r="AA29" s="7" t="inlineStr">
+      <c r="AA29" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="AB29" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC29" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD29" s="7" t="inlineStr">
+      <c r="AB29" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC29" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD29" s="8" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="AE29" s="7" t="inlineStr">
+      <c r="AE29" s="8" t="inlineStr">
         <is>
           <t>Expert elicitation, Simulation modeling</t>
         </is>
@@ -4947,7 +4976,7 @@
           <t>Not a management strategy identification effort, but a consequence of environmental conditions study.</t>
         </is>
       </c>
-      <c r="AI29" s="8" t="b">
+      <c r="AI29" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4975,10 +5004,10 @@
           <t>Great Australian Bight</t>
         </is>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="7">
         <v>-37</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="7">
         <v>139</v>
       </c>
       <c r="H30" s="5" t="inlineStr">
@@ -4986,39 +5015,39 @@
           <t>Australian Southern Zone Southern rock lobster fishery</t>
         </is>
       </c>
-      <c r="I30" s="7" t="inlineStr">
+      <c r="I30" s="8" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8" t="b">
+      <c r="J30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9" t="b">
         <v>1</v>
       </c>
       <c r="T30" s="6" t="inlineStr">
@@ -5046,37 +5075,37 @@
           <t/>
         </is>
       </c>
-      <c r="Y30" s="7" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z30" s="7" t="inlineStr">
+      <c r="Y30" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z30" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="AA30" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="7" t="inlineStr">
+      <c r="AA30" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="AC30" s="7" t="inlineStr">
+      <c r="AC30" s="8" t="inlineStr">
         <is>
           <t>Fishery, Government</t>
         </is>
       </c>
-      <c r="AD30" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE30" s="7" t="inlineStr">
+      <c r="AD30" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE30" s="8" t="inlineStr">
         <is>
           <t>Simulation modeling</t>
         </is>
@@ -5097,7 +5126,7 @@
 the performances of the two DRs were fairly similar with neither “dominating” the other. However, the discrete DR was seen to be more balanced (equally likely to increase as decrease the TACC) whereas it is more difficult to increase the TACC in the linear DR. Also, the discrete DR was proposed by the fishing industry and its acceptance increased stakeholder buy-in, a factor which cannot be over-emphasized during times when catch-rate [is in decline]</t>
         </is>
       </c>
-      <c r="AI30" s="8" t="b">
+      <c r="AI30" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5125,10 +5154,10 @@
           <t>Lake Michigan, USA</t>
         </is>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="7">
         <v>44</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="7">
         <v>-87</v>
       </c>
       <c r="H31" s="5" t="inlineStr">
@@ -5136,39 +5165,39 @@
           <t>Lake Michigan Yellow perch fishery</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="I31" s="8" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="J31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S31" s="8" t="b">
+      <c r="J31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T31" s="6" t="inlineStr">
@@ -5196,39 +5225,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y31" s="7" t="inlineStr">
+      <c r="Y31" s="8" t="inlineStr">
         <is>
           <t>Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="Z31" s="7" t="inlineStr">
+      <c r="Z31" s="8" t="inlineStr">
         <is>
           <t>Decision Makers, Government, Management, Scientists</t>
         </is>
       </c>
-      <c r="AA31" s="7" t="inlineStr">
+      <c r="AA31" s="8" t="inlineStr">
         <is>
           <t>Government, Management</t>
         </is>
       </c>
-      <c r="AB31" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC31" s="7" t="inlineStr">
+      <c r="AB31" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC31" s="8" t="inlineStr">
         <is>
           <t>Government, Management</t>
         </is>
       </c>
-      <c r="AD31" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE31" s="7" t="inlineStr">
-        <is>
-          <t>Simulation modeling</t>
+      <c r="AD31" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE31" s="8" t="inlineStr">
+        <is>
+          <t>Expert elicitation, Simulation modeling</t>
         </is>
       </c>
       <c r="AF31" s="6" t="inlineStr">
@@ -5246,7 +5275,7 @@
           <t/>
         </is>
       </c>
-      <c r="AI31" s="8" t="b">
+      <c r="AI31" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5266,68 +5295,69 @@
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
+          <t>Mid Atlantic Bight</t>
+        </is>
+      </c>
+      <c r="F32" s="7">
+        <v>40</v>
+      </c>
+      <c r="G32" s="7">
+        <v>-73</v>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8" t="b">
+          <t>Mid Atlantic Bight Atlantic surfclam fishery</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>Implementation Uncertainty, Spatial Structure, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T32" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The objective of our study is to evaluate a range of area management options that may improve the Atlantic surfclam stock and the Atlantic surfclam fishery in the MAB.  My rewording would be, "What area closure rules and closure duration will best achieve the objectives of the Atlantic surfclam fishery?"</t>
         </is>
       </c>
       <c r="U32" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel
+captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
         </is>
       </c>
       <c r="V32" s="5" t="inlineStr">
@@ -5337,7 +5367,7 @@
       </c>
       <c r="W32" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Mental Analysis</t>
         </is>
       </c>
       <c r="X32" s="5" t="inlineStr">
@@ -5345,39 +5375,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD32" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE32" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y32" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z32" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Scientists</t>
+        </is>
+      </c>
+      <c r="AA32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Scientists</t>
+        </is>
+      </c>
+      <c r="AC32" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD32" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Scientists</t>
+        </is>
+      </c>
+      <c r="AE32" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF32" s="6" t="inlineStr">
@@ -5392,11 +5422,11 @@
       </c>
       <c r="AH32" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI32" s="8" t="b">
-        <v>0</v>
+          <t>The decision process was not explicited documented, so the degree of stakeholder interaction was difficult to determine, but seemingly some interaction with stakeholders occurred.  This was predominantly a scientist lead simulation study.  The main driver evaluated was fishing behavior.</t>
+        </is>
+      </c>
+      <c r="AI32" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
@@ -5415,73 +5445,73 @@
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>17 species in EBFM plan</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
+          <t>Southeastern Australia</t>
+        </is>
+      </c>
+      <c r="F33" s="7">
+        <v>-39</v>
+      </c>
+      <c r="G33" s="7">
+        <v>146</v>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" s="8" t="b">
+          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>Ecosystem Based Management, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Inexplicit, my version, "What management strategy will best achieve the diverse objectives of a multiple species ecosystem based fisheries management plan?"</t>
         </is>
       </c>
       <c r="U33" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V33" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="W33" s="5" t="inlineStr">
@@ -5494,39 +5524,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD33" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE33" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y33" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z33" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Independent, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AA33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB33" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Independent, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AC33" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD33" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Independent, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AE33" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF33" s="6" t="inlineStr">
@@ -5541,11 +5571,11 @@
       </c>
       <c r="AH33" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI33" s="8" t="b">
-        <v>0</v>
+          <t>Seemingly a stakeholder process occurred in this MSE, but it isn't documented, even in the referenced technical reports.  Performance measures are ill defined, as it the normalization process, which seems to combine results into categories before normalization.  Spider plots of the normalized scores were produced, seemingly presuming equal weighting.  Taken from text, "When considering the performance of individual strategies these performance measures are considered individually, whereas for comparison across strategies they are pulled together into composite indices. For ease of interpretation and visualisation, the final composite values were then normalised over all strategies and all years so that the best result of a performance measure is assigned a value of 1 and all other values scaled accordingly."</t>
+        </is>
+      </c>
+      <c r="AI33" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
@@ -5564,68 +5594,68 @@
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>abalone (Haliotis rubra and Haliotis laevigata)</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
+          <t>Tasmania</t>
+        </is>
+      </c>
+      <c r="F34" s="7">
+        <v>-43</v>
+      </c>
+      <c r="G34" s="7">
+        <v>148</v>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" s="8" t="b">
+          <t>Tasmanian abalone fishery</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>Spatial Structure, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>No single problem statement provided.  My version, "What combination of legal minimum lengths will best meet the management objectives of the Tasmanian abalone fishery given the spatial structure of the abalone stocks?"</t>
         </is>
       </c>
       <c r="U34" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Objectives are not stated and evaluated in the simulation, but noted in the discussion</t>
         </is>
       </c>
       <c r="V34" s="5" t="inlineStr">
@@ -5635,7 +5665,7 @@
       </c>
       <c r="W34" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X34" s="5" t="inlineStr">
@@ -5643,39 +5673,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD34" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE34" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y34" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z34" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA34" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC34" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD34" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE34" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF34" s="6" t="inlineStr">
@@ -5690,11 +5720,11 @@
       </c>
       <c r="AH34" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI34" s="8" t="b">
-        <v>0</v>
+          <t>Seeminlgly this isn't really a MSE, in that objectives weren't established.  So seemingly, rather than develop objectives and use a simulation study to test their achievement, a simulation study was conducted, and some possible objectives are discussed after the results were determined.</t>
+        </is>
+      </c>
+      <c r="AI34" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
@@ -5713,68 +5743,68 @@
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Spanish mackerel (Scomberomorus Niphonius)</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
+          <t>China's Seas</t>
+        </is>
+      </c>
+      <c r="F35" s="7">
+        <v>33</v>
+      </c>
+      <c r="G35" s="7">
+        <v>124</v>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" s="8" t="b">
+          <t>Chinese Spanish mackerel fishery</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T35" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Not explicitly stated in article, my version, "What management procedure will best meet the management objectives of the Chinese spanish mackerel fishery given uncertainty in the natural mortality rate and the limit data available to assess the stock?"</t>
         </is>
       </c>
       <c r="U35" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Unstated, seemingly objectives were selected by the researchers from a set of available objectives in the DLMtoolkit.</t>
         </is>
       </c>
       <c r="V35" s="5" t="inlineStr">
@@ -5784,7 +5814,7 @@
       </c>
       <c r="W35" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X35" s="5" t="inlineStr">
@@ -5792,39 +5822,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD35" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE35" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y35" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z35" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA35" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC35" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD35" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE35" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF35" s="6" t="inlineStr">
@@ -5839,11 +5869,11 @@
       </c>
       <c r="AH35" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI35" s="8" t="b">
-        <v>0</v>
+          <t>While a prefered MP was selected, this selection is based on the authors inexplicit weighting of trade-offs, and an undocumented trade-off evaluation method.  This MSE relied on the previously developed options available in the R package DLMtoolkit.</t>
+        </is>
+      </c>
+      <c r="AI35" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
@@ -5862,68 +5892,68 @@
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Roundfish stocks: North Sea cod, haddock, saithe and whiting, northern and southern Atlantic hake, and eastern and western Baltic cod</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
+          <t>Northeast Atlantic</t>
+        </is>
+      </c>
+      <c r="F36" s="7">
+        <v>55</v>
+      </c>
+      <c r="G36" s="7">
+        <v>-22</v>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I36" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S36" s="8" t="b">
+          <t>Northeast Atlantic roundfish fishery</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T36" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>My version, "How does uncertainty effect the results of the ICES management proceedures?"</t>
         </is>
       </c>
       <c r="U36" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Not elicited, supplied by authors seemingly.</t>
         </is>
       </c>
       <c r="V36" s="5" t="inlineStr">
@@ -5933,7 +5963,7 @@
       </c>
       <c r="W36" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X36" s="5" t="inlineStr">
@@ -5941,39 +5971,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y36" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z36" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA36" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC36" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD36" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE36" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y36" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z36" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA36" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC36" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD36" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE36" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF36" s="6" t="inlineStr">
@@ -5988,11 +6018,11 @@
       </c>
       <c r="AH36" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI36" s="8" t="b">
-        <v>0</v>
+          <t>MSE in the sense that a simultion of the management system occurred, but seemingly no problem framing, objective elicitation, or alternative elicitation occurred.</t>
+        </is>
+      </c>
+      <c r="AI36" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
@@ -6011,68 +6041,68 @@
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Baltic Cod proxy</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
+          <t>Baltic Sea</t>
+        </is>
+      </c>
+      <c r="F37" s="7">
+        <v>59</v>
+      </c>
+      <c r="G37" s="7">
+        <v>20</v>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I37" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37" s="8" t="b">
+          <t>Generic ICES fishery, using Baltic Cod as example</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>Monitoring Methodology, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>My version, "what stock assessment methodology and harvest control rules best achieve the management objectives for a simulated ICES fishery?"</t>
         </is>
       </c>
       <c r="U37" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Not discussed.</t>
         </is>
       </c>
       <c r="V37" s="5" t="inlineStr">
@@ -6082,7 +6112,7 @@
       </c>
       <c r="W37" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="X37" s="5" t="inlineStr">
@@ -6090,39 +6120,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y37" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z37" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC37" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD37" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE37" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y37" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z37" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA37" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC37" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD37" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE37" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF37" s="6" t="inlineStr">
@@ -6137,11 +6167,11 @@
       </c>
       <c r="AH37" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI37" s="8" t="b">
-        <v>0</v>
+          <t>Simulation driving study and no discussion of the decision making preceedure was provided.  The authors ranked performance across all performance measures, applying equal weighting to each performance measure in their trade-off analysis.</t>
+        </is>
+      </c>
+      <c r="AI37" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
@@ -6160,68 +6190,69 @@
       </c>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>prawn</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
+          <t>Torres Straight</t>
+        </is>
+      </c>
+      <c r="F38" s="7">
+        <v>-10</v>
+      </c>
+      <c r="G38" s="7">
+        <v>142</v>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I38" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S38" s="8" t="b">
+          <t>Torres Straight prawn fishery</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>Allowable Catch Adjustment, Fishing Behavior, Species Interactions, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T38" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>The problem given by the authors is contained in this paragraph, "The trawling industry is now under pressure from community groups, local legislation and international certification, to ensure the conservation of the ecosystem as a whole. Furthermore, there is now increasing recognition from both the fishing industry and the fisheries managers that sustainable harvesting requires the preservation of both the target stocks and the ecosystem in which
+these resources are embedded. There is therefore a need for managers to understand the effects of their management actions on both the target stocks and the benthos."  My version, "What combination closures and effort restrictions will best achieve the fishing and benthic conservation objectives in the Torres Straight?"</t>
         </is>
       </c>
       <c r="U38" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Not discussed</t>
         </is>
       </c>
       <c r="V38" s="5" t="inlineStr">
@@ -6231,7 +6262,7 @@
       </c>
       <c r="W38" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X38" s="5" t="inlineStr">
@@ -6239,39 +6270,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y38" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z38" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA38" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC38" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD38" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE38" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y38" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z38" s="8" t="inlineStr">
+        <is>
+          <t>Decision Makers, Fishery, Government, Management, Public, Scientists</t>
+        </is>
+      </c>
+      <c r="AA38" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC38" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD38" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AE38" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF38" s="6" t="inlineStr">
@@ -6286,11 +6317,11 @@
       </c>
       <c r="AH38" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI38" s="8" t="b">
-        <v>0</v>
+          <t>A stakeholder process occurred as part of this MSE, but seemingingly it was a feedback process, not a proactive process.  At least, not problem defition or objective setting input is described.</t>
+        </is>
+      </c>
+      <c r="AI38" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
@@ -6309,68 +6340,69 @@
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>brown bear (Ursus arctos), Eurasian lynx (Lynx lynx), grey
+wolf (Canis lupus) and wolverine (Gulo gulo)</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
+          <t>Estonia, Latvia and Norway</t>
+        </is>
+      </c>
+      <c r="F39" s="7">
+        <v>62</v>
+      </c>
+      <c r="G39" s="7">
+        <v>9</v>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I39" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S39" s="8" t="b">
+          <t>European carnivore management</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>Implementation Uncertainty</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>My version, "What effect does implementation uncertainty have on the achievement of target harvest of european carnivores?"</t>
         </is>
       </c>
       <c r="U39" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>No objectives stated.</t>
         </is>
       </c>
       <c r="V39" s="5" t="inlineStr">
@@ -6380,7 +6412,7 @@
       </c>
       <c r="W39" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X39" s="5" t="inlineStr">
@@ -6388,39 +6420,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y39" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z39" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA39" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB39" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC39" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD39" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE39" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y39" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z39" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA39" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB39" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC39" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD39" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE39" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF39" s="6" t="inlineStr">
@@ -6435,11 +6467,11 @@
       </c>
       <c r="AH39" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI39" s="8" t="b">
-        <v>0</v>
+          <t>This was simulation study only, in that a decision was not clearly identified that relates to this study of implementation uncertainty.</t>
+        </is>
+      </c>
+      <c r="AI39" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
@@ -6458,68 +6490,68 @@
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>common coral trout (Plectropomus leopardus)</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
+          <t>Great Barrier Reef</t>
+        </is>
+      </c>
+      <c r="F40" s="7">
+        <v>-18</v>
+      </c>
+      <c r="G40" s="7">
+        <v>148</v>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I40" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S40" s="8" t="b">
+          <t>Great Barrier Reef coral reef fin fish fishery</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>Fishing Behavior</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T40" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>From authors, "We explored the effects of harvest-management systems in the form of ITQs and no-take areas on economic returns and biomass of coral trout with a model that simulates the metapopulation dynamics of coral trout and its harvest"  My version, "What combination of area closures and fishery regulations, either catch or effort limits, will produce the optimal economic return and fishery biomass?"</t>
         </is>
       </c>
       <c r="U40" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Not discussed</t>
         </is>
       </c>
       <c r="V40" s="5" t="inlineStr">
@@ -6529,7 +6561,7 @@
       </c>
       <c r="W40" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="X40" s="5" t="inlineStr">
@@ -6537,39 +6569,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y40" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z40" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA40" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB40" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC40" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD40" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE40" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y40" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z40" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA40" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB40" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC40" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD40" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE40" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF40" s="6" t="inlineStr">
@@ -6584,11 +6616,11 @@
       </c>
       <c r="AH40" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI40" s="8" t="b">
-        <v>0</v>
+          <t>No process discussion is presented by the authors.  Seemingly this was a scientist driven project without external input.  While an optimal alternative was not selected, as no weights were applied to the two objectives, the authors do note that a combination of a closure with an ITQ will out perform other options (competitive TAC, no closure).</t>
+        </is>
+      </c>
+      <c r="AI40" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
@@ -6607,68 +6639,68 @@
       </c>
       <c r="D41" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Red Grouper (Epinephelus morio)</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
+          <t>Gulf of Mexico</t>
+        </is>
+      </c>
+      <c r="F41" s="7">
+        <v>26</v>
+      </c>
+      <c r="G41" s="7">
+        <v>-90</v>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I41" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R41" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S41" s="8" t="b">
+          <t>Gulf of Mexico red grouper fishery</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>Environmental Conditions, Management Timeline, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>(1) “Does the existing GMFMC management approach need to be modified to achieve management objectives due to effects of episodic natural mortality events?”; and (2) “If modifications are considered, what are their effects on and trade-offs for maintaining sustainable fisheries?”</t>
         </is>
       </c>
       <c r="U41" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Not discussed</t>
         </is>
       </c>
       <c r="V41" s="5" t="inlineStr">
@@ -6678,7 +6710,7 @@
       </c>
       <c r="W41" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X41" s="5" t="inlineStr">
@@ -6686,39 +6718,39 @@
           <t/>
         </is>
       </c>
-      <c r="Y41" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z41" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC41" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD41" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE41" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y41" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z41" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA41" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC41" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD41" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE41" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF41" s="6" t="inlineStr">
@@ -6733,11 +6765,11 @@
       </c>
       <c r="AH41" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI41" s="8" t="b">
-        <v>0</v>
+          <t>No process discussion is presented.  Seemingly a scientist lead simulation study of the impacts of extreme natural mortality events and HCRs that are responsive to these effects.</t>
+        </is>
+      </c>
+      <c r="AI41" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
@@ -6746,78 +6778,78 @@
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Ives et. al.</t>
         </is>
       </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>eastern school prawn (Metapenaeus macleayi)</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
+          <t>Clarence River, New South Wales (NSW), Australia</t>
+        </is>
+      </c>
+      <c r="F42" s="7">
+        <v>-29</v>
+      </c>
+      <c r="G42" s="7">
+        <v>153</v>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I42" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S42" s="8" t="b">
+          <t>Clarence River eastern school prawn fishery</t>
+        </is>
+      </c>
+      <c r="I42" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change, Spatial Structure</t>
+        </is>
+      </c>
+      <c r="J42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9" t="b">
         <v>0</v>
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>What management strategy will best achieve Clarence River eastern school prawn fishery objectives given changes to river discharge resulting from future rainfall variability?</t>
         </is>
       </c>
       <c r="U42" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Unspecified.  The indicators aren't described prior to the results section</t>
         </is>
       </c>
       <c r="V42" s="5" t="inlineStr">
@@ -6827,7 +6859,7 @@
       </c>
       <c r="W42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Mental Analysis</t>
         </is>
       </c>
       <c r="X42" s="5" t="inlineStr">
@@ -6835,58 +6867,1400 @@
           <t/>
         </is>
       </c>
-      <c r="Y42" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z42" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA42" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB42" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC42" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD42" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE42" s="7" t="inlineStr">
-        <is>
-          <t/>
+      <c r="Y42" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z42" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AA42" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB42" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC42" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Management</t>
+        </is>
+      </c>
+      <c r="AD42" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE42" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF42" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Ives, M.C., Scandol, J.P., Montgomery, S.S. and Suthers, I.M., 2010. Modelling the possible effects of climate change on an Australian multi-fleet prawn fishery. Marine and Freshwater Research, 60(12), pp.1211-1222.</t>
         </is>
       </c>
       <c r="AG42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>10.1071/MF07110</t>
         </is>
       </c>
       <c r="AH42" s="6" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI42" s="8" t="b">
-        <v>0</v>
+          <t>No clear alternative was selected, but in the discussion the authors note that each of the management strategies evaluated perform similarly for the objectives considered. They note the absense of additional objectives that are likely important, such as cost, that would likley lead to selection of the status quo strategy.</t>
+        </is>
+      </c>
+      <c r="AI42" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>A'mar et. al.</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>Walleye pollock (Theragra chalcogramma)</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska</t>
+        </is>
+      </c>
+      <c r="F43" s="7">
+        <v>58</v>
+      </c>
+      <c r="G43" s="7">
+        <v>-144</v>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska Walleye pollock fishery</t>
+        </is>
+      </c>
+      <c r="I43" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="6" t="inlineStr">
+        <is>
+          <t>Which of two proposed management strategies will perform best given climate change impacts to the Gulf of Alaska walleye pollock fishery, and are the proposed management strategies robust to climate change impacts?</t>
+        </is>
+      </c>
+      <c r="U43" s="6" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V43" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W43" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X43" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y43" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z43" s="8" t="inlineStr">
+        <is>
+          <t>Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AA43" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="8" t="inlineStr">
+        <is>
+          <t>Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AC43" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD43" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE43" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF43" s="6" t="inlineStr">
+        <is>
+          <t>A’mar, Z.T., Punt, A.E. and Dorn, M.W., 2009. The evaluation of two management strategies for the Gulf of Alaska walleye pollock fishery under climate change. ICES Journal of Marine Science, 66(7), pp.1614-1632.</t>
+        </is>
+      </c>
+      <c r="AG43" s="5" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsp044</t>
+        </is>
+      </c>
+      <c r="AH43" s="6" t="inlineStr">
+        <is>
+          <t>The focus of this MSE is less on selecting a management procedure, and more on evaluating the implications of climate to management.</t>
+        </is>
+      </c>
+      <c r="AI43" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Brunel et al</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>herring (Clupea harengus), plaice (Pleuronectes platessa), and cod (Gadus morhua)</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>North Sea</t>
+        </is>
+      </c>
+      <c r="F44" s="7">
+        <v>57</v>
+      </c>
+      <c r="G44" s="7">
+        <v>4</v>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>North Sea fishery case studies</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" s="6" t="inlineStr">
+        <is>
+          <t>Study problem defintion:  Do environmentally responsive harvest control rules improve the achievement of management outcomes?  This study doesn't seem to be directly triggered by management questions, but a management focused wording of the problem would be something like:  What combination of harvest control rule definition and environmental resposiveness strategy will best achieve fishery management objectives?</t>
+        </is>
+      </c>
+      <c r="U44" s="6" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V44" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W44" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X44" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y44" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z44" s="8" t="inlineStr">
+        <is>
+          <t>Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AA44" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB44" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC44" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD44" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE44" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF44" s="6" t="inlineStr">
+        <is>
+          <t>Brunel, T., Piet, G.J., van Hal, R. and Röckmann, C., 2010. Performance of harvest control rules in a variable environment. ICES Journal of Marine Science, 67(5), pp.1051-1062.</t>
+        </is>
+      </c>
+      <c r="AG44" s="5" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsp297</t>
+        </is>
+      </c>
+      <c r="AH44" s="6" t="inlineStr">
+        <is>
+          <t>This is a simulation study for three case studies more than an effort to determine the optimal management strategy for a particular fishery.</t>
+        </is>
+      </c>
+      <c r="AI44" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Punt</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>Pacific ocean perch (S. alutus)</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>Northeast Pacific</t>
+        </is>
+      </c>
+      <c r="F45" s="7">
+        <v>47</v>
+      </c>
+      <c r="G45" s="7">
+        <v>-136</v>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>Pacific ocean perch fishery</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>As presented the problem definition would be: How well do current rebuilding plans, and plans that account for climate as a driver of stock status, perform given climate impacts?  That problem definition was not a decision question, but a research question.  A management question for this might be: "What means off account for climate best achieves the objectives of a fisheries rebuilding plan given climate uncertainty?"</t>
+        </is>
+      </c>
+      <c r="U45" s="6" t="inlineStr">
+        <is>
+          <t>Unspecified, but seemingly selected by author.</t>
+        </is>
+      </c>
+      <c r="V45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y45" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z45" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA45" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC45" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD45" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE45" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF45" s="6" t="inlineStr">
+        <is>
+          <t>Punt, A.E., 2011. The impact of climate change on the performance of rebuilding strategies for overfished groundfish species of the US west coast. Fisheries Research, 109(2-3), pp.320-329.</t>
+        </is>
+      </c>
+      <c r="AG45" s="5" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2011.02.019</t>
+        </is>
+      </c>
+      <c r="AH45" s="6" t="inlineStr">
+        <is>
+          <t>Simulation study without documentation of the decision making process.  MSE focused on rebuilding plans, so assumption of a stock starting below a target abundance with additional objectives related to recovery.</t>
+        </is>
+      </c>
+      <c r="AI45" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Wayte</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>Jackass morwong (Nemadactylus macropterus)</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>Southeastern Australia</t>
+        </is>
+      </c>
+      <c r="F46" s="7">
+        <v>-39</v>
+      </c>
+      <c r="G46" s="7">
+        <v>146</v>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>No problem definition is explicitly stated.  The closest statement in the journal article is: "Management strategy evaluation (MSE) is used to explore the implications of making management decisions under the wrong recruitment assumption."</t>
+        </is>
+      </c>
+      <c r="U46" s="6" t="inlineStr">
+        <is>
+          <t>Unspecified.  Those noted are based on government policy.</t>
+        </is>
+      </c>
+      <c r="V46" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W46" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X46" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y46" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z46" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA46" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB46" s="8" t="inlineStr">
+        <is>
+          <t>Government, Scientists</t>
+        </is>
+      </c>
+      <c r="AC46" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD46" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE46" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF46" s="6" t="inlineStr">
+        <is>
+          <t>Wayte, S.E., 2013. Management implications of including a climate-induced recruitment shift in the stock assessment for jackass morwong (Nemadactylus macropterus) in south-eastern Australia. Fisheries Research, 142, pp.47-55.</t>
+        </is>
+      </c>
+      <c r="AG46" s="5" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2012.07.009</t>
+        </is>
+      </c>
+      <c r="AH46" s="6" t="inlineStr">
+        <is>
+          <t>This is a simulation study without any reference to a decision making process.</t>
+        </is>
+      </c>
+      <c r="AI46" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Weijerman et al</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>coral ecosystem</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>Guam</t>
+        </is>
+      </c>
+      <c r="F47" s="7">
+        <v>13</v>
+      </c>
+      <c r="G47" s="7">
+        <v>145</v>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>Coral Reef based fisheries surround Guam</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change, Environmental Conditions, Habitat Change</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" s="6" t="inlineStr">
+        <is>
+          <t>My definition, "What management strategy will best achieve the management objectives for coral reef fisheries in guam given climate change and pollution impacts to coral reefs?"</t>
+        </is>
+      </c>
+      <c r="U47" s="6" t="inlineStr">
+        <is>
+          <t>a facilitated stakeholder meeting</t>
+        </is>
+      </c>
+      <c r="V47" s="5" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="W47" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X47" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y47" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z47" s="8" t="inlineStr">
+        <is>
+          <t>Facilitators, Fishery, Government, Independent, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AA47" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Government, Independent, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AB47" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC47" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Government, Independent, Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AD47" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE47" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF47" s="6" t="inlineStr">
+        <is>
+          <t>Weijerman, M., Fulton, E.A. and Brainard, R.E., 2016. Management strategy evaluation applied to coral reef ecosystems in support of ecosystem-based management. PLoS One, 11(3), p.e0152577.</t>
+        </is>
+      </c>
+      <c r="AG47" s="5" t="inlineStr">
+        <is>
+          <t>10.1371/journal.pone.0152577</t>
+        </is>
+      </c>
+      <c r="AH47" s="6" t="inlineStr">
+        <is>
+          <t>Stakeholders were included in this process, and there was some documentation of the process.  Additional documentation could have covered the development of the problem, roles, and the results of the visual trade-off evaluation.</t>
+        </is>
+      </c>
+      <c r="AI47" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Little and Lin</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>NA (beach management)</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>New South Wales, Australia</t>
+        </is>
+      </c>
+      <c r="F48" s="7">
+        <v>-33</v>
+      </c>
+      <c r="G48" s="7">
+        <v>152</v>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>New South Wales Beaches (not a fishery)</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>"Here, we focus on the adaptation option of coastal nourishment, where coastal land loss is combatted by replacing lost sand on the beach by pumping new sand (usually from offshore)." While the authors have a section title "defining the problem", it is a mainly summary of the system ending with the statement above.  My problem definition given the information provided by the authors would be: "What coastal management should be conducted to account for beach recession?"</t>
+        </is>
+      </c>
+      <c r="U48" s="6" t="inlineStr">
+        <is>
+          <t>They were not elicited, and were presumably provided by the authros.</t>
+        </is>
+      </c>
+      <c r="V48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W48" s="5" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="X48" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y48" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z48" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA48" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB48" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC48" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD48" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE48" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF48" s="6" t="inlineStr">
+        <is>
+          <t>Little, L.R. and Lin, B.B., 2017. A decision analysis approach to climate adaptation: a structured method to consider multiple options. Mitigation and adaptation strategies for global change, 22(1), pp.15-28.</t>
+        </is>
+      </c>
+      <c r="AG48" s="5" t="inlineStr">
+        <is>
+          <t>10.1007/s11027-015-9658-8</t>
+        </is>
+      </c>
+      <c r="AH48" s="6" t="inlineStr">
+        <is>
+          <t>This is not a fisheries decision, but a shoreline management decision.</t>
+        </is>
+      </c>
+      <c r="AI48" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Hofmann et al</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight</t>
+        </is>
+      </c>
+      <c r="F49" s="7">
+        <v>40</v>
+      </c>
+      <c r="G49" s="7">
+        <v>-73</v>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight surfclam fishery</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change, Migration</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>Not provided clearly by authors.  My definition, "How can surfclam be managed in a manner that accounts for known factors and impending climate change?"</t>
+        </is>
+      </c>
+      <c r="U49" s="6" t="inlineStr">
+        <is>
+          <t>None provided</t>
+        </is>
+      </c>
+      <c r="V49" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W49" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X49" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y49" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z49" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA49" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC49" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD49" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE49" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AF49" s="6" t="inlineStr">
+        <is>
+          <t>Hofmann, E.E., Powell, E.N., Klinck, J.M., Munroe, D.M., Mann, R., Haidvogel, D.B., NarvÁEz, D.A., Zhang, X. and Kuykendall, K.M., 2018. An Overview of Factors Affecting Distribution of the Atlantic Surfclam (Spisula solidissima), a Continental Shelf Biomass Dominant, During a Period of Climate Change. Journal of Shellfish Research, 37(4), pp.821-832.</t>
+        </is>
+      </c>
+      <c r="AG49" s="5" t="inlineStr">
+        <is>
+          <t>10.2983/035.037.0412</t>
+        </is>
+      </c>
+      <c r="AH49" s="6" t="inlineStr">
+        <is>
+          <t>Appartently an MSE was conducted, or is being conducted, but the objectives, and alternatives evaluated are not provided, only a conceptual model of the system is provided.</t>
+        </is>
+      </c>
+      <c r="AI49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Kuykendall et al</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight</t>
+        </is>
+      </c>
+      <c r="F50" s="7">
+        <v>40</v>
+      </c>
+      <c r="G50" s="7">
+        <v>-73</v>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight surfclam fishery</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change, Uncertainty</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>My summary, "What spatial management strategy will best achieve surfclam management objectives in the future in response to the projected influence climate change may have of stock abundance?"</t>
+        </is>
+      </c>
+      <c r="U50" s="6" t="inlineStr">
+        <is>
+          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel
+captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
+        </is>
+      </c>
+      <c r="V50" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W50" s="5" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="X50" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y50" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z50" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA50" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB50" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Scientists</t>
+        </is>
+      </c>
+      <c r="AC50" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD50" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE50" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF50" s="6" t="inlineStr">
+        <is>
+          <t>Kuykendall, K.M., Powell, E.N., Klinck, J.M., Moreno, P.T. and Leaf, R.T., 2019. The effect of abundance changes on a management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Ocean &amp; Coastal Management, 169, pp.68-85.</t>
+        </is>
+      </c>
+      <c r="AG50" s="5" t="inlineStr">
+        <is>
+          <t>10.1016/j.ocecoaman.2018.11.008</t>
+        </is>
+      </c>
+      <c r="AH50" s="6" t="inlineStr">
+        <is>
+          <t>Simulation model includes a model of fishing behavior.</t>
+        </is>
+      </c>
+      <c r="AI50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Ianelli et al</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>walleye pollock (Theragra chalcogramma)</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>Eastern Bering Sea</t>
+        </is>
+      </c>
+      <c r="F51" s="7">
+        <v>57</v>
+      </c>
+      <c r="G51" s="7">
+        <v>-165</v>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>Eastern Bering Sea pollock fishery</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>My summary, "What management proceedure will be achieve the pollock fisher management objectives given future climate change?"</t>
+        </is>
+      </c>
+      <c r="U51" s="6" t="inlineStr">
+        <is>
+          <t>Unspecified how objectives, or the weights applied to those objectives, were selected.</t>
+        </is>
+      </c>
+      <c r="V51" s="5" t="inlineStr">
+        <is>
+          <t>MCDA</t>
+        </is>
+      </c>
+      <c r="W51" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X51" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y51" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z51" s="8" t="inlineStr">
+        <is>
+          <t>Experts, Scientists</t>
+        </is>
+      </c>
+      <c r="AA51" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB51" s="8" t="inlineStr">
+        <is>
+          <t>Experts, Scientists</t>
+        </is>
+      </c>
+      <c r="AC51" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD51" s="8" t="inlineStr">
+        <is>
+          <t>Experts, Scientists</t>
+        </is>
+      </c>
+      <c r="AE51" s="8" t="inlineStr">
+        <is>
+          <t>Expert elicitation, Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF51" s="6" t="inlineStr">
+        <is>
+          <t>Ianelli, J.N., Hollowed, A.B., Haynie, A.C., Mueter, F.J. and Bond, N.A., 2011. Evaluating management strategies for eastern Bering Sea walleye pollock (Theragra chalcogramma) in a changing environment. ICES Journal of Marine Science, 68(6), pp.1297-1304.</t>
+        </is>
+      </c>
+      <c r="AG51" s="5" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsr010</t>
+        </is>
+      </c>
+      <c r="AH51" s="6" t="inlineStr">
+        <is>
+          <t>While Trade-offs were evaluated, the weights used were not elicited.  Authors note asking questions of experts, but it isn't clear who the experts are, or what questions they were asked.</t>
+        </is>
+      </c>
+      <c r="AI51" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DB files - Excel/tblStudy.xlsx
+++ b/DB files - Excel/tblStudy.xlsx
@@ -580,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -596,29 +596,29 @@
     <col customWidth="true" min="6" max="6" width="14.0625"/>
     <col customWidth="true" min="7" max="7" width="14.0625"/>
     <col customWidth="true" min="8" max="8" width="14.0625"/>
-    <col customWidth="true" min="9" max="9" width="14.0625"/>
-    <col customWidth="true" min="10" max="10" width="14.0625"/>
-    <col customWidth="true" min="11" max="11" width="14.0625"/>
-    <col customWidth="true" min="12" max="12" width="14.0625"/>
-    <col customWidth="true" min="13" max="13" width="14.0625"/>
-    <col customWidth="true" min="14" max="14" width="14.0625"/>
-    <col customWidth="true" min="15" max="15" width="14.0625"/>
-    <col customWidth="true" min="16" max="16" width="14.0625"/>
-    <col customWidth="true" min="17" max="17" width="14.0625"/>
-    <col customWidth="true" min="18" max="18" width="14.0625"/>
-    <col customWidth="true" min="19" max="19" width="14.0625"/>
-    <col customWidth="true" min="20" max="20" width="14.0625"/>
-    <col customWidth="true" min="21" max="21" width="14.0625"/>
-    <col customWidth="true" min="22" max="22" width="14.0625"/>
-    <col customWidth="true" min="23" max="23" width="14.0625"/>
-    <col customWidth="true" min="24" max="24" width="14.0625"/>
-    <col customWidth="true" min="25" max="25" width="14.0625"/>
-    <col customWidth="true" min="26" max="26" width="14.0625"/>
-    <col customWidth="true" min="27" max="27" width="14.0625"/>
-    <col customWidth="true" min="28" max="28" width="14.0625"/>
-    <col customWidth="true" min="29" max="29" width="14.0625"/>
-    <col customWidth="true" min="30" max="30" width="14.0625"/>
-    <col customWidth="true" min="31" max="31" width="14.0625"/>
+    <col customWidth="true" min="9" max="9" width="22.94921875"/>
+    <col customWidth="true" min="10" max="10" width="24.51171875"/>
+    <col customWidth="true" min="11" max="11" width="26.07421875"/>
+    <col customWidth="true" min="12" max="12" width="18.9453125"/>
+    <col customWidth="true" min="13" max="13" width="20.41015625"/>
+    <col customWidth="true" min="14" max="14" width="18.65234375"/>
+    <col customWidth="true" min="15" max="15" width="17.28515625"/>
+    <col customWidth="true" min="16" max="16" width="19.3359375"/>
+    <col customWidth="true" min="17" max="17" width="18.65234375"/>
+    <col customWidth="true" min="18" max="18" width="16.6015625"/>
+    <col customWidth="true" min="19" max="19" width="17.578125"/>
+    <col customWidth="true" min="20" max="20" width="18.45703125"/>
+    <col customWidth="true" min="21" max="21" width="34.1796875"/>
+    <col customWidth="true" min="22" max="22" width="22.94921875"/>
+    <col customWidth="true" min="23" max="23" width="23.046875"/>
+    <col customWidth="true" min="24" max="24" width="11.03515625"/>
+    <col customWidth="true" min="25" max="25" width="32.12890625"/>
+    <col customWidth="true" min="26" max="26" width="61.5234375"/>
+    <col customWidth="true" min="27" max="27" width="40.52734375"/>
+    <col customWidth="true" min="28" max="28" width="25.78125"/>
+    <col customWidth="true" min="29" max="29" width="35.15625"/>
+    <col customWidth="true" min="30" max="30" width="25.78125"/>
+    <col customWidth="true" min="31" max="31" width="23.4375"/>
     <col customWidth="true" min="32" max="32" width="14.0625"/>
     <col customWidth="true" min="33" max="33" width="14.0625"/>
     <col customWidth="true" min="34" max="34" width="14.0625"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="I2" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Allowable Catch Adjustment, Climate Change, Ecosystem Based Management, Environmental Conditions, Fishing Behavior, Habitat Change, Implementation Uncertainty, Landing Regulations, Management Timeline, Migration, Monitoring Methodology, Multiple Sectors in Fishery, Predation, Spatial Structure, Species Interactions, Stock Status, Uncertainty</t>
         </is>
       </c>
       <c r="J2" s="9" t="b">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="AA8" s="8" t="inlineStr">
         <is>
-          <t>Managers</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="AB8" s="8" t="inlineStr">
@@ -1847,64 +1847,64 @@
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>Cummings1</t>
+          <t>Williams et. al.</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Fisher</t>
+          <t>coral trout (Plectropomus spp.)</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Torres Strait, Australia</t>
         </is>
       </c>
       <c r="F9" s="7">
-        <v>43</v>
+        <v>-10</v>
       </c>
       <c r="G9" s="7">
-        <v>-73</v>
+        <v>142</v>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Vermont Furbearers</t>
+          <t>Torres Strait Finfish Fishery</t>
         </is>
       </c>
       <c r="I9" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Multiple Sectors in Fishery</t>
         </is>
       </c>
       <c r="J9" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="9" t="b">
         <v>1</v>
       </c>
       <c r="M9" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="9" t="b">
         <v>0</v>
@@ -1913,26 +1913,26 @@
         <v>0</v>
       </c>
       <c r="S9" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
         <is>
-          <t>Furbearer management</t>
+          <t>What management strategy from a set of area closures, seasonal closures, and minimum size limits (an effort proxy) will best achieve the harvest, conservation, and economic objectives of the indigenous and non-indigenous finfish fisheries in Torres Strait Australia?</t>
         </is>
       </c>
       <c r="U9" s="6" t="inlineStr">
         <is>
-          <t>One-on-one conversation with manager</t>
+          <t>Objectives were elicited in consultation with stakeholders.  While stakeholders are mentioned an explicit listing of the stakeholders involved in the objective stage and the methodology used to conduct the elicitation are not provided.</t>
         </is>
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>MCDA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X9" s="5" t="inlineStr">
@@ -1942,17 +1942,17 @@
       </c>
       <c r="Y9" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z9" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Decision Makers, Government, Management, Scientists</t>
+          <t>Facilitators, Fishery, Government, Management, Scientists</t>
         </is>
       </c>
       <c r="AA9" s="8" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Fishery, Government, Management</t>
         </is>
       </c>
       <c r="AB9" s="8" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="AC9" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Management</t>
+          <t>Fishery, Government, Management</t>
         </is>
       </c>
       <c r="AD9" s="8" t="inlineStr">
@@ -1972,88 +1972,89 @@
       </c>
       <c r="AE9" s="8" t="inlineStr">
         <is>
-          <t>Expert Elicitation, Simulation modeling</t>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF9" s="6" t="inlineStr">
         <is>
-          <t>Cummings1</t>
+          <t>Williams, A. J., Little, L. R., and Begg, G. A. 2011. Balancing indigenous and non-indigenous commercial objectives in a coral reef finfish fishery. –
+ICES Journal of Marine Science, 68: 834–847.</t>
         </is>
       </c>
       <c r="AG9" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>10.1093/icesjms/fsr034</t>
         </is>
       </c>
       <c r="AH9" s="6" t="inlineStr">
         <is>
-          <t>Not an MSE, just for prototyping the Shiny app</t>
+          <t>This MSE has an example of the downfall of setting target levels for objectives rather than using a max vs. min. approach because no strategies achieve the target.  The description of this MSE indicates that stakeholders were involved in the process, but the roles of the stakeholders, and a description of the process are not provided.  It is unclear who lead this MSE.  While the objectives are defined as target probabilities, the results are not presented this way.  They are presented in terms of the probability inputs.  No trade-off analysis occurred, so no optimal alternative is provided.  No decision or reporting of subsequent use of the analysis is documented.</t>
         </is>
       </c>
       <c r="AI9" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>Cummings2</t>
+          <t>Punt et. al.</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Sockeye</t>
+          <t>red king crab, Paralithodes camtschaticus</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Fraser River British Columbia</t>
+          <t>Bristol Bay, Alaska</t>
         </is>
       </c>
       <c r="F10" s="7">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7">
-        <v>-123</v>
+        <v>-161</v>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>Fraser River sockeye</t>
+          <t>Bristol Bay, Alaska Red King Crab</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J10" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9" t="b">
         <v>0</v>
       </c>
       <c r="N10" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9" t="b">
         <v>0</v>
@@ -2062,26 +2063,26 @@
         <v>0</v>
       </c>
       <c r="S10" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
-          <t>Which model to use for management adjustment</t>
+          <t>How large a buffer should be set on harvest levels for Red King crab in Bristol Bay, Alaska to account for uncertainty in the assessment of the available harvest?</t>
         </is>
       </c>
       <c r="U10" s="6" t="inlineStr">
         <is>
-          <t>Sample of likely management objectives supplied by decision analyst</t>
+          <t>They weren't.  The set of performance metrics were seemingly selected by the scientists conducting the evaluation.</t>
         </is>
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Visualization</t>
+          <t/>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X10" s="5" t="inlineStr">
@@ -2091,32 +2092,32 @@
       </c>
       <c r="Y10" s="8" t="inlineStr">
         <is>
-          <t>Independent, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z10" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Independent, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA10" s="8" t="inlineStr">
         <is>
-          <t>Analysts</t>
+          <t/>
         </is>
       </c>
       <c r="AB10" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC10" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Management, Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AD10" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE10" s="8" t="inlineStr">
@@ -2126,71 +2127,71 @@
       </c>
       <c r="AF10" s="6" t="inlineStr">
         <is>
-          <t>Cummings2</t>
+          <t>Punt, A. E., Siddeek, M. S. M., Garber-Yonts, B., Dalton, M., Rugolo, L., Stram, D., Turnock, B. J., and Zheng, J. 2012. Evaluating the impact of buffers to account for scientific uncertainty when setting TACs: application to red king crab in Bristol Bay, Alaska. – ICES Journal of Marine Science, 69: 624–634</t>
         </is>
       </c>
       <c r="AG10" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>10.1093/icesjms/fss047</t>
         </is>
       </c>
       <c r="AH10" s="6" t="inlineStr">
         <is>
-          <t>Not an MSE, just included for prototyping Shiny App</t>
+          <t>This article is not presented explicitly as a management strategy evaluation, but is discussed as being a management strategy evaluation minus a full operating model.  Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
       <c r="AI10" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Cummings3</t>
+          <t>Little et. al.</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>lesser prairie chicken</t>
+          <t>common coral trout (Plectropomus leopardus) and red throat emperor (Lethrinus miniatus)</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Southwestern USA</t>
+          <t>Great Barrier Reef, Australia</t>
         </is>
       </c>
       <c r="F11" s="7">
-        <v>37</v>
+        <v>-18</v>
       </c>
       <c r="G11" s="7">
-        <v>-101</v>
+        <v>148</v>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>Lesser prairie chicken</t>
+          <t>Great Barrier Reef Coral Reef Finfish Fishery</t>
         </is>
       </c>
       <c r="I11" s="8" t="inlineStr">
         <is>
-          <t>Climate Change, Habitat Change</t>
+          <t>Migration</t>
         </is>
       </c>
       <c r="J11" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9" t="b">
         <v>0</v>
@@ -2205,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9" t="b">
         <v>0</v>
@@ -2215,24 +2216,24 @@
       </c>
       <c r="T11" s="6" t="inlineStr">
         <is>
-          <t>What is LPC status with regards to the ESA</t>
+          <t>What is the effect of effort controls and area closures on the finfish fihery of the great barrier reef?</t>
         </is>
       </c>
       <c r="U11" s="6" t="inlineStr">
         <is>
-          <t>Facilitated meeting</t>
+          <t>It is unclear if there was any elicitation as there is not process documentation.</t>
         </is>
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="X11" s="5" t="inlineStr">
         <is>
           <t/>
@@ -2240,96 +2241,98 @@
       </c>
       <c r="Y11" s="8" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z11" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Experts, Facilitators, Government, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA11" s="8" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t/>
         </is>
       </c>
       <c r="AB11" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC11" s="8" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t/>
         </is>
       </c>
       <c r="AD11" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE11" s="8" t="inlineStr">
         <is>
-          <t>Expert Elicitation, Simulation modeling</t>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF11" s="6" t="inlineStr">
         <is>
-          <t>Cummings3</t>
+          <t>Little, L. R., Punt, A. E., Mapstone, B. D., Begg, G. A., Goldman, B., and Ellis, N. 2009. Different responses to area closures and effort controls for sedentary and migratory harvested species in a multispecies coral reef linefishery. – ICES Journal of Marine Science, 66: 1931–1941.</t>
         </is>
       </c>
       <c r="AG11" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>10.1093/icesjms/fsp164</t>
         </is>
       </c>
       <c r="AH11" s="6" t="inlineStr">
         <is>
-          <t>Not an MSE, included just for prototyping the Shiny App</t>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
       <c r="AI11" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>Williams et. al.</t>
+          <t>Klaer et. al.</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>coral trout (Plectropomus spp.)</t>
+          <t>tiger flathead (Neoplatycephalus richardsoni),
+jackass morwong (Nemadactylus macropterus), and
+school whiting (Sillago flindersi).</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Torres Strait, Australia</t>
+          <t>South eastern Australia</t>
         </is>
       </c>
       <c r="F12" s="7">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="G12" s="7">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>Torres Strait Finfish Fishery</t>
+          <t>Southern and Eastern Scalefish and Shark Fishery</t>
         </is>
       </c>
       <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>Multiple Sectors in Fishery</t>
+          <t>Stock Status</t>
         </is>
       </c>
       <c r="J12" s="9" t="b">
@@ -2339,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="9" t="b">
         <v>0</v>
@@ -2364,24 +2367,24 @@
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
-          <t>What management strategy from a set of area closures, seasonal closures, and minimum size limits (an effort proxy) will best achieve the harvest, conservation, and economic objectives of the indigenous and non-indigenous finfish fisheries in Torres Strait Australia?</t>
+          <t>Can harvest control rules updated based on changes to catch length achieve the management objectives of the Southern and Eastern Scalefish and Shark Fishery?</t>
         </is>
       </c>
       <c r="U12" s="6" t="inlineStr">
         <is>
-          <t>Objectives were elicited in consultation with stakeholders.  While stakeholders are mentioned an explicit listing of the stakeholders involved in the objective stage and the methodology used to conduct the elicitation are not provided.</t>
+          <t>While it is noted that management objectives for the fishery are defined by a government agency, it is unclear if the objectives used here are those objectives, or how those objectives were elicted.</t>
         </is>
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="W12" s="5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
       <c r="X12" s="5" t="inlineStr">
         <is>
           <t/>
@@ -2389,32 +2392,32 @@
       </c>
       <c r="Y12" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z12" s="8" t="inlineStr">
         <is>
-          <t>Facilitators, Fishery, Government, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA12" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government, Management</t>
+          <t/>
         </is>
       </c>
       <c r="AB12" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC12" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government, Management</t>
+          <t/>
         </is>
       </c>
       <c r="AD12" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE12" s="8" t="inlineStr">
@@ -2424,18 +2427,18 @@
       </c>
       <c r="AF12" s="6" t="inlineStr">
         <is>
-          <t>Williams, A. J., Little, L. R., and Begg, G. A. 2011. Balancing indigenous and non-indigenous commercial objectives in a coral reef finfish fishery. –
-ICES Journal of Marine Science, 68: 834–847.</t>
+          <t>Neil L. Klaer, Sally E. Wayte, Gavin Fay,
+An evaluation of the performance of a harvest strategy that uses an average-length-based assessment method. 2012. Fisheries Research, Volumes 134–136, Pages 42-51.</t>
         </is>
       </c>
       <c r="AG12" s="5" t="inlineStr">
         <is>
-          <t>10.1093/icesjms/fsr034</t>
+          <t>10.1016/j.fishres.2012.08.010</t>
         </is>
       </c>
       <c r="AH12" s="6" t="inlineStr">
         <is>
-          <t>This MSE has an example of the downfall of setting target levels for objectives rather than using a max vs. min. approach because no strategies achieve the target.  The description of this MSE indicates that stakeholders were involved in the process, but the roles of the stakeholders, and a description of the process are not provided.  It is unclear who lead this MSE.  While the objectives are defined as target probabilities, the results are not presented this way.  They are presented in terms of the probability inputs.  No trade-off analysis occurred, so no optimal alternative is provided.  No decision or reporting of subsequent use of the analysis is documented.</t>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
         </is>
       </c>
       <c r="AI12" s="9" t="b">
@@ -2444,42 +2447,42 @@
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>Punt et. al.</t>
+          <t>Curtis et. al.</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>red king crab, Paralithodes camtschaticus</t>
+          <t>Western Pacific Leatherback Turtles (Dermochelys coriacea)</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Bristol Bay, Alaska</t>
+          <t>U.S. West Coast EEZ</t>
         </is>
       </c>
       <c r="F13" s="7">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7">
-        <v>-161</v>
+        <v>-126</v>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>Bristol Bay, Alaska Red King Crab</t>
+          <t>California drift gillnet fishery</t>
         </is>
       </c>
       <c r="I13" s="8" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Monitoring Methodology</t>
         </is>
       </c>
       <c r="J13" s="9" t="b">
@@ -2514,12 +2517,12 @@
       </c>
       <c r="T13" s="6" t="inlineStr">
         <is>
-          <t>How large a buffer should be set on harvest levels for Red King crab in Bristol Bay, Alaska to account for uncertainty in the assessment of the available harvest?</t>
+          <t>What limit reference points in the California drift gillnet fishery will best achieve threshold management objectives for Western Pacific Leatherback Turtles?</t>
         </is>
       </c>
       <c r="U13" s="6" t="inlineStr">
         <is>
-          <t>They weren't.  The set of performance metrics were seemingly selected by the scientists conducting the evaluation.</t>
+          <t>Objectives weren't elicted.  They were selected by the scientists based on IUCN and ESA criteria.</t>
         </is>
       </c>
       <c r="V13" s="5" t="inlineStr">
@@ -2574,17 +2577,17 @@
       </c>
       <c r="AF13" s="6" t="inlineStr">
         <is>
-          <t>Punt, A. E., Siddeek, M. S. M., Garber-Yonts, B., Dalton, M., Rugolo, L., Stram, D., Turnock, B. J., and Zheng, J. 2012. Evaluating the impact of buffers to account for scientific uncertainty when setting TACs: application to red king crab in Bristol Bay, Alaska. – ICES Journal of Marine Science, 69: 624–634</t>
+          <t>Curtis KA, Moore JE, Benson SR (2015) Estimating Limit Reference Points for Western Pacific Leatherback Turtles (Dermochelys coriacea) in the U.S. West Coast EEZ. PLoS ONE 10(9): e0136452. https://doi.org/10.1371/journal.pone.0136452</t>
         </is>
       </c>
       <c r="AG13" s="5" t="inlineStr">
         <is>
-          <t>10.1093/icesjms/fss047</t>
+          <t>10.1371/journal.pone.0136452</t>
         </is>
       </c>
       <c r="AH13" s="6" t="inlineStr">
         <is>
-          <t>This article is not presented explicitly as a management strategy evaluation, but is discussed as being a management strategy evaluation minus a full operating model.  Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.  In addition, the analysis is disconnected from the system in which the decision is actually being made.  That is, rather than conduct a trade-off analysis on the harvest rate in the fishery that results in the optimal result there and for leatherbacks, acceptable leatherback status is feed into a decision making process for the fishery.  This treatment of these linked problems has built in objective weighting of the leatherback objectives by treating them as constraints.</t>
         </is>
       </c>
       <c r="AI13" s="9" t="b">
@@ -2593,55 +2596,55 @@
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>Little et. al.</t>
+          <t>Cox et al</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>common coral trout (Plectropomus leopardus) and red throat emperor (Lethrinus miniatus)</t>
+          <t>sablefish (Anoplopoma fimbria)</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Great Barrier Reef, Australia</t>
+          <t>British Columbia (Canada)</t>
         </is>
       </c>
       <c r="F14" s="7">
-        <v>-18</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7">
-        <v>148</v>
+        <v>-129</v>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>Great Barrier Reef Coral Reef Finfish Fishery</t>
+          <t>multi-fleet multi-gear sablefish (Anoplopoma fimbria) fishery in British Columbia (Canada)</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr">
         <is>
-          <t>Migration</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J14" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K14" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="9" t="b">
         <v>0</v>
@@ -2663,12 +2666,12 @@
       </c>
       <c r="T14" s="6" t="inlineStr">
         <is>
-          <t>What is the effect of effort controls and area closures on the finfish fihery of the great barrier reef?</t>
+          <t>Our specific objectives are to: (1) show how uncertainty in a complex stock assessment model leads to alternative BRPs and conservation objectives for the sablefish population, (2) use a closed-loop simulation model to compare how alternative operational control point choices affect management ability to meet conservation objectives defined by biological reference points, as well as short-term fishery economic objectives defined by stakeholders, and (3) test robustness of MPs under an unlikely, yet risky, population dynamics scenario.</t>
         </is>
       </c>
       <c r="U14" s="6" t="inlineStr">
         <is>
-          <t>It is unclear if there was any elicitation as there is not process documentation.</t>
+          <t>It is unclear if there was any elicitation as there is not documentation of the objective development process.</t>
         </is>
       </c>
       <c r="V14" s="5" t="inlineStr">
@@ -2678,7 +2681,7 @@
       </c>
       <c r="W14" s="5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="X14" s="5" t="inlineStr">
@@ -2693,7 +2696,7 @@
       </c>
       <c r="Z14" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AA14" s="8" t="inlineStr">
@@ -2703,17 +2706,17 @@
       </c>
       <c r="AB14" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AC14" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AD14" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AE14" s="8" t="inlineStr">
@@ -2723,17 +2726,17 @@
       </c>
       <c r="AF14" s="6" t="inlineStr">
         <is>
-          <t>Little, L. R., Punt, A. E., Mapstone, B. D., Begg, G. A., Goldman, B., and Ellis, N. 2009. Different responses to area closures and effort controls for sedentary and migratory harvested species in a multispecies coral reef linefishery. – ICES Journal of Marine Science, 66: 1931–1941.</t>
+          <t>Cox, S.P., Kronlund, A.R. and Benson, A.J., 2013. The roles of biological reference points and operational control points in management procedures for the sablefish (Anoplopoma fimbria) fishery in British Columbia, Canada. Environmental Conservation, 40(4), pp.318-328.</t>
         </is>
       </c>
       <c r="AG14" s="5" t="inlineStr">
         <is>
-          <t>10.1093/icesjms/fsp164</t>
+          <t>10.1017/S0376892913000271</t>
         </is>
       </c>
       <c r="AH14" s="6" t="inlineStr">
         <is>
-          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+          <t>This was one of many articles to come out of MSEs published by the same authors related to their work on BS sablefish.  The process was not fully documented here, apart from the alternatives selected in this study.  It is possible the process is more fully documented in earlier articles related to this fishery.</t>
         </is>
       </c>
       <c r="AI14" s="9" t="b">
@@ -2742,44 +2745,42 @@
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>Klaer et. al.</t>
+          <t>Punt and Hobday</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>tiger flathead (Neoplatycephalus richardsoni),
-jackass morwong (Nemadactylus macropterus), and
-school whiting (Sillago flindersi).</t>
+          <t>rock lobster (Jasus edwardsii)</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>South eastern Australia</t>
+          <t>Victoria, Australia</t>
         </is>
       </c>
       <c r="F15" s="7">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="G15" s="7">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>Southern and Eastern Scalefish and Shark Fishery</t>
+          <t>Victoria, Australia rock lobster fishery</t>
         </is>
       </c>
       <c r="I15" s="8" t="inlineStr">
         <is>
-          <t>Stock Status</t>
+          <t>Allowable Catch Adjustment, Spatial Structure, Uncertainty</t>
         </is>
       </c>
       <c r="J15" s="9" t="b">
@@ -2814,12 +2815,12 @@
       </c>
       <c r="T15" s="6" t="inlineStr">
         <is>
-          <t>Can harvest control rules updated based on changes to catch length achieve the management objectives of the Southern and Eastern Scalefish and Shark Fishery?</t>
+          <t>What spatial structure of stock assessments and management strategies will best achieve the management objectives for Rock lobster off of Victoria Australia?</t>
         </is>
       </c>
       <c r="U15" s="6" t="inlineStr">
         <is>
-          <t>While it is noted that management objectives for the fishery are defined by a government agency, it is unclear if the objectives used here are those objectives, or how those objectives were elicted.</t>
+          <t>Unknown, no documentation of the process for objective determination</t>
         </is>
       </c>
       <c r="V15" s="5" t="inlineStr">
@@ -2854,7 +2855,7 @@
       </c>
       <c r="AB15" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AC15" s="8" t="inlineStr">
@@ -2874,18 +2875,19 @@
       </c>
       <c r="AF15" s="6" t="inlineStr">
         <is>
-          <t>Neil L. Klaer, Sally E. Wayte, Gavin Fay,
-An evaluation of the performance of a harvest strategy that uses an average-length-based assessment method. 2012. Fisheries Research, Volumes 134–136, Pages 42-51.</t>
+          <t>André E. Punt &amp; David Hobday (2009) Management strategy evaluation
+for rock lobster, Jasus_x0001_edwardsii, off Victoria, Australia: Accounting for uncertainty in stock
+structure, New Zealand Journal of Marine and Freshwater Research, 43:1, 485-509</t>
         </is>
       </c>
       <c r="AG15" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2012.08.010</t>
+          <t>10.1080/00288330909510017</t>
         </is>
       </c>
       <c r="AH15" s="6" t="inlineStr">
         <is>
-          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+          <t>MSE focused on the spatial scale of stock assessments and management.  The results indicate that for the objectives considered a smaller spatial scale is best.  However, they note this approach is not feasible, so management cost objectives were clearly lacking.  No process documentation is included in the article.</t>
         </is>
       </c>
       <c r="AI15" s="9" t="b">
@@ -2894,42 +2896,42 @@
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>Curtis et. al.</t>
+          <t>Dichmont et. al.</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>Western Pacific Leatherback Turtles (Dermochelys coriacea)</t>
+          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus), endeavour prawn (Metapenaeus endeavouri and M. ensis) and their ecosystem</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>U.S. West Coast EEZ</t>
+          <t>Northern Australia</t>
         </is>
       </c>
       <c r="F16" s="7">
-        <v>40</v>
+        <v>-13</v>
       </c>
       <c r="G16" s="7">
-        <v>-126</v>
+        <v>139</v>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>California drift gillnet fishery</t>
+          <t>Northern Australia prawn fishery</t>
         </is>
       </c>
       <c r="I16" s="8" t="inlineStr">
         <is>
-          <t>Monitoring Methodology</t>
+          <t>Ecosystem Based Management, Spatial Structure</t>
         </is>
       </c>
       <c r="J16" s="9" t="b">
@@ -2964,12 +2966,12 @@
       </c>
       <c r="T16" s="6" t="inlineStr">
         <is>
-          <t>What limit reference points in the California drift gillnet fishery will best achieve threshold management objectives for Western Pacific Leatherback Turtles?</t>
+          <t>What spatial closure plan will best achieve the objectives for management of the ecosystem and prawn fishery occuring in northern Australia?</t>
         </is>
       </c>
       <c r="U16" s="6" t="inlineStr">
         <is>
-          <t>Objectives weren't elicted.  They were selected by the scientists based on IUCN and ESA criteria.</t>
+          <t>Undocumented.  Also, many of the performance measure are not associated with a desired status, and result in double (or more) counting.</t>
         </is>
       </c>
       <c r="V16" s="5" t="inlineStr">
@@ -3024,17 +3026,17 @@
       </c>
       <c r="AF16" s="6" t="inlineStr">
         <is>
-          <t>Curtis KA, Moore JE, Benson SR (2015) Estimating Limit Reference Points for Western Pacific Leatherback Turtles (Dermochelys coriacea) in the U.S. West Coast EEZ. PLoS ONE 10(9): e0136452. https://doi.org/10.1371/journal.pone.0136452</t>
+          <t>Dichmont, C.M., Ellis, N., Bustamante, R.H., Deng, R., Tickell, S., Pascual, R., Lozano‐Montes, H. and Griffiths, S., 2013. EDITOR'S CHOICE: Evaluating marine spatial closures with conflicting fisheries and conservation objectives. Journal of Applied Ecology, 50(4), pp.1060-1070.</t>
         </is>
       </c>
       <c r="AG16" s="5" t="inlineStr">
         <is>
-          <t>10.1371/journal.pone.0136452</t>
+          <t>10.1111/1365-2664.12110</t>
         </is>
       </c>
       <c r="AH16" s="6" t="inlineStr">
         <is>
-          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.  In addition, the analysis is disconnected from the system in which the decision is actually being made.  That is, rather than conduct a trade-off analysis on the harvest rate in the fishery that results in the optimal result there and for leatherbacks, acceptable leatherback status is feed into a decision making process for the fishery.  This treatment of these linked problems has built in objective weighting of the leatherback objectives by treating them as constraints.</t>
+          <t>The objectives for this study are a mess.  There is a substantial degree of overlap between performance measures, and in many cases it is unclear what the motivation for a performance measure is.  There is no documentation of interation with stakeholders and this appears to be primarily a simulation study.</t>
         </is>
       </c>
       <c r="AI16" s="9" t="b">
@@ -3043,55 +3045,55 @@
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>Cox et al</t>
+          <t>Prellezo et. al.</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>sablefish (Anoplopoma fimbria)</t>
+          <t>Megrim (Lepidorhombus whiffiagonis), Hake (Merluccius merluccius), Black anglerfish (Lophius budegassa), White anglerfish (Lophius piscatorius), Western Horse mackeral (Trachurus trachurus), Mackeral (Scomber scombrus), Blue whiting (Micromesistius poutassou), Rays (Leucoraja naevus), Inshore squids (Loliginidae, Seabass (Dicentrarchus labrax), Cuttlefishes and bobtail squids (Sepiidae, Sepiolidae), Red mullet (Mullus surmuletus)</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>British Columbia (Canada)</t>
+          <t>Bay of Biscay</t>
         </is>
       </c>
       <c r="F17" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7">
-        <v>-129</v>
+        <v>-3</v>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>multi-fleet multi-gear sablefish (Anoplopoma fimbria) fishery in British Columbia (Canada)</t>
+          <t>Bay of Biscay trawl fishery</t>
         </is>
       </c>
       <c r="I17" s="8" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Landing Regulations</t>
         </is>
       </c>
       <c r="J17" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M17" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="9" t="b">
         <v>0</v>
@@ -3113,12 +3115,12 @@
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
-          <t>Our specific objectives are to: (1) show how uncertainty in a complex stock assessment model leads to alternative BRPs and conservation objectives for the sablefish population, (2) use a closed-loop simulation model to compare how alternative operational control point choices affect management ability to meet conservation objectives defined by biological reference points, as well as short-term fishery economic objectives defined by stakeholders, and (3) test robustness of MPs under an unlikely, yet risky, population dynamics scenario.</t>
+          <t>What effect with a landing obligation, and some limited exceptions, have on the Bay of Biscay trawl fishery?</t>
         </is>
       </c>
       <c r="U17" s="6" t="inlineStr">
         <is>
-          <t>It is unclear if there was any elicitation as there is not documentation of the objective development process.</t>
+          <t>Objectives and performance measures are not documented and can only be extrapolated from the results.</t>
         </is>
       </c>
       <c r="V17" s="5" t="inlineStr">
@@ -3128,7 +3130,7 @@
       </c>
       <c r="W17" s="5" t="inlineStr">
         <is>
-          <t>Visualization</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X17" s="5" t="inlineStr">
@@ -3143,7 +3145,7 @@
       </c>
       <c r="Z17" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA17" s="8" t="inlineStr">
@@ -3153,17 +3155,17 @@
       </c>
       <c r="AB17" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AC17" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AD17" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE17" s="8" t="inlineStr">
@@ -3173,17 +3175,17 @@
       </c>
       <c r="AF17" s="6" t="inlineStr">
         <is>
-          <t>Cox, S.P., Kronlund, A.R. and Benson, A.J., 2013. The roles of biological reference points and operational control points in management procedures for the sablefish (Anoplopoma fimbria) fishery in British Columbia, Canada. Environmental Conservation, 40(4), pp.318-328.</t>
+          <t>Prellezo, R., Carmona, I. and García, D., 2016. The bad, the good and the very good of the landing obligation implementation in the Bay of Biscay: A case study of Basque trawlers. Fisheries Research, 181, pp.172-185.</t>
         </is>
       </c>
       <c r="AG17" s="5" t="inlineStr">
         <is>
-          <t>10.1017/S0376892913000271</t>
+          <t>10.1016/j.fishres.2016.04.016</t>
         </is>
       </c>
       <c r="AH17" s="6" t="inlineStr">
         <is>
-          <t>This was one of many articles to come out of MSEs published by the same authors related to their work on BS sablefish.  The process was not fully documented here, apart from the alternatives selected in this study.  It is possible the process is more fully documented in earlier articles related to this fishery.</t>
+          <t>This study was difficult to follow because it was seemingly written by an english as a second language writer, and the performance metrics weren't specified separately from the results.  Presented as a simulation study without connection to a decision process.</t>
         </is>
       </c>
       <c r="AI17" s="9" t="b">
@@ -3192,42 +3194,42 @@
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>Punt and Hobday</t>
+          <t>Dichmont et. al.</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>rock lobster (Jasus edwardsii)</t>
+          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus)</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Victoria, Australia</t>
+          <t>Northern Australia</t>
         </is>
       </c>
       <c r="F18" s="7">
-        <v>-39</v>
+        <v>-13</v>
       </c>
       <c r="G18" s="7">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>Victoria, Australia rock lobster fishery</t>
+          <t>Northern Australia prawn fishery</t>
         </is>
       </c>
       <c r="I18" s="8" t="inlineStr">
         <is>
-          <t>Allowable Catch Adjustment, Spatial Structure, Uncertainty</t>
+          <t>Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
       <c r="J18" s="9" t="b">
@@ -3262,12 +3264,12 @@
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
-          <t>What spatial structure of stock assessments and management strategies will best achieve the management objectives for Rock lobster off of Victoria Australia?</t>
+          <t>What uncertainties are most influential to the achievement of fishery objectives in the Autralian northern prawn fishery?</t>
         </is>
       </c>
       <c r="U18" s="6" t="inlineStr">
         <is>
-          <t>Unknown, no documentation of the process for objective determination</t>
+          <t>Seemingly governmentally established reference points were translated into performance measures by the scientists.</t>
         </is>
       </c>
       <c r="V18" s="5" t="inlineStr">
@@ -3302,7 +3304,7 @@
       </c>
       <c r="AB18" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC18" s="8" t="inlineStr">
@@ -3322,19 +3324,17 @@
       </c>
       <c r="AF18" s="6" t="inlineStr">
         <is>
-          <t>André E. Punt &amp; David Hobday (2009) Management strategy evaluation
-for rock lobster, Jasus_x0001_edwardsii, off Victoria, Australia: Accounting for uncertainty in stock
-structure, New Zealand Journal of Marine and Freshwater Research, 43:1, 485-509</t>
+          <t>Dichmont, C.M., Deng, A.R., Punt, A.E., Venables, W. and Haddon, M., 2006. Management strategies for short lived species: The case of Australia's Northern Prawn Fishery: 3. Factors affecting management and estimation performance. Fisheries Research, 82(1-3), pp.235-245.</t>
         </is>
       </c>
       <c r="AG18" s="5" t="inlineStr">
         <is>
-          <t>10.1080/00288330909510017</t>
+          <t>10.1016/j.fishres.2006.06.008</t>
         </is>
       </c>
       <c r="AH18" s="6" t="inlineStr">
         <is>
-          <t>MSE focused on the spatial scale of stock assessments and management.  The results indicate that for the objectives considered a smaller spatial scale is best.  However, they note this approach is not feasible, so management cost objectives were clearly lacking.  No process documentation is included in the article.</t>
+          <t>This is more of a value of information analysis than a management strategy evaluation, except without presenting the results in a VoI framework.  Put another way, this was a sensitivity analysis.</t>
         </is>
       </c>
       <c r="AI18" s="9" t="b">
@@ -3343,11 +3343,11 @@
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>Dichmont et. al.</t>
+          <t>Plagányi et. al.</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
@@ -3357,28 +3357,28 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus), endeavour prawn (Metapenaeus endeavouri and M. ensis) and their ecosystem</t>
+          <t>sandfish, black teatfish, surf redfish, white teatfish, deepwater redfish, hairy blackfish (Actinopyga miliaris), prickly redfish (Thelenota ananas), leopardfish (Bohadschia argus)</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Northern Australia</t>
+          <t>Torres Strait</t>
         </is>
       </c>
       <c r="F19" s="7">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="G19" s="7">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>Northern Australia prawn fishery</t>
+          <t>Torres Strait Sea cucumber fishery</t>
         </is>
       </c>
       <c r="I19" s="8" t="inlineStr">
         <is>
-          <t>Ecosystem Based Management, Spatial Structure</t>
+          <t>Climate Change, Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
       <c r="J19" s="9" t="b">
@@ -3413,12 +3413,12 @@
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
-          <t>What spatial closure plan will best achieve the objectives for management of the ecosystem and prawn fishery occuring in northern Australia?</t>
+          <t>How will climate change, management strategy, and monitoring influence the status of the Torres Strait Sea cucumber fishery?</t>
         </is>
       </c>
       <c r="U19" s="6" t="inlineStr">
         <is>
-          <t>Undocumented.  Also, many of the performance measure are not associated with a desired status, and result in double (or more) counting.</t>
+          <t>They were not, the scientists selected objectives, and a separate set of performance measures.</t>
         </is>
       </c>
       <c r="V19" s="5" t="inlineStr">
@@ -3468,22 +3468,22 @@
       </c>
       <c r="AE19" s="8" t="inlineStr">
         <is>
-          <t>Simulation modeling</t>
+          <t>Expert Elicitation, Simulation modeling</t>
         </is>
       </c>
       <c r="AF19" s="6" t="inlineStr">
         <is>
-          <t>Dichmont, C.M., Ellis, N., Bustamante, R.H., Deng, R., Tickell, S., Pascual, R., Lozano‐Montes, H. and Griffiths, S., 2013. EDITOR'S CHOICE: Evaluating marine spatial closures with conflicting fisheries and conservation objectives. Journal of Applied Ecology, 50(4), pp.1060-1070.</t>
+          <t>Plagányi, É.E., Skewes, T.D., Dowling, N.A. and Haddon, M., 2013. Risk management tools for sustainable fisheries management under changing climate: a sea cucumber example. Climatic Change, 119(1), pp.181-197.</t>
         </is>
       </c>
       <c r="AG19" s="5" t="inlineStr">
         <is>
-          <t>10.1111/1365-2664.12110</t>
+          <t>10.1007/s10584-012-0596-0</t>
         </is>
       </c>
       <c r="AH19" s="6" t="inlineStr">
         <is>
-          <t>The objectives for this study are a mess.  There is a substantial degree of overlap between performance measures, and in many cases it is unclear what the motivation for a performance measure is.  There is no documentation of interation with stakeholders and this appears to be primarily a simulation study.</t>
+          <t>Odd that the performance measures selected do not correspond with the objective set developed.  Simulation study only</t>
         </is>
       </c>
       <c r="AI19" s="9" t="b">
@@ -3492,42 +3492,42 @@
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Prellezo et. al.</t>
+          <t>Wiedenmann et. al.</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>Megrim (Lepidorhombus whiffiagonis), Hake (Merluccius merluccius), Black anglerfish (Lophius budegassa), White anglerfish (Lophius piscatorius), Western Horse mackeral (Trachurus trachurus), Mackeral (Scomber scombrus), Blue whiting (Micromesistius poutassou), Rays (Leucoraja naevus), Inshore squids (Loliginidae, Seabass (Dicentrarchus labrax), Cuttlefishes and bobtail squids (Sepiidae, Sepiolidae), Red mullet (Mullus surmuletus)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Bay of Biscay</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F20" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>Bay of Biscay trawl fishery</t>
+          <t>Simulated fishery in U.S.</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
         <is>
-          <t>Landing Regulations</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J20" s="9" t="b">
@@ -3562,12 +3562,12 @@
       </c>
       <c r="T20" s="6" t="inlineStr">
         <is>
-          <t>What effect with a landing obligation, and some limited exceptions, have on the Bay of Biscay trawl fishery?</t>
+          <t>How effective are various approaches to setting acceptable biological catch at avoiding overfishing resulting from assessment uncertainty?</t>
         </is>
       </c>
       <c r="U20" s="6" t="inlineStr">
         <is>
-          <t>Objectives and performance measures are not documented and can only be extrapolated from the results.</t>
+          <t>Simulation study without stakeholder input</t>
         </is>
       </c>
       <c r="V20" s="5" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="AB20" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC20" s="8" t="inlineStr">
@@ -3622,17 +3622,17 @@
       </c>
       <c r="AF20" s="6" t="inlineStr">
         <is>
-          <t>Prellezo, R., Carmona, I. and García, D., 2016. The bad, the good and the very good of the landing obligation implementation in the Bay of Biscay: A case study of Basque trawlers. Fisheries Research, 181, pp.172-185.</t>
+          <t>Wiedenmann, J., Wilberg, M., Sylvia, A. and Miller, T., 2016. An evaluation of acceptable biological catch (ABC) harvest control rules designed to limit overfishing. Canadian Journal of Fisheries and Aquatic Sciences, 74(7), pp.1028-1040.</t>
         </is>
       </c>
       <c r="AG20" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2016.04.016</t>
+          <t>10.1139/cjfas-2016-0381</t>
         </is>
       </c>
       <c r="AH20" s="6" t="inlineStr">
         <is>
-          <t>This study was difficult to follow because it was seemingly written by an english as a second language writer, and the performance metrics weren't specified separately from the results.  Presented as a simulation study without connection to a decision process.</t>
+          <t>A simlulation study, not tied to any particular fishery.</t>
         </is>
       </c>
       <c r="AI20" s="9" t="b">
@@ -3641,64 +3641,64 @@
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>Dichmont et. al.</t>
+          <t>Smith et. al.</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus)</t>
+          <t>horseshoe crabs (Limulus polyphemus), red knots (Calidris canutus rufa)</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Northern Australia</t>
+          <t>Delaware Bay</t>
         </is>
       </c>
       <c r="F21" s="7">
-        <v>-13</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7">
-        <v>139</v>
+        <v>-75</v>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>Northern Australia prawn fishery</t>
+          <t>Delaware Bay Horsewhoe crab fishery</t>
         </is>
       </c>
       <c r="I21" s="8" t="inlineStr">
         <is>
-          <t>Monitoring Methodology, Uncertainty</t>
+          <t>Allowable Catch Adjustment, Monitoring Methodology, Species Interactions, Uncertainty</t>
         </is>
       </c>
       <c r="J21" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="9" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="9" t="b">
         <v>0</v>
@@ -3711,22 +3711,22 @@
       </c>
       <c r="T21" s="6" t="inlineStr">
         <is>
-          <t>What uncertainties are most influential to the achievement of fishery objectives in the Autralian northern prawn fishery?</t>
+          <t>How to sustainably harvest [horseshoe crabs in Delaware Bay], including moratoria, given multispecies objectives?</t>
         </is>
       </c>
       <c r="U21" s="6" t="inlineStr">
         <is>
-          <t>Seemingly governmentally established reference points were translated into performance measures by the scientists.</t>
+          <t>Through consultations and public meetings with managers and stakeholders with additional input from scientific experts on sex ratio and carrying capacity.  While the objective function is reported, the full steps taken to produce it aren't explicit.</t>
         </is>
       </c>
       <c r="V21" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>MCDA</t>
         </is>
       </c>
       <c r="W21" s="5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t/>
         </is>
       </c>
       <c r="X21" s="5" t="inlineStr">
@@ -3741,47 +3741,47 @@
       </c>
       <c r="Z21" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Analysts, Decision Makers, Experts, Facilitators, Fishery, Government, Management, Scientists</t>
         </is>
       </c>
       <c r="AA21" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Analysts, Fishery, Management, Scientists</t>
         </is>
       </c>
       <c r="AB21" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AC21" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Analysts, Fishery, Management</t>
         </is>
       </c>
       <c r="AD21" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AE21" s="8" t="inlineStr">
         <is>
-          <t>Simulation modeling</t>
+          <t>Dynamic programming, Simulation modeling</t>
         </is>
       </c>
       <c r="AF21" s="6" t="inlineStr">
         <is>
-          <t>Dichmont, C.M., Deng, A.R., Punt, A.E., Venables, W. and Haddon, M., 2006. Management strategies for short lived species: The case of Australia's Northern Prawn Fishery: 3. Factors affecting management and estimation performance. Fisheries Research, 82(1-3), pp.235-245.</t>
+          <t>Smith, D.R., McGowan, C.P., Daily, J.P., Nichols, J.D., Sweka, J.A. and Lyons, J.E., 2013. Evaluating a multispecies adaptive management framework: must uncertainty impede effective decision‐making?. Journal of Applied Ecology, 50(6), pp.1431-1440.</t>
         </is>
       </c>
       <c r="AG21" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2006.06.008</t>
+          <t>10.1111/1365-2664.12145</t>
         </is>
       </c>
       <c r="AH21" s="6" t="inlineStr">
         <is>
-          <t>This is more of a value of information analysis than a management strategy evaluation, except without presenting the results in a VoI framework.  Put another way, this was a sensitivity analysis.</t>
+          <t>Study combines active adaptive management with management strategy evaluation.  Documentation of the process is not particularly detailed as presented here, but that stakeholder elicitiation occurred is documented. A value of information analysis was conducted in addition to the MSE.</t>
         </is>
       </c>
       <c r="AI21" s="9" t="b">
@@ -3790,42 +3790,42 @@
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>Plagányi et. al.</t>
+          <t>Wetzel and Punt</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>sandfish, black teatfish, surf redfish, white teatfish, deepwater redfish, hairy blackfish (Actinopyga miliaris), prickly redfish (Thelenota ananas), leopardfish (Bohadschia argus)</t>
+          <t>NA, two generic simulated species (flathish and rockfish)</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Torres Strait</t>
+          <t>United States West Coast</t>
         </is>
       </c>
       <c r="F22" s="7">
-        <v>-10</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7">
-        <v>144</v>
+        <v>-125</v>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>Torres Strait Sea cucumber fishery</t>
+          <t>US west coast groundfish</t>
         </is>
       </c>
       <c r="I22" s="8" t="inlineStr">
         <is>
-          <t>Climate Change, Monitoring Methodology, Uncertainty</t>
+          <t>Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
       <c r="J22" s="9" t="b">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="T22" s="6" t="inlineStr">
         <is>
-          <t>How will climate change, management strategy, and monitoring influence the status of the Torres Strait Sea cucumber fishery?</t>
+          <t>What are the impacts of monitoring method and stock assessment approachs associated with those methods to assessment performance?</t>
         </is>
       </c>
       <c r="U22" s="6" t="inlineStr">
         <is>
-          <t>They were not, the scientists selected objectives, and a separate set of performance measures.</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V22" s="5" t="inlineStr">
@@ -3915,22 +3915,22 @@
       </c>
       <c r="AE22" s="8" t="inlineStr">
         <is>
-          <t>Expert Elicitation, Simulation modeling</t>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF22" s="6" t="inlineStr">
         <is>
-          <t>Plagányi, É.E., Skewes, T.D., Dowling, N.A. and Haddon, M., 2013. Risk management tools for sustainable fisheries management under changing climate: a sea cucumber example. Climatic Change, 119(1), pp.181-197.</t>
+          <t>Wetzel, C.R. and Punt, A.E., 2015. Evaluating the performance of data-moderate and catch-only assessment methods for US west coast groundfish. Fisheries research, 171, pp.170-187.</t>
         </is>
       </c>
       <c r="AG22" s="5" t="inlineStr">
         <is>
-          <t>10.1007/s10584-012-0596-0</t>
+          <t>10.1016/j.fishres.2015.06.005</t>
         </is>
       </c>
       <c r="AH22" s="6" t="inlineStr">
         <is>
-          <t>Odd that the performance measures selected do not correspond with the objective set developed.  Simulation study only</t>
+          <t>Simulation analysis seemingly unassociated with fishery problem development.  Monitoring methodology problem that did not take a VoI approach, or incorporate objectives beyond those related to estimation error.</t>
         </is>
       </c>
       <c r="AI22" s="9" t="b">
@@ -3939,42 +3939,42 @@
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>Wiedenmann et. al.</t>
+          <t>Bastardie et. al.</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>eastern Baltic cod (Gadus morhua)</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Baltic Sea</t>
         </is>
       </c>
       <c r="F23" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>Simulated fishery in U.S.</t>
+          <t>Baltic Cod fishery</t>
         </is>
       </c>
       <c r="I23" s="8" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Environmental Conditions, Fishing Behavior</t>
         </is>
       </c>
       <c r="J23" s="9" t="b">
@@ -4009,12 +4009,12 @@
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
-          <t>How effective are various approaches to setting acceptable biological catch at avoiding overfishing resulting from assessment uncertainty?</t>
+          <t>How will the recovery of Baltic cod be influenced by catch limit versus effort limit regulations, environmental conditions, and fleet behavior?</t>
         </is>
       </c>
       <c r="U23" s="6" t="inlineStr">
         <is>
-          <t>Simulation study without stakeholder input</t>
+          <t>Unspecified.  Figures display more performance measures than described in the text.  Only those mentioned in the text are listed.</t>
         </is>
       </c>
       <c r="V23" s="5" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="Y23" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z23" s="8" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AD23" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="AE23" s="8" t="inlineStr">
@@ -4069,17 +4069,17 @@
       </c>
       <c r="AF23" s="6" t="inlineStr">
         <is>
-          <t>Wiedenmann, J., Wilberg, M., Sylvia, A. and Miller, T., 2016. An evaluation of acceptable biological catch (ABC) harvest control rules designed to limit overfishing. Canadian Journal of Fisheries and Aquatic Sciences, 74(7), pp.1028-1040.</t>
+          <t>Francois Bastardie, J. Rasmus Nielsen, Gerd Kraus; The eastern Baltic cod fishery: a fleet-based management strategy evaluation framework to assess the cod recovery plan of 2008, ICES Journal of Marine Science, Volume 67, Issue 1, 1 January 2010, Pages 71–86</t>
         </is>
       </c>
       <c r="AG23" s="5" t="inlineStr">
         <is>
-          <t>10.1139/cjfas-2016-0381</t>
+          <t>10.1093/icesjms/fsp228</t>
         </is>
       </c>
       <c r="AH23" s="6" t="inlineStr">
         <is>
-          <t>A simlulation study, not tied to any particular fishery.</t>
+          <t>This is a simulation analysis, but it may have been initiated due to management questioning the impact of recently implemented management changes.  The performance measures are not well documented, and the measures described do not correspond to the measures displayed in the results.</t>
         </is>
       </c>
       <c r="AI23" s="9" t="b">
@@ -4088,49 +4088,49 @@
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>Smith et. al.</t>
+          <t>Kolody et. al.</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>horseshoe crabs (Limulus polyphemus), red knots (Calidris canutus rufa)</t>
+          <t>Southern Bluefin Tuna (Thunnus maccoyi)</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Delaware Bay</t>
+          <t>Southern Ocean</t>
         </is>
       </c>
       <c r="F24" s="7">
-        <v>39</v>
+        <v>-44</v>
       </c>
       <c r="G24" s="7">
-        <v>-75</v>
+        <v>77</v>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>Delaware Bay Horsewhoe crab fishery</t>
+          <t>Southern Bluefin Tuna Fishery</t>
         </is>
       </c>
       <c r="I24" s="8" t="inlineStr">
         <is>
-          <t>Allowable Catch Adjustment, Monitoring Methodology, Species Interactions, Uncertainty</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J24" s="9" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="9" t="b">
         <v>1</v>
@@ -4142,10 +4142,10 @@
         <v>1</v>
       </c>
       <c r="O24" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="9" t="b">
         <v>0</v>
@@ -4158,17 +4158,17 @@
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
-          <t>How to sustainably harvest [horseshoe crabs in Delaware Bay], including moratoria, given multispecies objectives?</t>
+          <t>What management proceedure will best meet the management objectives for southern bluefin tuna?</t>
         </is>
       </c>
       <c r="U24" s="6" t="inlineStr">
         <is>
-          <t>Through consultations and public meetings with managers and stakeholders with additional input from scientific experts on sex ratio and carrying capacity.  While the objective function is reported, the full steps taken to produce it aren't explicit.</t>
+          <t>Through a series of workshops in which the management body provided objectives.  Only the SSB objective was explicitly established.  It seems that objective weights, or contraints for other objectives were attempted during the objective elicitation stage, which proved ineffective.</t>
         </is>
       </c>
       <c r="V24" s="5" t="inlineStr">
         <is>
-          <t>MCDA</t>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="W24" s="5" t="inlineStr">
@@ -4183,17 +4183,17 @@
       </c>
       <c r="Y24" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="Z24" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Decision Makers, Experts, Facilitators, Fishery, Government, Management, Scientists</t>
+          <t>Decision Makers, Facilitators, Fishery, Government, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AA24" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Fishery, Management, Scientists</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="AB24" s="8" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="AC24" s="8" t="inlineStr">
         <is>
-          <t>Analysts, Fishery, Management</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AD24" s="8" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="AE24" s="8" t="inlineStr">
         <is>
-          <t>Dynamic programming, Simulation modeling</t>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF24" s="6" t="inlineStr">
         <is>
-          <t>Smith, D.R., McGowan, C.P., Daily, J.P., Nichols, J.D., Sweka, J.A. and Lyons, J.E., 2013. Evaluating a multispecies adaptive management framework: must uncertainty impede effective decision‐making?. Journal of Applied Ecology, 50(6), pp.1431-1440.</t>
+          <t>Kolody, D., Polacheck, T., Basson, M. and Davies, C., 2008. Salvaged pearls: lessons learned from a floundering attempt to develop a management procedure for Southern Bluefin Tuna. Fisheries Research, 94(3), pp.339-350.</t>
         </is>
       </c>
       <c r="AG24" s="5" t="inlineStr">
         <is>
-          <t>10.1111/1365-2664.12145</t>
+          <t>10.1016/j.fishres.2008.08.016</t>
         </is>
       </c>
       <c r="AH24" s="6" t="inlineStr">
         <is>
-          <t>Study combines active adaptive management with management strategy evaluation.  Documentation of the process is not particularly detailed as presented here, but that stakeholder elicitiation occurred is documented. A value of information analysis was conducted in addition to the MSE.</t>
+          <t>This is a restrospective look back at an MSE process to derive lessons for fisheries management, and not exactly a documentation of a MSE itself.</t>
         </is>
       </c>
       <c r="AI24" s="9" t="b">
@@ -4237,42 +4237,42 @@
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>Wetzel and Punt</t>
+          <t>Dawson et. al.</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>NA, two generic simulated species (flathish and rockfish)</t>
+          <t>sea lamprey (Petromyzon marinus)</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>United States West Coast</t>
+          <t>Great Lakes, USA</t>
         </is>
       </c>
       <c r="F25" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7">
-        <v>-125</v>
+        <v>-83</v>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>US west coast groundfish</t>
+          <t>integrated pest management (IPM) program implemented by the Great Lakes Fishery Commission (GLFC) to control invasive sea lamprey (Petromyzon marinus) in the Laurentian Great Lakes</t>
         </is>
       </c>
       <c r="I25" s="8" t="inlineStr">
         <is>
-          <t>Monitoring Methodology, Uncertainty</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J25" s="9" t="b">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
-          <t>What are the impacts of monitoring method and stock assessment approachs associated with those methods to assessment performance?</t>
+          <t>"Managers implementing IPM must decide how to allocate resources among implementation of status quo control strategies, research, development, implementation of novel pest management strategies, and refinement of existing management strategies."</t>
         </is>
       </c>
       <c r="U25" s="6" t="inlineStr">
@@ -4332,12 +4332,12 @@
       </c>
       <c r="Y25" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z25" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Management, Scientists</t>
         </is>
       </c>
       <c r="AA25" s="8" t="inlineStr">
@@ -4367,17 +4367,17 @@
       </c>
       <c r="AF25" s="6" t="inlineStr">
         <is>
-          <t>Wetzel, C.R. and Punt, A.E., 2015. Evaluating the performance of data-moderate and catch-only assessment methods for US west coast groundfish. Fisheries research, 171, pp.170-187.</t>
+          <t>Dawson, H.A., Jones, M.L., Irwin, B.J., Johnson, N.S., Wagner, M.C. and Szymanski, M.D., 2016. Management Strategy Evaluation Of Pheromone‐Baited Trapping Techniques To Improve Management Of Invasive Sea Lamprey. Natural Resource Modeling, 29(3), pp.448-469.</t>
         </is>
       </c>
       <c r="AG25" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2015.06.005</t>
+          <t>10.1111/nrm.12096</t>
         </is>
       </c>
       <c r="AH25" s="6" t="inlineStr">
         <is>
-          <t>Simulation analysis seemingly unassociated with fishery problem development.  Monitoring methodology problem that did not take a VoI approach, or incorporate objectives beyond those related to estimation error.</t>
+          <t>Simulaiton study without documentation of the decision making process.  Not the usual MSE focused on harvest management, but a case of aiming to cause mortality in a cost effective way.</t>
         </is>
       </c>
       <c r="AI25" s="9" t="b">
@@ -4386,42 +4386,42 @@
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>Bastardie et. al.</t>
+          <t>Froehlich et. al.</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>eastern Baltic cod (Gadus morhua)</t>
+          <t>Dungeness crab (Metacarcinus magister)</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Baltic Sea</t>
+          <t>Hood Canal, Washington, USA</t>
         </is>
       </c>
       <c r="F26" s="7">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7">
-        <v>20</v>
+        <v>-123</v>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>Baltic Cod fishery</t>
+          <t>Hood Canal Dungeness crab fishery</t>
         </is>
       </c>
       <c r="I26" s="8" t="inlineStr">
         <is>
-          <t>Environmental Conditions, Fishing Behavior</t>
+          <t>Environmental Conditions, Implementation Uncertainty, Uncertainty</t>
         </is>
       </c>
       <c r="J26" s="9" t="b">
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="9" t="b">
         <v>0</v>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="T26" s="6" t="inlineStr">
         <is>
-          <t>How will the recovery of Baltic cod be influenced by catch limit versus effort limit regulations, environmental conditions, and fleet behavior?</t>
+          <t>What Hood Canal Dungeness crab management strategies are robust to environmental and management uncertainty?</t>
         </is>
       </c>
       <c r="U26" s="6" t="inlineStr">
         <is>
-          <t>Unspecified.  Figures display more performance measures than described in the text.  Only those mentioned in the text are listed.</t>
+          <t>Co-managers’ objectives and interests. Several in-person and remote meetings with Washington State and tribal co-managers were organized to reveal key interests and considerations regarding harvest strategy for testing. The input from the co-managers gave a clearer conceptual understanding of the model content and assumptions.</t>
         </is>
       </c>
       <c r="V26" s="5" t="inlineStr">
@@ -4481,52 +4481,52 @@
       </c>
       <c r="Y26" s="8" t="inlineStr">
         <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z26" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Government, Scientists</t>
+        </is>
+      </c>
+      <c r="AA26" s="8" t="inlineStr">
+        <is>
+          <t>Fishery, Government</t>
+        </is>
+      </c>
+      <c r="AB26" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC26" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD26" s="8" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="Z26" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA26" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB26" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AC26" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD26" s="8" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
       <c r="AE26" s="8" t="inlineStr">
         <is>
-          <t>Simulation modeling</t>
+          <t>Expert elicitation, Simulation modeling</t>
         </is>
       </c>
       <c r="AF26" s="6" t="inlineStr">
         <is>
-          <t>Francois Bastardie, J. Rasmus Nielsen, Gerd Kraus; The eastern Baltic cod fishery: a fleet-based management strategy evaluation framework to assess the cod recovery plan of 2008, ICES Journal of Marine Science, Volume 67, Issue 1, 1 January 2010, Pages 71–86</t>
+          <t>Froehlich, H.E., Essington, T.E. and McDonald, P.S., 2017. When does hypoxia affect management performance of a fishery? A management strategy evaluation of Dungeness crab (Metacarcinus magister) fisheries in Hood Canal, Washington, USA. Canadian journal of fisheries and aquatic sciences, 74(6), pp.922-932.</t>
         </is>
       </c>
       <c r="AG26" s="5" t="inlineStr">
         <is>
-          <t>10.1093/icesjms/fsp228</t>
+          <t>10.1139/cjfas-2016-0269</t>
         </is>
       </c>
       <c r="AH26" s="6" t="inlineStr">
         <is>
-          <t>This is a simulation analysis, but it may have been initiated due to management questioning the impact of recently implemented management changes.  The performance measures are not well documented, and the measures described do not correspond to the measures displayed in the results.</t>
+          <t>Not a management strategy identification effort, but a consequence of environmental conditions study.</t>
         </is>
       </c>
       <c r="AI26" s="9" t="b">
@@ -4535,37 +4535,37 @@
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>Kolody et. al.</t>
+          <t>Punt et. al.</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>Southern Bluefin Tuna (Thunnus maccoyi)</t>
+          <t>Southern rock lobster (Jasus edwardsii)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Southern Ocean</t>
+          <t>Great Australian Bight</t>
         </is>
       </c>
       <c r="F27" s="7">
-        <v>-44</v>
+        <v>-37</v>
       </c>
       <c r="G27" s="7">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>Southern Bluefin Tuna Fishery</t>
+          <t>Australian Southern Zone Southern rock lobster fishery</t>
         </is>
       </c>
       <c r="I27" s="8" t="inlineStr">
@@ -4574,19 +4574,19 @@
         </is>
       </c>
       <c r="J27" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="9" t="b">
         <v>1</v>
       </c>
       <c r="N27" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="9" t="b">
         <v>1</v>
@@ -4601,26 +4601,26 @@
         <v>0</v>
       </c>
       <c r="S27" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="6" t="inlineStr">
         <is>
-          <t>What management proceedure will best meet the management objectives for southern bluefin tuna?</t>
+          <t>Which of two proposed decision rules will best meet the objectives of the Australian Southern Zone Southern rock lobster fishery?</t>
         </is>
       </c>
       <c r="U27" s="6" t="inlineStr">
         <is>
-          <t>Through a series of workshops in which the management body provided objectives.  Only the SSB objective was explicitly established.  It seems that objective weights, or contraints for other objectives were attempted during the objective elicitation stage, which proved ineffective.</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V27" s="5" t="inlineStr">
         <is>
-          <t>Visualization</t>
+          <t/>
         </is>
       </c>
       <c r="W27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Mental Analysis</t>
         </is>
       </c>
       <c r="X27" s="5" t="inlineStr">
@@ -4630,27 +4630,27 @@
       </c>
       <c r="Y27" s="8" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z27" s="8" t="inlineStr">
         <is>
-          <t>Decision Makers, Facilitators, Fishery, Government, Independent, Management, Scientists</t>
+          <t>Fishery, Government</t>
         </is>
       </c>
       <c r="AA27" s="8" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t/>
         </is>
       </c>
       <c r="AB27" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government</t>
         </is>
       </c>
       <c r="AC27" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Fishery, Government</t>
         </is>
       </c>
       <c r="AD27" s="8" t="inlineStr">
@@ -4665,17 +4665,18 @@
       </c>
       <c r="AF27" s="6" t="inlineStr">
         <is>
-          <t>Kolody, D., Polacheck, T., Basson, M. and Davies, C., 2008. Salvaged pearls: lessons learned from a floundering attempt to develop a management procedure for Southern Bluefin Tuna. Fisheries Research, 94(3), pp.339-350.</t>
+          <t>Punt, A.E., McGarvey, R., Linnane, A., Phillips, J., Triantafillos, L. and Feenstra, J., 2012. Evaluating empirical decision rules for southern rock lobster fisheries: a South Australian example. Fisheries Research, 115, pp.60-71.</t>
         </is>
       </c>
       <c r="AG27" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2008.08.016</t>
+          <t>10.1016/j.fishres.2011.11.010</t>
         </is>
       </c>
       <c r="AH27" s="6" t="inlineStr">
         <is>
-          <t>This is a restrospective look back at an MSE process to derive lessons for fisheries management, and not exactly a documentation of a MSE itself.</t>
+          <t>Although the number of scenarios considered was not sufficient to conclude that all possible factors were considered, and the various scenarios were not weighted by the prior probabilities, the results of the analyses presented above assisted the selection of a DR for SZ rock lobster. The selected DR was the discrete rule. This selection was based on a number of factors, some based on results of the MSE and some based on other considerations. Specifically,
+the performances of the two DRs were fairly similar with neither “dominating” the other. However, the discrete DR was seen to be more balanced (equally likely to increase as decrease the TACC) whereas it is more difficult to increase the TACC in the linear DR. Also, the discrete DR was proposed by the fishing industry and its acceptance increased stakeholder buy-in, a factor which cannot be over-emphasized during times when catch-rate [is in decline]</t>
         </is>
       </c>
       <c r="AI27" s="9" t="b">
@@ -4684,37 +4685,37 @@
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>Dawson et. al.</t>
+          <t>Irwin et. al.</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
         <is>
-          <t>sea lamprey (Petromyzon marinus)</t>
+          <t>Yellow perch (Perca flavescens)</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Great Lakes, USA</t>
+          <t>Lake Michigan, USA</t>
         </is>
       </c>
       <c r="F28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="7">
-        <v>-83</v>
+        <v>-87</v>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>integrated pest management (IPM) program implemented by the Great Lakes Fishery Commission (GLFC) to control invasive sea lamprey (Petromyzon marinus) in the Laurentian Great Lakes</t>
+          <t>Lake Michigan Yellow perch fishery</t>
         </is>
       </c>
       <c r="I28" s="8" t="inlineStr">
@@ -4723,16 +4724,16 @@
         </is>
       </c>
       <c r="J28" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="9" t="b">
         <v>0</v>
@@ -4744,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="9" t="b">
         <v>0</v>
@@ -4754,22 +4755,22 @@
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
-          <t>"Managers implementing IPM must decide how to allocate resources among implementation of status quo control strategies, research, development, implementation of novel pest management strategies, and refinement of existing management strategies."</t>
+          <t>What harvest strategy should the Lake Michigan Committee and its constituent agencies adopt among different harvest policies to better meet their objectives for the fishery?</t>
         </is>
       </c>
       <c r="U28" s="6" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>During the first workshop, participants developed a list of potential general management objectives and associated specific measures of performance during a facilitated brainstorming exercise.  Performance measures were refined through the series of workshops.</t>
         </is>
       </c>
       <c r="V28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t/>
         </is>
       </c>
       <c r="X28" s="5" t="inlineStr">
@@ -4779,52 +4780,52 @@
       </c>
       <c r="Y28" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Government, Management, Scientists</t>
         </is>
       </c>
       <c r="Z28" s="8" t="inlineStr">
         <is>
-          <t>Management, Scientists</t>
+          <t>Decision Makers, Government, Management, Scientists</t>
         </is>
       </c>
       <c r="AA28" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Government, Management</t>
         </is>
       </c>
       <c r="AB28" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AC28" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Government, Management</t>
         </is>
       </c>
       <c r="AD28" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AE28" s="8" t="inlineStr">
         <is>
-          <t>Simulation modeling</t>
+          <t>Expert elicitation, Simulation modeling</t>
         </is>
       </c>
       <c r="AF28" s="6" t="inlineStr">
         <is>
-          <t>Dawson, H.A., Jones, M.L., Irwin, B.J., Johnson, N.S., Wagner, M.C. and Szymanski, M.D., 2016. Management Strategy Evaluation Of Pheromone‐Baited Trapping Techniques To Improve Management Of Invasive Sea Lamprey. Natural Resource Modeling, 29(3), pp.448-469.</t>
+          <t>Irwin, B.J., Wilberg, M.J., Bence, J.R. and Jones, M.L., 2008. Evaluating alternative harvest policies for yellow perch in southern Lake Michigan. Fisheries Research, 94(3), pp.267-281.</t>
         </is>
       </c>
       <c r="AG28" s="5" t="inlineStr">
         <is>
-          <t>10.1111/nrm.12096</t>
+          <t>10.1016/j.fishres.2008.05.009</t>
         </is>
       </c>
       <c r="AH28" s="6" t="inlineStr">
         <is>
-          <t>Simulaiton study without documentation of the decision making process.  Not the usual MSE focused on harvest management, but a case of aiming to cause mortality in a cost effective way.</t>
+          <t/>
         </is>
       </c>
       <c r="AI28" s="9" t="b">
@@ -4833,11 +4834,11 @@
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>Froehlich et. al.</t>
+          <t>Kuykendall et. al.</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
@@ -4847,28 +4848,28 @@
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>Dungeness crab (Metacarcinus magister)</t>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Hood Canal, Washington, USA</t>
+          <t>Mid Atlantic Bight</t>
         </is>
       </c>
       <c r="F29" s="7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G29" s="7">
-        <v>-123</v>
+        <v>-73</v>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>Hood Canal Dungeness crab fishery</t>
+          <t>Mid Atlantic Bight Atlantic surfclam fishery</t>
         </is>
       </c>
       <c r="I29" s="8" t="inlineStr">
         <is>
-          <t>Environmental Conditions, Implementation Uncertainty, Uncertainty</t>
+          <t>Implementation Uncertainty, Spatial Structure, Uncertainty</t>
         </is>
       </c>
       <c r="J29" s="9" t="b">
@@ -4878,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9" t="b">
         <v>0</v>
@@ -4903,12 +4904,13 @@
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
-          <t>What Hood Canal Dungeness crab management strategies are robust to environmental and management uncertainty?</t>
+          <t>The objective of our study is to evaluate a range of area management options that may improve the Atlantic surfclam stock and the Atlantic surfclam fishery in the MAB.  My rewording would be, "What area closure rules and closure duration will best achieve the objectives of the Atlantic surfclam fishery?"</t>
         </is>
       </c>
       <c r="U29" s="6" t="inlineStr">
         <is>
-          <t>Co-managers’ objectives and interests. Several in-person and remote meetings with Washington State and tribal co-managers were organized to reveal key interests and considerations regarding harvest strategy for testing. The input from the co-managers gave a clearer conceptual understanding of the model content and assumptions.</t>
+          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel
+captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
         </is>
       </c>
       <c r="V29" s="5" t="inlineStr">
@@ -4918,7 +4920,7 @@
       </c>
       <c r="W29" s="5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mental Analysis</t>
         </is>
       </c>
       <c r="X29" s="5" t="inlineStr">
@@ -4933,17 +4935,17 @@
       </c>
       <c r="Z29" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government, Scientists</t>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AA29" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government</t>
+          <t/>
         </is>
       </c>
       <c r="AB29" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AC29" s="8" t="inlineStr">
@@ -4953,27 +4955,27 @@
       </c>
       <c r="AD29" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AE29" s="8" t="inlineStr">
         <is>
-          <t>Expert elicitation, Simulation modeling</t>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF29" s="6" t="inlineStr">
         <is>
-          <t>Froehlich, H.E., Essington, T.E. and McDonald, P.S., 2017. When does hypoxia affect management performance of a fishery? A management strategy evaluation of Dungeness crab (Metacarcinus magister) fisheries in Hood Canal, Washington, USA. Canadian journal of fisheries and aquatic sciences, 74(6), pp.922-932.</t>
+          <t>Kuykendall, K.M., Powell, E.N., Klink, J.M., Moreno, P.T. and Leaf, R.T., 2017. Management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Fishery Bulletin, 115(3).</t>
         </is>
       </c>
       <c r="AG29" s="5" t="inlineStr">
         <is>
-          <t>10.1139/cjfas-2016-0269</t>
+          <t>10.7755/FB.115.3.3</t>
         </is>
       </c>
       <c r="AH29" s="6" t="inlineStr">
         <is>
-          <t>Not a management strategy identification effort, but a consequence of environmental conditions study.</t>
+          <t>The decision process was not explicited documented, so the degree of stakeholder interaction was difficult to determine, but seemingly some interaction with stakeholders occurred.  This was predominantly a scientist lead simulation study.  The main driver evaluated was fishing behavior.</t>
         </is>
       </c>
       <c r="AI29" s="9" t="b">
@@ -4982,61 +4984,61 @@
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>Punt et. al.</t>
+          <t>Fulton et. al.</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>Southern rock lobster (Jasus edwardsii)</t>
+          <t>17 species in EBFM plan</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Great Australian Bight</t>
+          <t>Southeastern Australia</t>
         </is>
       </c>
       <c r="F30" s="7">
-        <v>-37</v>
+        <v>-39</v>
       </c>
       <c r="G30" s="7">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>Australian Southern Zone Southern rock lobster fishery</t>
+          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
         </is>
       </c>
       <c r="I30" s="8" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Ecosystem Based Management, Uncertainty</t>
         </is>
       </c>
       <c r="J30" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="9" t="b">
         <v>0</v>
@@ -5048,11 +5050,11 @@
         <v>0</v>
       </c>
       <c r="S30" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="6" t="inlineStr">
         <is>
-          <t>Which of two proposed decision rules will best meet the objectives of the Australian Southern Zone Southern rock lobster fishery?</t>
+          <t>Inexplicit, my version, "What management strategy will best achieve the diverse objectives of a multiple species ecosystem based fisheries management plan?"</t>
         </is>
       </c>
       <c r="U30" s="6" t="inlineStr">
@@ -5062,12 +5064,12 @@
       </c>
       <c r="V30" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="W30" s="5" t="inlineStr">
         <is>
-          <t>Mental Analysis</t>
+          <t/>
         </is>
       </c>
       <c r="X30" s="5" t="inlineStr">
@@ -5077,12 +5079,12 @@
       </c>
       <c r="Y30" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z30" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government</t>
+          <t>Fishery, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AA30" s="8" t="inlineStr">
@@ -5092,17 +5094,17 @@
       </c>
       <c r="AB30" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government</t>
+          <t>Fishery, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AC30" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government</t>
+          <t/>
         </is>
       </c>
       <c r="AD30" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AE30" s="8" t="inlineStr">
@@ -5112,18 +5114,17 @@
       </c>
       <c r="AF30" s="6" t="inlineStr">
         <is>
-          <t>Punt, A.E., McGarvey, R., Linnane, A., Phillips, J., Triantafillos, L. and Feenstra, J., 2012. Evaluating empirical decision rules for southern rock lobster fisheries: a South Australian example. Fisheries Research, 115, pp.60-71.</t>
+          <t>Fulton, E.A., Smith, A.D., Smith, D.C. and Johnson, P., 2014. An integrated approach is needed for ecosystem based fisheries management: insights from ecosystem-level management strategy evaluation. PLoS One, 9(1), p.e84242.</t>
         </is>
       </c>
       <c r="AG30" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2011.11.010</t>
+          <t>10.1371/journal.pone.0084242</t>
         </is>
       </c>
       <c r="AH30" s="6" t="inlineStr">
         <is>
-          <t>Although the number of scenarios considered was not sufficient to conclude that all possible factors were considered, and the various scenarios were not weighted by the prior probabilities, the results of the analyses presented above assisted the selection of a DR for SZ rock lobster. The selected DR was the discrete rule. This selection was based on a number of factors, some based on results of the MSE and some based on other considerations. Specifically,
-the performances of the two DRs were fairly similar with neither “dominating” the other. However, the discrete DR was seen to be more balanced (equally likely to increase as decrease the TACC) whereas it is more difficult to increase the TACC in the linear DR. Also, the discrete DR was proposed by the fishing industry and its acceptance increased stakeholder buy-in, a factor which cannot be over-emphasized during times when catch-rate [is in decline]</t>
+          <t>Seemingly a stakeholder process occurred in this MSE, but it isn't documented, even in the referenced technical reports.  Performance measures are ill defined, as it the normalization process, which seems to combine results into categories before normalization.  Spider plots of the normalized scores were produced, seemingly presuming equal weighting.  Taken from text, "When considering the performance of individual strategies these performance measures are considered individually, whereas for comparison across strategies they are pulled together into composite indices. For ease of interpretation and visualisation, the final composite values were then normalised over all strategies and all years so that the best result of a performance measure is assigned a value of 1 and all other values scaled accordingly."</t>
         </is>
       </c>
       <c r="AI30" s="9" t="b">
@@ -5132,55 +5133,55 @@
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>Irwin et. al.</t>
+          <t>Haddon and Helidoniotis</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>Yellow perch (Perca flavescens)</t>
+          <t>abalone (Haliotis rubra and Haliotis laevigata)</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Lake Michigan, USA</t>
+          <t>Tasmania</t>
         </is>
       </c>
       <c r="F31" s="7">
-        <v>44</v>
+        <v>-43</v>
       </c>
       <c r="G31" s="7">
-        <v>-87</v>
+        <v>148</v>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>Lake Michigan Yellow perch fishery</t>
+          <t>Tasmanian abalone fishery</t>
         </is>
       </c>
       <c r="I31" s="8" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Spatial Structure, Uncertainty</t>
         </is>
       </c>
       <c r="J31" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="9" t="b">
         <v>0</v>
@@ -5192,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="9" t="b">
         <v>0</v>
@@ -5202,24 +5203,24 @@
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
-          <t>What harvest strategy should the Lake Michigan Committee and its constituent agencies adopt among different harvest policies to better meet their objectives for the fishery?</t>
+          <t>No single problem statement provided.  My version, "What combination of legal minimum lengths will best meet the management objectives of the Tasmanian abalone fishery given the spatial structure of the abalone stocks?"</t>
         </is>
       </c>
       <c r="U31" s="6" t="inlineStr">
         <is>
-          <t>During the first workshop, participants developed a list of potential general management objectives and associated specific measures of performance during a facilitated brainstorming exercise.  Performance measures were refined through the series of workshops.</t>
+          <t>Objectives are not stated and evaluated in the simulation, but noted in the discussion</t>
         </is>
       </c>
       <c r="V31" s="5" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W31" s="5" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="W31" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="X31" s="5" t="inlineStr">
         <is>
           <t/>
@@ -5227,52 +5228,52 @@
       </c>
       <c r="Y31" s="8" t="inlineStr">
         <is>
-          <t>Government, Management, Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z31" s="8" t="inlineStr">
         <is>
-          <t>Decision Makers, Government, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA31" s="8" t="inlineStr">
         <is>
-          <t>Government, Management</t>
+          <t/>
         </is>
       </c>
       <c r="AB31" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AC31" s="8" t="inlineStr">
         <is>
-          <t>Government, Management</t>
+          <t/>
         </is>
       </c>
       <c r="AD31" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE31" s="8" t="inlineStr">
         <is>
-          <t>Expert elicitation, Simulation modeling</t>
+          <t>Simulation modeling</t>
         </is>
       </c>
       <c r="AF31" s="6" t="inlineStr">
         <is>
-          <t>Irwin, B.J., Wilberg, M.J., Bence, J.R. and Jones, M.L., 2008. Evaluating alternative harvest policies for yellow perch in southern Lake Michigan. Fisheries Research, 94(3), pp.267-281.</t>
+          <t>Haddon, M. and Helidoniotis, F., 2013. Legal minimum lengths and the management of abalone fisheries. Journal of Shellfish Research, 32(1), pp.197-208.</t>
         </is>
       </c>
       <c r="AG31" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2008.05.009</t>
+          <t>10.2983/035.032.0126</t>
         </is>
       </c>
       <c r="AH31" s="6" t="inlineStr">
         <is>
-          <t/>
+          <t>Seeminlgly this isn't really a MSE, in that objectives weren't established.  So seemingly, rather than develop objectives and use a simulation study to test their achievement, a simulation study was conducted, and some possible objectives are discussed after the results were determined.</t>
         </is>
       </c>
       <c r="AI31" s="9" t="b">
@@ -5281,46 +5282,46 @@
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>Kuykendall et. al.</t>
+          <t>Chen et. al.</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>Atlantic surfclam (Spisula solidissima)</t>
+          <t>Spanish mackerel (Scomberomorus Niphonius)</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Mid Atlantic Bight</t>
+          <t>China's Seas</t>
         </is>
       </c>
       <c r="F32" s="7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G32" s="7">
-        <v>-73</v>
+        <v>124</v>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>Mid Atlantic Bight Atlantic surfclam fishery</t>
+          <t>Chinese Spanish mackerel fishery</t>
         </is>
       </c>
       <c r="I32" s="8" t="inlineStr">
         <is>
-          <t>Implementation Uncertainty, Spatial Structure, Uncertainty</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J32" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="9" t="b">
         <v>0</v>
@@ -5351,13 +5352,12 @@
       </c>
       <c r="T32" s="6" t="inlineStr">
         <is>
-          <t>The objective of our study is to evaluate a range of area management options that may improve the Atlantic surfclam stock and the Atlantic surfclam fishery in the MAB.  My rewording would be, "What area closure rules and closure duration will best achieve the objectives of the Atlantic surfclam fishery?"</t>
+          <t>Not explicitly stated in article, my version, "What management procedure will best meet the management objectives of the Chinese spanish mackerel fishery given uncertainty in the natural mortality rate and the limit data available to assess the stock?"</t>
         </is>
       </c>
       <c r="U32" s="6" t="inlineStr">
         <is>
-          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel
-captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
+          <t>Unstated, seemingly objectives were selected by the researchers from a set of available objectives in the DLMtoolkit.</t>
         </is>
       </c>
       <c r="V32" s="5" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="W32" s="5" t="inlineStr">
         <is>
-          <t>Mental Analysis</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X32" s="5" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="Z32" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA32" s="8" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="AB32" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC32" s="8" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AD32" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE32" s="8" t="inlineStr">
@@ -5412,17 +5412,17 @@
       </c>
       <c r="AF32" s="6" t="inlineStr">
         <is>
-          <t>Kuykendall, K.M., Powell, E.N., Klink, J.M., Moreno, P.T. and Leaf, R.T., 2017. Management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Fishery Bulletin, 115(3).</t>
+          <t>Chen, N., Zhang, C., Sun, M., Xu, B., Xue, Y., Ren, Y. and Chen, Y., 2018. The impact of natural mortality variations on the performance of management procedures for Spanish mackerel (Scomberomorus niphonius) in the Yellow Sea, China. Acta Oceanologica Sinica, 37(8), pp.21-30.</t>
         </is>
       </c>
       <c r="AG32" s="5" t="inlineStr">
         <is>
-          <t>10.7755/FB.115.3.3</t>
+          <t>10.1007/s13131-018-1234-0</t>
         </is>
       </c>
       <c r="AH32" s="6" t="inlineStr">
         <is>
-          <t>The decision process was not explicited documented, so the degree of stakeholder interaction was difficult to determine, but seemingly some interaction with stakeholders occurred.  This was predominantly a scientist lead simulation study.  The main driver evaluated was fishing behavior.</t>
+          <t>While a prefered MP was selected, this selection is based on the authors inexplicit weighting of trade-offs, and an undocumented trade-off evaluation method.  This MSE relied on the previously developed options available in the R package DLMtoolkit.</t>
         </is>
       </c>
       <c r="AI32" s="9" t="b">
@@ -5431,46 +5431,46 @@
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>Fulton et. al.</t>
+          <t>Kell et. al.</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>17 species in EBFM plan</t>
+          <t>Roundfish stocks: North Sea cod, haddock, saithe and whiting, northern and southern Atlantic hake, and eastern and western Baltic cod</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Southeastern Australia</t>
+          <t>Northeast Atlantic</t>
         </is>
       </c>
       <c r="F33" s="7">
-        <v>-39</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7">
-        <v>146</v>
+        <v>-22</v>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
+          <t>Northeast Atlantic roundfish fishery</t>
         </is>
       </c>
       <c r="I33" s="8" t="inlineStr">
         <is>
-          <t>Ecosystem Based Management, Uncertainty</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="J33" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9" t="b">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="9" t="b">
         <v>0</v>
@@ -5501,22 +5501,22 @@
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
-          <t>Inexplicit, my version, "What management strategy will best achieve the diverse objectives of a multiple species ecosystem based fisheries management plan?"</t>
+          <t>My version, "How does uncertainty effect the results of the ICES management proceedures?"</t>
         </is>
       </c>
       <c r="U33" s="6" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Not elicited, supplied by authors seemingly.</t>
         </is>
       </c>
       <c r="V33" s="5" t="inlineStr">
         <is>
-          <t>Visualization</t>
+          <t/>
         </is>
       </c>
       <c r="W33" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X33" s="5" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="Z33" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Independent, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA33" s="8" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="AB33" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Independent, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC33" s="8" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="AD33" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Independent, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE33" s="8" t="inlineStr">
@@ -5561,17 +5561,17 @@
       </c>
       <c r="AF33" s="6" t="inlineStr">
         <is>
-          <t>Fulton, E.A., Smith, A.D., Smith, D.C. and Johnson, P., 2014. An integrated approach is needed for ecosystem based fisheries management: insights from ecosystem-level management strategy evaluation. PLoS One, 9(1), p.e84242.</t>
+          <t>Kell, L.T., Pilling, G.M., Kirkwood, G.P., Pastoors, M., Mesnil, B., Korsbrekke, K., Abaunza, P., Aps, R., Biseau, A., Kunzlik, P. and Needle, C., 2005. An evaluation of the implicit management procedure used for some ICES roundfish stocks. ICES Journal of Marine Science, 62(4), pp.750-759.</t>
         </is>
       </c>
       <c r="AG33" s="5" t="inlineStr">
         <is>
-          <t>10.1371/journal.pone.0084242</t>
+          <t>10.1016/j.icesjms.2005.01.001</t>
         </is>
       </c>
       <c r="AH33" s="6" t="inlineStr">
         <is>
-          <t>Seemingly a stakeholder process occurred in this MSE, but it isn't documented, even in the referenced technical reports.  Performance measures are ill defined, as it the normalization process, which seems to combine results into categories before normalization.  Spider plots of the normalized scores were produced, seemingly presuming equal weighting.  Taken from text, "When considering the performance of individual strategies these performance measures are considered individually, whereas for comparison across strategies they are pulled together into composite indices. For ease of interpretation and visualisation, the final composite values were then normalised over all strategies and all years so that the best result of a performance measure is assigned a value of 1 and all other values scaled accordingly."</t>
+          <t>MSE in the sense that a simultion of the management system occurred, but seemingly no problem framing, objective elicitation, or alternative elicitation occurred.</t>
         </is>
       </c>
       <c r="AI33" s="9" t="b">
@@ -5580,42 +5580,42 @@
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>Haddon and Helidoniotis</t>
+          <t>Horbowy</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>abalone (Haliotis rubra and Haliotis laevigata)</t>
+          <t>Baltic Cod proxy</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Tasmania</t>
+          <t>Baltic Sea</t>
         </is>
       </c>
       <c r="F34" s="7">
-        <v>-43</v>
+        <v>59</v>
       </c>
       <c r="G34" s="7">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>Tasmanian abalone fishery</t>
+          <t>Generic ICES fishery, using Baltic Cod as example</t>
         </is>
       </c>
       <c r="I34" s="8" t="inlineStr">
         <is>
-          <t>Spatial Structure, Uncertainty</t>
+          <t>Monitoring Methodology, Uncertainty</t>
         </is>
       </c>
       <c r="J34" s="9" t="b">
@@ -5650,12 +5650,12 @@
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
-          <t>No single problem statement provided.  My version, "What combination of legal minimum lengths will best meet the management objectives of the Tasmanian abalone fishery given the spatial structure of the abalone stocks?"</t>
+          <t>My version, "what stock assessment methodology and harvest control rules best achieve the management objectives for a simulated ICES fishery?"</t>
         </is>
       </c>
       <c r="U34" s="6" t="inlineStr">
         <is>
-          <t>Objectives are not stated and evaluated in the simulation, but noted in the discussion</t>
+          <t>Not discussed.</t>
         </is>
       </c>
       <c r="V34" s="5" t="inlineStr">
@@ -5665,34 +5665,34 @@
       </c>
       <c r="W34" s="5" t="inlineStr">
         <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="X34" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y34" s="8" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="X34" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y34" s="8" t="inlineStr">
+      <c r="Z34" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA34" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="8" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="Z34" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA34" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB34" s="8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
       <c r="AC34" s="8" t="inlineStr">
         <is>
           <t/>
@@ -5710,17 +5710,17 @@
       </c>
       <c r="AF34" s="6" t="inlineStr">
         <is>
-          <t>Haddon, M. and Helidoniotis, F., 2013. Legal minimum lengths and the management of abalone fisheries. Journal of Shellfish Research, 32(1), pp.197-208.</t>
+          <t>Horbowy, J., 2011. Comparison of stock management with production, difference, and age-structured models using operating models. Fisheries Research, 108(1), pp.153-162.</t>
         </is>
       </c>
       <c r="AG34" s="5" t="inlineStr">
         <is>
-          <t>10.2983/035.032.0126</t>
+          <t>10.1016/j.fishres.2010.12.015</t>
         </is>
       </c>
       <c r="AH34" s="6" t="inlineStr">
         <is>
-          <t>Seeminlgly this isn't really a MSE, in that objectives weren't established.  So seemingly, rather than develop objectives and use a simulation study to test their achievement, a simulation study was conducted, and some possible objectives are discussed after the results were determined.</t>
+          <t>Simulation driving study and no discussion of the decision making preceedure was provided.  The authors ranked performance across all performance measures, applying equal weighting to each performance measure in their trade-off analysis.</t>
         </is>
       </c>
       <c r="AI34" s="9" t="b">
@@ -5729,46 +5729,46 @@
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>Chen et. al.</t>
+          <t>Ellis et. al.</t>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>Spanish mackerel (Scomberomorus Niphonius)</t>
+          <t>prawn</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>China's Seas</t>
+          <t>Torres Straight</t>
         </is>
       </c>
       <c r="F35" s="7">
-        <v>33</v>
+        <v>-10</v>
       </c>
       <c r="G35" s="7">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>Chinese Spanish mackerel fishery</t>
+          <t>Torres Straight prawn fishery</t>
         </is>
       </c>
       <c r="I35" s="8" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Allowable Catch Adjustment, Fishing Behavior, Species Interactions, Uncertainty</t>
         </is>
       </c>
       <c r="J35" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="9" t="b">
         <v>0</v>
@@ -5799,12 +5799,13 @@
       </c>
       <c r="T35" s="6" t="inlineStr">
         <is>
-          <t>Not explicitly stated in article, my version, "What management procedure will best meet the management objectives of the Chinese spanish mackerel fishery given uncertainty in the natural mortality rate and the limit data available to assess the stock?"</t>
+          <t>The problem given by the authors is contained in this paragraph, "The trawling industry is now under pressure from community groups, local legislation and international certification, to ensure the conservation of the ecosystem as a whole. Furthermore, there is now increasing recognition from both the fishing industry and the fisheries managers that sustainable harvesting requires the preservation of both the target stocks and the ecosystem in which
+these resources are embedded. There is therefore a need for managers to understand the effects of their management actions on both the target stocks and the benthos."  My version, "What combination closures and effort restrictions will best achieve the fishing and benthic conservation objectives in the Torres Straight?"</t>
         </is>
       </c>
       <c r="U35" s="6" t="inlineStr">
         <is>
-          <t>Unstated, seemingly objectives were selected by the researchers from a set of available objectives in the DLMtoolkit.</t>
+          <t>Not discussed</t>
         </is>
       </c>
       <c r="V35" s="5" t="inlineStr">
@@ -5829,7 +5830,7 @@
       </c>
       <c r="Z35" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Decision Makers, Fishery, Government, Management, Public, Scientists</t>
         </is>
       </c>
       <c r="AA35" s="8" t="inlineStr">
@@ -5849,7 +5850,7 @@
       </c>
       <c r="AD35" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Fishery, Management, Scientists</t>
         </is>
       </c>
       <c r="AE35" s="8" t="inlineStr">
@@ -5859,17 +5860,17 @@
       </c>
       <c r="AF35" s="6" t="inlineStr">
         <is>
-          <t>Chen, N., Zhang, C., Sun, M., Xu, B., Xue, Y., Ren, Y. and Chen, Y., 2018. The impact of natural mortality variations on the performance of management procedures for Spanish mackerel (Scomberomorus niphonius) in the Yellow Sea, China. Acta Oceanologica Sinica, 37(8), pp.21-30.</t>
+          <t>Ellis, N., Pantus, F., Welna, A. and Butler, A., 2008. Evaluating ecosystem-based management options: effects of trawling in Torres Strait, Australia. Continental Shelf Research, 28(16), pp.2324-2338.</t>
         </is>
       </c>
       <c r="AG35" s="5" t="inlineStr">
         <is>
-          <t>10.1007/s13131-018-1234-0</t>
+          <t>10.1016/j.csr.2008.03.031</t>
         </is>
       </c>
       <c r="AH35" s="6" t="inlineStr">
         <is>
-          <t>While a prefered MP was selected, this selection is based on the authors inexplicit weighting of trade-offs, and an undocumented trade-off evaluation method.  This MSE relied on the previously developed options available in the R package DLMtoolkit.</t>
+          <t>A stakeholder process occurred as part of this MSE, but seemingingly it was a feedback process, not a proactive process.  At least, not problem defition or objective setting input is described.</t>
         </is>
       </c>
       <c r="AI35" s="9" t="b">
@@ -5878,42 +5879,43 @@
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>Kell et. al.</t>
+          <t>Bischof et. al.</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>Roundfish stocks: North Sea cod, haddock, saithe and whiting, northern and southern Atlantic hake, and eastern and western Baltic cod</t>
+          <t>brown bear (Ursus arctos), Eurasian lynx (Lynx lynx), grey
+wolf (Canis lupus) and wolverine (Gulo gulo)</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>Northeast Atlantic</t>
+          <t>Estonia, Latvia and Norway</t>
         </is>
       </c>
       <c r="F36" s="7">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G36" s="7">
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>Northeast Atlantic roundfish fishery</t>
+          <t>European carnivore management</t>
         </is>
       </c>
       <c r="I36" s="8" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Implementation Uncertainty</t>
         </is>
       </c>
       <c r="J36" s="9" t="b">
@@ -5948,12 +5950,12 @@
       </c>
       <c r="T36" s="6" t="inlineStr">
         <is>
-          <t>My version, "How does uncertainty effect the results of the ICES management proceedures?"</t>
+          <t>My version, "What effect does implementation uncertainty have on the achievement of target harvest of european carnivores?"</t>
         </is>
       </c>
       <c r="U36" s="6" t="inlineStr">
         <is>
-          <t>Not elicited, supplied by authors seemingly.</t>
+          <t>No objectives stated.</t>
         </is>
       </c>
       <c r="V36" s="5" t="inlineStr">
@@ -5973,24 +5975,24 @@
       </c>
       <c r="Y36" s="8" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z36" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="8" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="Z36" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA36" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
       <c r="AC36" s="8" t="inlineStr">
         <is>
           <t/>
@@ -5998,7 +6000,7 @@
       </c>
       <c r="AD36" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AE36" s="8" t="inlineStr">
@@ -6008,17 +6010,17 @@
       </c>
       <c r="AF36" s="6" t="inlineStr">
         <is>
-          <t>Kell, L.T., Pilling, G.M., Kirkwood, G.P., Pastoors, M., Mesnil, B., Korsbrekke, K., Abaunza, P., Aps, R., Biseau, A., Kunzlik, P. and Needle, C., 2005. An evaluation of the implicit management procedure used for some ICES roundfish stocks. ICES Journal of Marine Science, 62(4), pp.750-759.</t>
+          <t>Bischof, R., Nilsen, E.B., Brøseth, H., Männil, P., Ozoliņš, J. and Linnell, J.D., 2012. Implementation uncertainty when using recreational hunting to manage carnivores. Journal of Applied Ecology, 49(4), pp.824-832.</t>
         </is>
       </c>
       <c r="AG36" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.icesjms.2005.01.001</t>
+          <t>10.1111/j.1365-2664.2012.02167.x</t>
         </is>
       </c>
       <c r="AH36" s="6" t="inlineStr">
         <is>
-          <t>MSE in the sense that a simultion of the management system occurred, but seemingly no problem framing, objective elicitation, or alternative elicitation occurred.</t>
+          <t>This was simulation study only, in that a decision was not clearly identified that relates to this study of implementation uncertainty.</t>
         </is>
       </c>
       <c r="AI36" s="9" t="b">
@@ -6027,11 +6029,11 @@
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>Horbowy</t>
+          <t>Little et. al.</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -6041,28 +6043,28 @@
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>Baltic Cod proxy</t>
+          <t>common coral trout (Plectropomus leopardus)</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>Baltic Sea</t>
+          <t>Great Barrier Reef</t>
         </is>
       </c>
       <c r="F37" s="7">
-        <v>59</v>
+        <v>-18</v>
       </c>
       <c r="G37" s="7">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>Generic ICES fishery, using Baltic Cod as example</t>
+          <t>Great Barrier Reef coral reef fin fish fishery</t>
         </is>
       </c>
       <c r="I37" s="8" t="inlineStr">
         <is>
-          <t>Monitoring Methodology, Uncertainty</t>
+          <t>Fishing Behavior</t>
         </is>
       </c>
       <c r="J37" s="9" t="b">
@@ -6097,12 +6099,12 @@
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
-          <t>My version, "what stock assessment methodology and harvest control rules best achieve the management objectives for a simulated ICES fishery?"</t>
+          <t>From authors, "We explored the effects of harvest-management systems in the form of ITQs and no-take areas on economic returns and biomass of coral trout with a model that simulates the metapopulation dynamics of coral trout and its harvest"  My version, "What combination of area closures and fishery regulations, either catch or effort limits, will produce the optimal economic return and fishery biomass?"</t>
         </is>
       </c>
       <c r="U37" s="6" t="inlineStr">
         <is>
-          <t>Not discussed.</t>
+          <t>Not discussed</t>
         </is>
       </c>
       <c r="V37" s="5" t="inlineStr">
@@ -6122,7 +6124,7 @@
       </c>
       <c r="Y37" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z37" s="8" t="inlineStr">
@@ -6137,7 +6139,7 @@
       </c>
       <c r="AB37" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC37" s="8" t="inlineStr">
@@ -6157,17 +6159,17 @@
       </c>
       <c r="AF37" s="6" t="inlineStr">
         <is>
-          <t>Horbowy, J., 2011. Comparison of stock management with production, difference, and age-structured models using operating models. Fisheries Research, 108(1), pp.153-162.</t>
+          <t>Little, L.R., Grafton, R.Q., Kompas, T., Smith, A.D.M., Punt, A.E. and Mapstone, B.D., 2011. Complementarity of no‐take marine reserves and individual transferable catch quotas for managing the line fishery of the Great Barrier Reef. Conservation Biology, 25(2), pp.333-340.</t>
         </is>
       </c>
       <c r="AG37" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2010.12.015</t>
+          <t>10.1111/j.1523-1739.2010.01590.x</t>
         </is>
       </c>
       <c r="AH37" s="6" t="inlineStr">
         <is>
-          <t>Simulation driving study and no discussion of the decision making preceedure was provided.  The authors ranked performance across all performance measures, applying equal weighting to each performance measure in their trade-off analysis.</t>
+          <t>No process discussion is presented by the authors.  Seemingly this was a scientist driven project without external input.  While an optimal alternative was not selected, as no weights were applied to the two objectives, the authors do note that a combination of a closure with an ITQ will out perform other options (competitive TAC, no closure).</t>
         </is>
       </c>
       <c r="AI37" s="9" t="b">
@@ -6176,49 +6178,49 @@
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>Ellis et. al.</t>
+          <t>Harford et. al.</t>
         </is>
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D38" s="6" t="inlineStr">
         <is>
-          <t>prawn</t>
+          <t>Red Grouper (Epinephelus morio)</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>Torres Straight</t>
+          <t>Gulf of Mexico</t>
         </is>
       </c>
       <c r="F38" s="7">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="G38" s="7">
-        <v>142</v>
+        <v>-90</v>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>Torres Straight prawn fishery</t>
+          <t>Gulf of Mexico red grouper fishery</t>
         </is>
       </c>
       <c r="I38" s="8" t="inlineStr">
         <is>
-          <t>Allowable Catch Adjustment, Fishing Behavior, Species Interactions, Uncertainty</t>
+          <t>Environmental Conditions, Management Timeline, Uncertainty</t>
         </is>
       </c>
       <c r="J38" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="9" t="b">
         <v>0</v>
@@ -6246,8 +6248,7 @@
       </c>
       <c r="T38" s="6" t="inlineStr">
         <is>
-          <t>The problem given by the authors is contained in this paragraph, "The trawling industry is now under pressure from community groups, local legislation and international certification, to ensure the conservation of the ecosystem as a whole. Furthermore, there is now increasing recognition from both the fishing industry and the fisheries managers that sustainable harvesting requires the preservation of both the target stocks and the ecosystem in which
-these resources are embedded. There is therefore a need for managers to understand the effects of their management actions on both the target stocks and the benthos."  My version, "What combination closures and effort restrictions will best achieve the fishing and benthic conservation objectives in the Torres Straight?"</t>
+          <t>(1) “Does the existing GMFMC management approach need to be modified to achieve management objectives due to effects of episodic natural mortality events?”; and (2) “If modifications are considered, what are their effects on and trade-offs for maintaining sustainable fisheries?”</t>
         </is>
       </c>
       <c r="U38" s="6" t="inlineStr">
@@ -6277,7 +6278,7 @@
       </c>
       <c r="Z38" s="8" t="inlineStr">
         <is>
-          <t>Decision Makers, Fishery, Government, Management, Public, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA38" s="8" t="inlineStr">
@@ -6297,7 +6298,7 @@
       </c>
       <c r="AD38" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE38" s="8" t="inlineStr">
@@ -6307,17 +6308,17 @@
       </c>
       <c r="AF38" s="6" t="inlineStr">
         <is>
-          <t>Ellis, N., Pantus, F., Welna, A. and Butler, A., 2008. Evaluating ecosystem-based management options: effects of trawling in Torres Strait, Australia. Continental Shelf Research, 28(16), pp.2324-2338.</t>
+          <t>Harford, W.J., Grüss, A., Schirripa, M.J., Sagarese, S.R., Bryan, M. and Karnauskas, M., 2018. Handle with care: establishing catch limits for fish stocks experiencing episodic natural mortality events. Fisheries, 43(10), pp.463-471.</t>
         </is>
       </c>
       <c r="AG38" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.csr.2008.03.031</t>
+          <t>10.1002/fsh.10131</t>
         </is>
       </c>
       <c r="AH38" s="6" t="inlineStr">
         <is>
-          <t>A stakeholder process occurred as part of this MSE, but seemingingly it was a feedback process, not a proactive process.  At least, not problem defition or objective setting input is described.</t>
+          <t>No process discussion is presented.  Seemingly a scientist lead simulation study of the impacts of extreme natural mortality events and HCRs that are responsive to these effects.</t>
         </is>
       </c>
       <c r="AI38" s="9" t="b">
@@ -6326,43 +6327,42 @@
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
-          <t>Bischof et. al.</t>
+          <t>Ives et. al.</t>
         </is>
       </c>
       <c r="C39" s="5" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t>brown bear (Ursus arctos), Eurasian lynx (Lynx lynx), grey
-wolf (Canis lupus) and wolverine (Gulo gulo)</t>
+          <t>eastern school prawn (Metapenaeus macleayi)</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Estonia, Latvia and Norway</t>
+          <t>Clarence River, New South Wales (NSW), Australia</t>
         </is>
       </c>
       <c r="F39" s="7">
-        <v>62</v>
+        <v>-29</v>
       </c>
       <c r="G39" s="7">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>European carnivore management</t>
+          <t>Clarence River eastern school prawn fishery</t>
         </is>
       </c>
       <c r="I39" s="8" t="inlineStr">
         <is>
-          <t>Implementation Uncertainty</t>
+          <t>Climate Change, Spatial Structure</t>
         </is>
       </c>
       <c r="J39" s="9" t="b">
@@ -6375,16 +6375,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="9" t="b">
         <v>0</v>
       </c>
       <c r="P39" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="9" t="b">
         <v>0</v>
@@ -6397,12 +6397,12 @@
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
-          <t>My version, "What effect does implementation uncertainty have on the achievement of target harvest of european carnivores?"</t>
+          <t>What management strategy will best achieve Clarence River eastern school prawn fishery objectives given changes to river discharge resulting from future rainfall variability?</t>
         </is>
       </c>
       <c r="U39" s="6" t="inlineStr">
         <is>
-          <t>No objectives stated.</t>
+          <t>Unspecified.  The indicators aren't described prior to the results section</t>
         </is>
       </c>
       <c r="V39" s="5" t="inlineStr">
@@ -6412,22 +6412,22 @@
       </c>
       <c r="W39" s="5" t="inlineStr">
         <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="X39" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y39" s="8" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="X39" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y39" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="Z39" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Management, Scientists</t>
         </is>
       </c>
       <c r="AA39" s="8" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="AC39" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Management</t>
         </is>
       </c>
       <c r="AD39" s="8" t="inlineStr">
@@ -6457,17 +6457,17 @@
       </c>
       <c r="AF39" s="6" t="inlineStr">
         <is>
-          <t>Bischof, R., Nilsen, E.B., Brøseth, H., Männil, P., Ozoliņš, J. and Linnell, J.D., 2012. Implementation uncertainty when using recreational hunting to manage carnivores. Journal of Applied Ecology, 49(4), pp.824-832.</t>
+          <t>Ives, M.C., Scandol, J.P., Montgomery, S.S. and Suthers, I.M., 2010. Modelling the possible effects of climate change on an Australian multi-fleet prawn fishery. Marine and Freshwater Research, 60(12), pp.1211-1222.</t>
         </is>
       </c>
       <c r="AG39" s="5" t="inlineStr">
         <is>
-          <t>10.1111/j.1365-2664.2012.02167.x</t>
+          <t>10.1071/MF07110</t>
         </is>
       </c>
       <c r="AH39" s="6" t="inlineStr">
         <is>
-          <t>This was simulation study only, in that a decision was not clearly identified that relates to this study of implementation uncertainty.</t>
+          <t>No clear alternative was selected, but in the discussion the authors note that each of the management strategies evaluated perform similarly for the objectives considered. They note the absense of additional objectives that are likely important, such as cost, that would likley lead to selection of the status quo strategy.</t>
         </is>
       </c>
       <c r="AI39" s="9" t="b">
@@ -6476,42 +6476,42 @@
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
-          <t>Little et. al.</t>
+          <t>A'mar et. al.</t>
         </is>
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
-          <t>common coral trout (Plectropomus leopardus)</t>
+          <t>Walleye pollock (Theragra chalcogramma)</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Great Barrier Reef</t>
+          <t>Gulf of Alaska</t>
         </is>
       </c>
       <c r="F40" s="7">
-        <v>-18</v>
+        <v>58</v>
       </c>
       <c r="G40" s="7">
-        <v>148</v>
+        <v>-144</v>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>Great Barrier Reef coral reef fin fish fishery</t>
+          <t>Gulf of Alaska Walleye pollock fishery</t>
         </is>
       </c>
       <c r="I40" s="8" t="inlineStr">
         <is>
-          <t>Fishing Behavior</t>
+          <t>Climate Change</t>
         </is>
       </c>
       <c r="J40" s="9" t="b">
@@ -6546,12 +6546,12 @@
       </c>
       <c r="T40" s="6" t="inlineStr">
         <is>
-          <t>From authors, "We explored the effects of harvest-management systems in the form of ITQs and no-take areas on economic returns and biomass of coral trout with a model that simulates the metapopulation dynamics of coral trout and its harvest"  My version, "What combination of area closures and fishery regulations, either catch or effort limits, will produce the optimal economic return and fishery biomass?"</t>
+          <t>Which of two proposed management strategies will perform best given climate change impacts to the Gulf of Alaska walleye pollock fishery, and are the proposed management strategies robust to climate change impacts?</t>
         </is>
       </c>
       <c r="U40" s="6" t="inlineStr">
         <is>
-          <t>Not discussed</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V40" s="5" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="W40" s="5" t="inlineStr">
         <is>
-          <t>Visualization</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X40" s="5" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="Z40" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Management, Scientists</t>
         </is>
       </c>
       <c r="AA40" s="8" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="AB40" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Management, Scientists</t>
         </is>
       </c>
       <c r="AC40" s="8" t="inlineStr">
@@ -6606,17 +6606,17 @@
       </c>
       <c r="AF40" s="6" t="inlineStr">
         <is>
-          <t>Little, L.R., Grafton, R.Q., Kompas, T., Smith, A.D.M., Punt, A.E. and Mapstone, B.D., 2011. Complementarity of no‐take marine reserves and individual transferable catch quotas for managing the line fishery of the Great Barrier Reef. Conservation Biology, 25(2), pp.333-340.</t>
+          <t>A’mar, Z.T., Punt, A.E. and Dorn, M.W., 2009. The evaluation of two management strategies for the Gulf of Alaska walleye pollock fishery under climate change. ICES Journal of Marine Science, 66(7), pp.1614-1632.</t>
         </is>
       </c>
       <c r="AG40" s="5" t="inlineStr">
         <is>
-          <t>10.1111/j.1523-1739.2010.01590.x</t>
+          <t>10.1093/icesjms/fsp044</t>
         </is>
       </c>
       <c r="AH40" s="6" t="inlineStr">
         <is>
-          <t>No process discussion is presented by the authors.  Seemingly this was a scientist driven project without external input.  While an optimal alternative was not selected, as no weights were applied to the two objectives, the authors do note that a combination of a closure with an ITQ will out perform other options (competitive TAC, no closure).</t>
+          <t>The focus of this MSE is less on selecting a management procedure, and more on evaluating the implications of climate to management.</t>
         </is>
       </c>
       <c r="AI40" s="9" t="b">
@@ -6625,49 +6625,49 @@
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
-          <t>Harford et. al.</t>
+          <t>Brunel et al</t>
         </is>
       </c>
       <c r="C41" s="5" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
         <is>
-          <t>Red Grouper (Epinephelus morio)</t>
+          <t>herring (Clupea harengus), plaice (Pleuronectes platessa), and cod (Gadus morhua)</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Gulf of Mexico</t>
+          <t>North Sea</t>
         </is>
       </c>
       <c r="F41" s="7">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G41" s="7">
-        <v>-90</v>
+        <v>4</v>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>Gulf of Mexico red grouper fishery</t>
+          <t>North Sea fishery case studies</t>
         </is>
       </c>
       <c r="I41" s="8" t="inlineStr">
         <is>
-          <t>Environmental Conditions, Management Timeline, Uncertainty</t>
+          <t>Climate Change</t>
         </is>
       </c>
       <c r="J41" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K41" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="9" t="b">
         <v>0</v>
@@ -6695,12 +6695,12 @@
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
-          <t>(1) “Does the existing GMFMC management approach need to be modified to achieve management objectives due to effects of episodic natural mortality events?”; and (2) “If modifications are considered, what are their effects on and trade-offs for maintaining sustainable fisheries?”</t>
+          <t>Study problem defintion:  Do environmentally responsive harvest control rules improve the achievement of management outcomes?  This study doesn't seem to be directly triggered by management questions, but a management focused wording of the problem would be something like:  What combination of harvest control rule definition and environmental resposiveness strategy will best achieve fishery management objectives?</t>
         </is>
       </c>
       <c r="U41" s="6" t="inlineStr">
         <is>
-          <t>Not discussed</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="V41" s="5" t="inlineStr">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="Z41" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Management, Scientists</t>
         </is>
       </c>
       <c r="AA41" s="8" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="AB41" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AC41" s="8" t="inlineStr">
@@ -6755,17 +6755,17 @@
       </c>
       <c r="AF41" s="6" t="inlineStr">
         <is>
-          <t>Harford, W.J., Grüss, A., Schirripa, M.J., Sagarese, S.R., Bryan, M. and Karnauskas, M., 2018. Handle with care: establishing catch limits for fish stocks experiencing episodic natural mortality events. Fisheries, 43(10), pp.463-471.</t>
+          <t>Brunel, T., Piet, G.J., van Hal, R. and Röckmann, C., 2010. Performance of harvest control rules in a variable environment. ICES Journal of Marine Science, 67(5), pp.1051-1062.</t>
         </is>
       </c>
       <c r="AG41" s="5" t="inlineStr">
         <is>
-          <t>10.1002/fsh.10131</t>
+          <t>10.1093/icesjms/fsp297</t>
         </is>
       </c>
       <c r="AH41" s="6" t="inlineStr">
         <is>
-          <t>No process discussion is presented.  Seemingly a scientist lead simulation study of the impacts of extreme natural mortality events and HCRs that are responsive to these effects.</t>
+          <t>This is a simulation study for three case studies more than an effort to determine the optimal management strategy for a particular fishery.</t>
         </is>
       </c>
       <c r="AI41" s="9" t="b">
@@ -6774,42 +6774,42 @@
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
-          <t>Ives et. al.</t>
+          <t>Punt</t>
         </is>
       </c>
       <c r="C42" s="5" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D42" s="6" t="inlineStr">
         <is>
-          <t>eastern school prawn (Metapenaeus macleayi)</t>
+          <t>Pacific ocean perch (S. alutus)</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>Clarence River, New South Wales (NSW), Australia</t>
+          <t>Northeast Pacific</t>
         </is>
       </c>
       <c r="F42" s="7">
-        <v>-29</v>
+        <v>47</v>
       </c>
       <c r="G42" s="7">
-        <v>153</v>
+        <v>-136</v>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>Clarence River eastern school prawn fishery</t>
+          <t>Pacific ocean perch fishery</t>
         </is>
       </c>
       <c r="I42" s="8" t="inlineStr">
         <is>
-          <t>Climate Change, Spatial Structure</t>
+          <t>Climate Change</t>
         </is>
       </c>
       <c r="J42" s="9" t="b">
@@ -6822,10 +6822,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="9" t="b">
         <v>0</v>
@@ -6844,12 +6844,12 @@
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
-          <t>What management strategy will best achieve Clarence River eastern school prawn fishery objectives given changes to river discharge resulting from future rainfall variability?</t>
+          <t>As presented the problem definition would be: How well do current rebuilding plans, and plans that account for climate as a driver of stock status, perform given climate impacts?  That problem definition was not a decision question, but a research question.  A management question for this might be: "What means off account for climate best achieves the objectives of a fisheries rebuilding plan given climate uncertainty?"</t>
         </is>
       </c>
       <c r="U42" s="6" t="inlineStr">
         <is>
-          <t>Unspecified.  The indicators aren't described prior to the results section</t>
+          <t>Unspecified, but seemingly selected by author.</t>
         </is>
       </c>
       <c r="V42" s="5" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="W42" s="5" t="inlineStr">
         <is>
-          <t>Mental Analysis</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X42" s="5" t="inlineStr">
@@ -6869,12 +6869,12 @@
       </c>
       <c r="Y42" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z42" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA42" s="8" t="inlineStr">
@@ -6884,17 +6884,17 @@
       </c>
       <c r="AB42" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AC42" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Management</t>
+          <t/>
         </is>
       </c>
       <c r="AD42" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AE42" s="8" t="inlineStr">
@@ -6904,17 +6904,17 @@
       </c>
       <c r="AF42" s="6" t="inlineStr">
         <is>
-          <t>Ives, M.C., Scandol, J.P., Montgomery, S.S. and Suthers, I.M., 2010. Modelling the possible effects of climate change on an Australian multi-fleet prawn fishery. Marine and Freshwater Research, 60(12), pp.1211-1222.</t>
+          <t>Punt, A.E., 2011. The impact of climate change on the performance of rebuilding strategies for overfished groundfish species of the US west coast. Fisheries Research, 109(2-3), pp.320-329.</t>
         </is>
       </c>
       <c r="AG42" s="5" t="inlineStr">
         <is>
-          <t>10.1071/MF07110</t>
+          <t>10.1016/j.fishres.2011.02.019</t>
         </is>
       </c>
       <c r="AH42" s="6" t="inlineStr">
         <is>
-          <t>No clear alternative was selected, but in the discussion the authors note that each of the management strategies evaluated perform similarly for the objectives considered. They note the absense of additional objectives that are likely important, such as cost, that would likley lead to selection of the status quo strategy.</t>
+          <t>Simulation study without documentation of the decision making process.  MSE focused on rebuilding plans, so assumption of a stock starting below a target abundance with additional objectives related to recovery.</t>
         </is>
       </c>
       <c r="AI42" s="9" t="b">
@@ -6923,37 +6923,37 @@
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
-          <t>A'mar et. al.</t>
+          <t>Wayte</t>
         </is>
       </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>Walleye pollock (Theragra chalcogramma)</t>
+          <t>Jackass morwong (Nemadactylus macropterus)</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>Gulf of Alaska</t>
+          <t>Southeastern Australia</t>
         </is>
       </c>
       <c r="F43" s="7">
-        <v>58</v>
+        <v>-39</v>
       </c>
       <c r="G43" s="7">
-        <v>-144</v>
+        <v>146</v>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>Gulf of Alaska Walleye pollock fishery</t>
+          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
         </is>
       </c>
       <c r="I43" s="8" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="T43" s="6" t="inlineStr">
         <is>
-          <t>Which of two proposed management strategies will perform best given climate change impacts to the Gulf of Alaska walleye pollock fishery, and are the proposed management strategies robust to climate change impacts?</t>
+          <t>No problem definition is explicitly stated.  The closest statement in the journal article is: "Management strategy evaluation (MSE) is used to explore the implications of making management decisions under the wrong recruitment assumption."</t>
         </is>
       </c>
       <c r="U43" s="6" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Unspecified.  Those noted are based on government policy.</t>
         </is>
       </c>
       <c r="V43" s="5" t="inlineStr">
@@ -7018,12 +7018,12 @@
       </c>
       <c r="Y43" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z43" s="8" t="inlineStr">
         <is>
-          <t>Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA43" s="8" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="AB43" s="8" t="inlineStr">
         <is>
-          <t>Management, Scientists</t>
+          <t>Government, Scientists</t>
         </is>
       </c>
       <c r="AC43" s="8" t="inlineStr">
@@ -7053,17 +7053,17 @@
       </c>
       <c r="AF43" s="6" t="inlineStr">
         <is>
-          <t>A’mar, Z.T., Punt, A.E. and Dorn, M.W., 2009. The evaluation of two management strategies for the Gulf of Alaska walleye pollock fishery under climate change. ICES Journal of Marine Science, 66(7), pp.1614-1632.</t>
+          <t>Wayte, S.E., 2013. Management implications of including a climate-induced recruitment shift in the stock assessment for jackass morwong (Nemadactylus macropterus) in south-eastern Australia. Fisheries Research, 142, pp.47-55.</t>
         </is>
       </c>
       <c r="AG43" s="5" t="inlineStr">
         <is>
-          <t>10.1093/icesjms/fsp044</t>
+          <t>10.1016/j.fishres.2012.07.009</t>
         </is>
       </c>
       <c r="AH43" s="6" t="inlineStr">
         <is>
-          <t>The focus of this MSE is less on selecting a management procedure, and more on evaluating the implications of climate to management.</t>
+          <t>This is a simulation study without any reference to a decision making process.</t>
         </is>
       </c>
       <c r="AI43" s="9" t="b">
@@ -7072,64 +7072,64 @@
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
-          <t>Brunel et al</t>
+          <t>Weijerman et al</t>
         </is>
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>herring (Clupea harengus), plaice (Pleuronectes platessa), and cod (Gadus morhua)</t>
+          <t>coral ecosystem</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>North Sea</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="F44" s="7">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G44" s="7">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>North Sea fishery case studies</t>
+          <t>Coral Reef based fisheries surround Guam</t>
         </is>
       </c>
       <c r="I44" s="8" t="inlineStr">
         <is>
-          <t>Climate Change</t>
+          <t>Climate Change, Environmental Conditions, Habitat Change</t>
         </is>
       </c>
       <c r="J44" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="9" t="b">
         <v>0</v>
       </c>
       <c r="L44" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="9" t="b">
         <v>0</v>
       </c>
       <c r="P44" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="9" t="b">
         <v>0</v>
@@ -7142,22 +7142,22 @@
       </c>
       <c r="T44" s="6" t="inlineStr">
         <is>
-          <t>Study problem defintion:  Do environmentally responsive harvest control rules improve the achievement of management outcomes?  This study doesn't seem to be directly triggered by management questions, but a management focused wording of the problem would be something like:  What combination of harvest control rule definition and environmental resposiveness strategy will best achieve fishery management objectives?</t>
+          <t>My definition, "What management strategy will best achieve the management objectives for coral reef fisheries in guam given climate change and pollution impacts to coral reefs?"</t>
         </is>
       </c>
       <c r="U44" s="6" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>a facilitated stakeholder meeting</t>
         </is>
       </c>
       <c r="V44" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Visualization</t>
         </is>
       </c>
       <c r="W44" s="5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t/>
         </is>
       </c>
       <c r="X44" s="5" t="inlineStr">
@@ -7172,27 +7172,27 @@
       </c>
       <c r="Z44" s="8" t="inlineStr">
         <is>
-          <t>Management, Scientists</t>
+          <t>Facilitators, Fishery, Government, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AA44" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AB44" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t/>
         </is>
       </c>
       <c r="AC44" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Government, Independent, Management, Scientists</t>
         </is>
       </c>
       <c r="AD44" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AE44" s="8" t="inlineStr">
@@ -7202,17 +7202,17 @@
       </c>
       <c r="AF44" s="6" t="inlineStr">
         <is>
-          <t>Brunel, T., Piet, G.J., van Hal, R. and Röckmann, C., 2010. Performance of harvest control rules in a variable environment. ICES Journal of Marine Science, 67(5), pp.1051-1062.</t>
+          <t>Weijerman, M., Fulton, E.A. and Brainard, R.E., 2016. Management strategy evaluation applied to coral reef ecosystems in support of ecosystem-based management. PLoS One, 11(3), p.e0152577.</t>
         </is>
       </c>
       <c r="AG44" s="5" t="inlineStr">
         <is>
-          <t>10.1093/icesjms/fsp297</t>
+          <t>10.1371/journal.pone.0152577</t>
         </is>
       </c>
       <c r="AH44" s="6" t="inlineStr">
         <is>
-          <t>This is a simulation study for three case studies more than an effort to determine the optimal management strategy for a particular fishery.</t>
+          <t>Stakeholders were included in this process, and there was some documentation of the process.  Additional documentation could have covered the development of the problem, roles, and the results of the visual trade-off evaluation.</t>
         </is>
       </c>
       <c r="AI44" s="9" t="b">
@@ -7221,37 +7221,37 @@
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5" t="inlineStr">
         <is>
-          <t>Punt</t>
+          <t>Little and Lin</t>
         </is>
       </c>
       <c r="C45" s="5" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>Pacific ocean perch (S. alutus)</t>
+          <t>NA (beach management)</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>Northeast Pacific</t>
+          <t>New South Wales, Australia</t>
         </is>
       </c>
       <c r="F45" s="7">
-        <v>47</v>
+        <v>-33</v>
       </c>
       <c r="G45" s="7">
-        <v>-136</v>
+        <v>152</v>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>Pacific ocean perch fishery</t>
+          <t>New South Wales Beaches (not a fishery)</t>
         </is>
       </c>
       <c r="I45" s="8" t="inlineStr">
@@ -7263,13 +7263,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M45" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="9" t="b">
         <v>0</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="9" t="b">
         <v>0</v>
@@ -7291,12 +7291,12 @@
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
-          <t>As presented the problem definition would be: How well do current rebuilding plans, and plans that account for climate as a driver of stock status, perform given climate impacts?  That problem definition was not a decision question, but a research question.  A management question for this might be: "What means off account for climate best achieves the objectives of a fisheries rebuilding plan given climate uncertainty?"</t>
+          <t>"Here, we focus on the adaptation option of coastal nourishment, where coastal land loss is combatted by replacing lost sand on the beach by pumping new sand (usually from offshore)." While the authors have a section title "defining the problem", it is a mainly summary of the system ending with the statement above.  My problem definition given the information provided by the authors would be: "What coastal management should be conducted to account for beach recession?"</t>
         </is>
       </c>
       <c r="U45" s="6" t="inlineStr">
         <is>
-          <t>Unspecified, but seemingly selected by author.</t>
+          <t>They were not elicited, and were presumably provided by the authros.</t>
         </is>
       </c>
       <c r="V45" s="5" t="inlineStr">
@@ -7306,19 +7306,19 @@
       </c>
       <c r="W45" s="5" t="inlineStr">
         <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="X45" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y45" s="8" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="X45" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y45" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
       <c r="Z45" s="8" t="inlineStr">
         <is>
           <t>Scientists</t>
@@ -7351,61 +7351,61 @@
       </c>
       <c r="AF45" s="6" t="inlineStr">
         <is>
-          <t>Punt, A.E., 2011. The impact of climate change on the performance of rebuilding strategies for overfished groundfish species of the US west coast. Fisheries Research, 109(2-3), pp.320-329.</t>
+          <t>Little, L.R. and Lin, B.B., 2017. A decision analysis approach to climate adaptation: a structured method to consider multiple options. Mitigation and adaptation strategies for global change, 22(1), pp.15-28.</t>
         </is>
       </c>
       <c r="AG45" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2011.02.019</t>
+          <t>10.1007/s11027-015-9658-8</t>
         </is>
       </c>
       <c r="AH45" s="6" t="inlineStr">
         <is>
-          <t>Simulation study without documentation of the decision making process.  MSE focused on rebuilding plans, so assumption of a stock starting below a target abundance with additional objectives related to recovery.</t>
+          <t>This is not a fisheries decision, but a shoreline management decision.</t>
         </is>
       </c>
       <c r="AI45" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" s="5" t="inlineStr">
         <is>
-          <t>Wayte</t>
+          <t>Hofmann et al</t>
         </is>
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
-          <t>Jackass morwong (Nemadactylus macropterus)</t>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>Southeastern Australia</t>
+          <t>Mid Atlantic Bight</t>
         </is>
       </c>
       <c r="F46" s="7">
-        <v>-39</v>
+        <v>40</v>
       </c>
       <c r="G46" s="7">
-        <v>146</v>
+        <v>-73</v>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
+          <t>Mid Atlantic Bight surfclam fishery</t>
         </is>
       </c>
       <c r="I46" s="8" t="inlineStr">
         <is>
-          <t>Climate Change</t>
+          <t>Climate Change, Migration</t>
         </is>
       </c>
       <c r="J46" s="9" t="b">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="T46" s="6" t="inlineStr">
         <is>
-          <t>No problem definition is explicitly stated.  The closest statement in the journal article is: "Management strategy evaluation (MSE) is used to explore the implications of making management decisions under the wrong recruitment assumption."</t>
+          <t>Not provided clearly by authors.  My definition, "How can surfclam be managed in a manner that accounts for known factors and impending climate change?"</t>
         </is>
       </c>
       <c r="U46" s="6" t="inlineStr">
         <is>
-          <t>Unspecified.  Those noted are based on government policy.</t>
+          <t>None provided</t>
         </is>
       </c>
       <c r="V46" s="5" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="AB46" s="8" t="inlineStr">
         <is>
-          <t>Government, Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AC46" s="8" t="inlineStr">
@@ -7490,27 +7490,27 @@
       </c>
       <c r="AD46" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AE46" s="8" t="inlineStr">
         <is>
-          <t>Simulation modeling</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AF46" s="6" t="inlineStr">
         <is>
-          <t>Wayte, S.E., 2013. Management implications of including a climate-induced recruitment shift in the stock assessment for jackass morwong (Nemadactylus macropterus) in south-eastern Australia. Fisheries Research, 142, pp.47-55.</t>
+          <t>Hofmann, E.E., Powell, E.N., Klinck, J.M., Munroe, D.M., Mann, R., Haidvogel, D.B., NarvÁEz, D.A., Zhang, X. and Kuykendall, K.M., 2018. An Overview of Factors Affecting Distribution of the Atlantic Surfclam (Spisula solidissima), a Continental Shelf Biomass Dominant, During a Period of Climate Change. Journal of Shellfish Research, 37(4), pp.821-832.</t>
         </is>
       </c>
       <c r="AG46" s="5" t="inlineStr">
         <is>
-          <t>10.1016/j.fishres.2012.07.009</t>
+          <t>10.2983/035.037.0412</t>
         </is>
       </c>
       <c r="AH46" s="6" t="inlineStr">
         <is>
-          <t>This is a simulation study without any reference to a decision making process.</t>
+          <t>Appartently an MSE was conducted, or is being conducted, but the objectives, and alternatives evaluated are not provided, only a conceptual model of the system is provided.</t>
         </is>
       </c>
       <c r="AI46" s="9" t="b">
@@ -7519,64 +7519,64 @@
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>Weijerman et al</t>
+          <t>Kuykendall et al</t>
         </is>
       </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>coral ecosystem</t>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Mid Atlantic Bight</t>
         </is>
       </c>
       <c r="F47" s="7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G47" s="7">
-        <v>145</v>
+        <v>-73</v>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>Coral Reef based fisheries surround Guam</t>
+          <t>Mid Atlantic Bight surfclam fishery</t>
         </is>
       </c>
       <c r="I47" s="8" t="inlineStr">
         <is>
-          <t>Climate Change, Environmental Conditions, Habitat Change</t>
+          <t>Climate Change, Uncertainty</t>
         </is>
       </c>
       <c r="J47" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="9" t="b">
         <v>0</v>
       </c>
       <c r="L47" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="9" t="b">
         <v>0</v>
       </c>
       <c r="P47" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="9" t="b">
         <v>0</v>
@@ -7589,22 +7589,23 @@
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
-          <t>My definition, "What management strategy will best achieve the management objectives for coral reef fisheries in guam given climate change and pollution impacts to coral reefs?"</t>
+          <t>My summary, "What spatial management strategy will best achieve surfclam management objectives in the future in response to the projected influence climate change may have of stock abundance?"</t>
         </is>
       </c>
       <c r="U47" s="6" t="inlineStr">
         <is>
-          <t>a facilitated stakeholder meeting</t>
+          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel
+captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
         </is>
       </c>
       <c r="V47" s="5" t="inlineStr">
         <is>
-          <t>Visualization</t>
+          <t/>
         </is>
       </c>
       <c r="W47" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Mental Analysis</t>
         </is>
       </c>
       <c r="X47" s="5" t="inlineStr">
@@ -7619,22 +7620,22 @@
       </c>
       <c r="Z47" s="8" t="inlineStr">
         <is>
-          <t>Facilitators, Fishery, Government, Independent, Management, Scientists</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA47" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government, Independent, Management, Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AB47" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Fishery, Scientists</t>
         </is>
       </c>
       <c r="AC47" s="8" t="inlineStr">
         <is>
-          <t>Fishery, Government, Independent, Management, Scientists</t>
+          <t/>
         </is>
       </c>
       <c r="AD47" s="8" t="inlineStr">
@@ -7649,17 +7650,17 @@
       </c>
       <c r="AF47" s="6" t="inlineStr">
         <is>
-          <t>Weijerman, M., Fulton, E.A. and Brainard, R.E., 2016. Management strategy evaluation applied to coral reef ecosystems in support of ecosystem-based management. PLoS One, 11(3), p.e0152577.</t>
+          <t>Kuykendall, K.M., Powell, E.N., Klinck, J.M., Moreno, P.T. and Leaf, R.T., 2019. The effect of abundance changes on a management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Ocean &amp; Coastal Management, 169, pp.68-85.</t>
         </is>
       </c>
       <c r="AG47" s="5" t="inlineStr">
         <is>
-          <t>10.1371/journal.pone.0152577</t>
+          <t>10.1016/j.ocecoaman.2018.11.008</t>
         </is>
       </c>
       <c r="AH47" s="6" t="inlineStr">
         <is>
-          <t>Stakeholders were included in this process, and there was some documentation of the process.  Additional documentation could have covered the development of the problem, roles, and the results of the visual trade-off evaluation.</t>
+          <t>Simulation model includes a model of fishing behavior.</t>
         </is>
       </c>
       <c r="AI47" s="9" t="b">
@@ -7668,37 +7669,37 @@
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
-          <t>Little and Lin</t>
+          <t>Ianelli et al</t>
         </is>
       </c>
       <c r="C48" s="5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>NA (beach management)</t>
+          <t>walleye pollock (Theragra chalcogramma)</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>New South Wales, Australia</t>
+          <t>Eastern Bering Sea</t>
         </is>
       </c>
       <c r="F48" s="7">
-        <v>-33</v>
+        <v>57</v>
       </c>
       <c r="G48" s="7">
-        <v>152</v>
+        <v>-165</v>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>New South Wales Beaches (not a fishery)</t>
+          <t>Eastern Bering Sea pollock fishery</t>
         </is>
       </c>
       <c r="I48" s="8" t="inlineStr">
@@ -7710,16 +7711,16 @@
         <v>0</v>
       </c>
       <c r="K48" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M48" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="9" t="b">
         <v>0</v>
@@ -7738,22 +7739,22 @@
       </c>
       <c r="T48" s="6" t="inlineStr">
         <is>
-          <t>"Here, we focus on the adaptation option of coastal nourishment, where coastal land loss is combatted by replacing lost sand on the beach by pumping new sand (usually from offshore)." While the authors have a section title "defining the problem", it is a mainly summary of the system ending with the statement above.  My problem definition given the information provided by the authors would be: "What coastal management should be conducted to account for beach recession?"</t>
+          <t>My summary, "What management proceedure will be achieve the pollock fisher management objectives given future climate change?"</t>
         </is>
       </c>
       <c r="U48" s="6" t="inlineStr">
         <is>
-          <t>They were not elicited, and were presumably provided by the authros.</t>
+          <t>Unspecified how objectives, or the weights applied to those objectives, were selected.</t>
         </is>
       </c>
       <c r="V48" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>MCDA</t>
         </is>
       </c>
       <c r="W48" s="5" t="inlineStr">
         <is>
-          <t>Mental Analysis</t>
+          <t/>
         </is>
       </c>
       <c r="X48" s="5" t="inlineStr">
@@ -7763,12 +7764,12 @@
       </c>
       <c r="Y48" s="8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="Z48" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Experts, Scientists</t>
         </is>
       </c>
       <c r="AA48" s="8" t="inlineStr">
@@ -7778,7 +7779,7 @@
       </c>
       <c r="AB48" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Experts, Scientists</t>
         </is>
       </c>
       <c r="AC48" s="8" t="inlineStr">
@@ -7788,478 +7789,30 @@
       </c>
       <c r="AD48" s="8" t="inlineStr">
         <is>
-          <t>Scientists</t>
+          <t>Experts, Scientists</t>
         </is>
       </c>
       <c r="AE48" s="8" t="inlineStr">
         <is>
-          <t>Simulation modeling</t>
+          <t>Expert elicitation, Simulation modeling</t>
         </is>
       </c>
       <c r="AF48" s="6" t="inlineStr">
         <is>
-          <t>Little, L.R. and Lin, B.B., 2017. A decision analysis approach to climate adaptation: a structured method to consider multiple options. Mitigation and adaptation strategies for global change, 22(1), pp.15-28.</t>
+          <t>Ianelli, J.N., Hollowed, A.B., Haynie, A.C., Mueter, F.J. and Bond, N.A., 2011. Evaluating management strategies for eastern Bering Sea walleye pollock (Theragra chalcogramma) in a changing environment. ICES Journal of Marine Science, 68(6), pp.1297-1304.</t>
         </is>
       </c>
       <c r="AG48" s="5" t="inlineStr">
         <is>
-          <t>10.1007/s11027-015-9658-8</t>
+          <t>10.1093/icesjms/fsr010</t>
         </is>
       </c>
       <c r="AH48" s="6" t="inlineStr">
         <is>
-          <t>This is not a fisheries decision, but a shoreline management decision.</t>
+          <t>While Trade-offs were evaluated, the weights used were not elicited.  Authors note asking questions of experts, but it isn't clear who the experts are, or what questions they were asked.</t>
         </is>
       </c>
       <c r="AI48" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>Hofmann et al</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>Atlantic surfclam (Spisula solidissima)</t>
-        </is>
-      </c>
-      <c r="E49" s="5" t="inlineStr">
-        <is>
-          <t>Mid Atlantic Bight</t>
-        </is>
-      </c>
-      <c r="F49" s="7">
-        <v>40</v>
-      </c>
-      <c r="G49" s="7">
-        <v>-73</v>
-      </c>
-      <c r="H49" s="5" t="inlineStr">
-        <is>
-          <t>Mid Atlantic Bight surfclam fishery</t>
-        </is>
-      </c>
-      <c r="I49" s="8" t="inlineStr">
-        <is>
-          <t>Climate Change, Migration</t>
-        </is>
-      </c>
-      <c r="J49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Not provided clearly by authors.  My definition, "How can surfclam be managed in a manner that accounts for known factors and impending climate change?"</t>
-        </is>
-      </c>
-      <c r="U49" s="6" t="inlineStr">
-        <is>
-          <t>None provided</t>
-        </is>
-      </c>
-      <c r="V49" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W49" s="5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="X49" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y49" s="8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="Z49" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA49" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB49" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC49" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD49" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE49" s="8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="AF49" s="6" t="inlineStr">
-        <is>
-          <t>Hofmann, E.E., Powell, E.N., Klinck, J.M., Munroe, D.M., Mann, R., Haidvogel, D.B., NarvÁEz, D.A., Zhang, X. and Kuykendall, K.M., 2018. An Overview of Factors Affecting Distribution of the Atlantic Surfclam (Spisula solidissima), a Continental Shelf Biomass Dominant, During a Period of Climate Change. Journal of Shellfish Research, 37(4), pp.821-832.</t>
-        </is>
-      </c>
-      <c r="AG49" s="5" t="inlineStr">
-        <is>
-          <t>10.2983/035.037.0412</t>
-        </is>
-      </c>
-      <c r="AH49" s="6" t="inlineStr">
-        <is>
-          <t>Appartently an MSE was conducted, or is being conducted, but the objectives, and alternatives evaluated are not provided, only a conceptual model of the system is provided.</t>
-        </is>
-      </c>
-      <c r="AI49" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>Kuykendall et al</t>
-        </is>
-      </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>Atlantic surfclam (Spisula solidissima)</t>
-        </is>
-      </c>
-      <c r="E50" s="5" t="inlineStr">
-        <is>
-          <t>Mid Atlantic Bight</t>
-        </is>
-      </c>
-      <c r="F50" s="7">
-        <v>40</v>
-      </c>
-      <c r="G50" s="7">
-        <v>-73</v>
-      </c>
-      <c r="H50" s="5" t="inlineStr">
-        <is>
-          <t>Mid Atlantic Bight surfclam fishery</t>
-        </is>
-      </c>
-      <c r="I50" s="8" t="inlineStr">
-        <is>
-          <t>Climate Change, Uncertainty</t>
-        </is>
-      </c>
-      <c r="J50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6" t="inlineStr">
-        <is>
-          <t>My summary, "What spatial management strategy will best achieve surfclam management objectives in the future in response to the projected influence climate change may have of stock abundance?"</t>
-        </is>
-      </c>
-      <c r="U50" s="6" t="inlineStr">
-        <is>
-          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel
-captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
-        </is>
-      </c>
-      <c r="V50" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W50" s="5" t="inlineStr">
-        <is>
-          <t>Mental Analysis</t>
-        </is>
-      </c>
-      <c r="X50" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y50" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z50" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="AA50" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB50" s="8" t="inlineStr">
-        <is>
-          <t>Fishery, Scientists</t>
-        </is>
-      </c>
-      <c r="AC50" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD50" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE50" s="8" t="inlineStr">
-        <is>
-          <t>Simulation modeling</t>
-        </is>
-      </c>
-      <c r="AF50" s="6" t="inlineStr">
-        <is>
-          <t>Kuykendall, K.M., Powell, E.N., Klinck, J.M., Moreno, P.T. and Leaf, R.T., 2019. The effect of abundance changes on a management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Ocean &amp; Coastal Management, 169, pp.68-85.</t>
-        </is>
-      </c>
-      <c r="AG50" s="5" t="inlineStr">
-        <is>
-          <t>10.1016/j.ocecoaman.2018.11.008</t>
-        </is>
-      </c>
-      <c r="AH50" s="6" t="inlineStr">
-        <is>
-          <t>Simulation model includes a model of fishing behavior.</t>
-        </is>
-      </c>
-      <c r="AI50" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
-        <is>
-          <t>Ianelli et al</t>
-        </is>
-      </c>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
-        <is>
-          <t>walleye pollock (Theragra chalcogramma)</t>
-        </is>
-      </c>
-      <c r="E51" s="5" t="inlineStr">
-        <is>
-          <t>Eastern Bering Sea</t>
-        </is>
-      </c>
-      <c r="F51" s="7">
-        <v>57</v>
-      </c>
-      <c r="G51" s="7">
-        <v>-165</v>
-      </c>
-      <c r="H51" s="5" t="inlineStr">
-        <is>
-          <t>Eastern Bering Sea pollock fishery</t>
-        </is>
-      </c>
-      <c r="I51" s="8" t="inlineStr">
-        <is>
-          <t>Climate Change</t>
-        </is>
-      </c>
-      <c r="J51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6" t="inlineStr">
-        <is>
-          <t>My summary, "What management proceedure will be achieve the pollock fisher management objectives given future climate change?"</t>
-        </is>
-      </c>
-      <c r="U51" s="6" t="inlineStr">
-        <is>
-          <t>Unspecified how objectives, or the weights applied to those objectives, were selected.</t>
-        </is>
-      </c>
-      <c r="V51" s="5" t="inlineStr">
-        <is>
-          <t>MCDA</t>
-        </is>
-      </c>
-      <c r="W51" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X51" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y51" s="8" t="inlineStr">
-        <is>
-          <t>Scientists</t>
-        </is>
-      </c>
-      <c r="Z51" s="8" t="inlineStr">
-        <is>
-          <t>Experts, Scientists</t>
-        </is>
-      </c>
-      <c r="AA51" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB51" s="8" t="inlineStr">
-        <is>
-          <t>Experts, Scientists</t>
-        </is>
-      </c>
-      <c r="AC51" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD51" s="8" t="inlineStr">
-        <is>
-          <t>Experts, Scientists</t>
-        </is>
-      </c>
-      <c r="AE51" s="8" t="inlineStr">
-        <is>
-          <t>Expert elicitation, Simulation modeling</t>
-        </is>
-      </c>
-      <c r="AF51" s="6" t="inlineStr">
-        <is>
-          <t>Ianelli, J.N., Hollowed, A.B., Haynie, A.C., Mueter, F.J. and Bond, N.A., 2011. Evaluating management strategies for eastern Bering Sea walleye pollock (Theragra chalcogramma) in a changing environment. ICES Journal of Marine Science, 68(6), pp.1297-1304.</t>
-        </is>
-      </c>
-      <c r="AG51" s="5" t="inlineStr">
-        <is>
-          <t>10.1093/icesjms/fsr010</t>
-        </is>
-      </c>
-      <c r="AH51" s="6" t="inlineStr">
-        <is>
-          <t>While Trade-offs were evaluated, the weights used were not elicited.  Authors note asking questions of experts, but it isn't clear who the experts are, or what questions they were asked.</t>
-        </is>
-      </c>
-      <c r="AI51" s="9" t="b">
         <v>1</v>
       </c>
     </row>
